--- a/plan/Rośliny.Zestawienie.xlsx
+++ b/plan/Rośliny.Zestawienie.xlsx
@@ -1595,8 +1595,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>297883</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>385142</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>61705</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1630,7 +1630,11 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:I103" totalsRowCount="1" headerRowDxfId="14" totalsRowDxfId="12" tableBorderDxfId="13">
-  <autoFilter ref="A1:I102"/>
+  <autoFilter ref="A1:I102">
+    <filterColumn colId="5">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" name="Nr" totalsRowLabel="Suma" totalsRowDxfId="8"/>
     <tableColumn id="2" name="Nazwa" totalsRowDxfId="7"/>
@@ -1936,8 +1940,8 @@
   <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1981,7 +1985,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22.5">
+    <row r="2" spans="1:15" ht="25.5" hidden="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2014,7 +2018,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="22.5">
+    <row r="3" spans="1:15" ht="25.5" hidden="1">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2047,7 +2051,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="22.5">
+    <row r="4" spans="1:15" ht="25.5" hidden="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2080,7 +2084,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="26.25" customHeight="1">
+    <row r="5" spans="1:15" ht="26.25" hidden="1" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2113,7 +2117,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="38.25">
+    <row r="6" spans="1:15" ht="38.25" hidden="1">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -2146,7 +2150,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" hidden="1">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -2179,7 +2183,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="60">
+    <row r="8" spans="1:15" ht="60" hidden="1">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -2212,7 +2216,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="38.25">
+    <row r="9" spans="1:15" ht="38.25" hidden="1">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -2245,7 +2249,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="33.75">
+    <row r="10" spans="1:15" ht="33.75" hidden="1">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -2278,7 +2282,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="45">
+    <row r="11" spans="1:15" ht="45" hidden="1">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -2308,7 +2312,7 @@
         <v>46.999999999999986</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="45">
+    <row r="12" spans="1:15" ht="45" hidden="1">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -2338,7 +2342,7 @@
         <v>41.66666666666665</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="26.25" customHeight="1">
+    <row r="13" spans="1:15" ht="26.25" hidden="1" customHeight="1">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -2368,7 +2372,7 @@
         <v>105.99999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="26.25" customHeight="1">
+    <row r="14" spans="1:15" ht="26.25" hidden="1" customHeight="1">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -2398,7 +2402,7 @@
         <v>46.66666666666665</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="26.25" customHeight="1">
+    <row r="15" spans="1:15" ht="26.25" hidden="1" customHeight="1">
       <c r="A15" s="5">
         <v>9</v>
       </c>
@@ -2428,7 +2432,7 @@
         <v>108.16666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="26.25" customHeight="1">
+    <row r="16" spans="1:15" ht="26.25" hidden="1" customHeight="1">
       <c r="A16" s="5">
         <v>10</v>
       </c>
@@ -2458,7 +2462,7 @@
         <v>72.333333333333101</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="24">
+    <row r="17" spans="1:9" ht="24" hidden="1">
       <c r="A17" s="5">
         <v>10</v>
       </c>
@@ -2488,7 +2492,7 @@
         <v>32.499999999999901</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="22.5">
+    <row r="18" spans="1:9" ht="22.5" hidden="1">
       <c r="A18" s="5">
         <v>11</v>
       </c>
@@ -2518,7 +2522,7 @@
         <v>33.999999999999901</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33.75">
+    <row r="19" spans="1:9" ht="33.75" hidden="1">
       <c r="A19" s="5">
         <v>12</v>
       </c>
@@ -2548,7 +2552,7 @@
         <v>70.999999999999801</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="40.5" customHeight="1">
+    <row r="20" spans="1:9" ht="40.5" hidden="1" customHeight="1">
       <c r="A20" s="5">
         <v>13</v>
       </c>
@@ -2578,7 +2582,7 @@
         <v>98.666666666666401</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="45">
+    <row r="21" spans="1:9" ht="45" hidden="1">
       <c r="A21" s="5">
         <v>14</v>
       </c>
@@ -2608,7 +2612,7 @@
         <v>12.8333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="36">
+    <row r="22" spans="1:9" ht="36" hidden="1">
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
@@ -2638,7 +2642,7 @@
         <v>13.3333333333333</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="24">
+    <row r="23" spans="1:9" ht="24" hidden="1">
       <c r="A23" s="5">
         <v>15</v>
       </c>
@@ -2668,7 +2672,7 @@
         <v>110.6666666666664</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="24">
+    <row r="24" spans="1:9" ht="24" hidden="1">
       <c r="A24" s="5">
         <v>15</v>
       </c>
@@ -2698,7 +2702,7 @@
         <v>386.99999999999909</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="33.75">
+    <row r="25" spans="1:9" ht="33.75" hidden="1">
       <c r="A25" s="5">
         <v>16</v>
       </c>
@@ -2728,7 +2732,7 @@
         <v>14.8333333333333</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="33.75">
+    <row r="26" spans="1:9" ht="33.75" hidden="1">
       <c r="A26" s="5">
         <v>16</v>
       </c>
@@ -2758,7 +2762,7 @@
         <v>61.333333333333201</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="25.5">
+    <row r="27" spans="1:9" ht="25.5" hidden="1">
       <c r="A27" s="5">
         <v>17</v>
       </c>
@@ -2788,7 +2792,7 @@
         <v>253.3333333333328</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="25.5">
+    <row r="28" spans="1:9" ht="25.5" hidden="1">
       <c r="A28" s="5">
         <v>17</v>
       </c>
@@ -2818,7 +2822,7 @@
         <v>130.6666666666664</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="25.5">
+    <row r="29" spans="1:9" ht="25.5" hidden="1">
       <c r="A29" s="5">
         <v>18</v>
       </c>
@@ -2848,7 +2852,7 @@
         <v>50.499999999999901</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="25.5">
+    <row r="30" spans="1:9" ht="25.5" hidden="1">
       <c r="A30" s="5">
         <v>18</v>
       </c>
@@ -2878,7 +2882,7 @@
         <v>51.999999999999901</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="56.25">
+    <row r="31" spans="1:9" ht="56.25" hidden="1">
       <c r="A31" s="5">
         <v>19</v>
       </c>
@@ -2908,7 +2912,7 @@
         <v>124.8333333333331</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="25.5">
+    <row r="32" spans="1:9" ht="25.5" hidden="1">
       <c r="A32" s="5">
         <v>20</v>
       </c>
@@ -2938,7 +2942,7 @@
         <v>18.3333333333333</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="45">
+    <row r="33" spans="1:9" ht="45" hidden="1">
       <c r="A33" s="5">
         <v>21</v>
       </c>
@@ -2968,7 +2972,7 @@
         <v>395.49999999999932</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="33.75">
+    <row r="34" spans="1:9" ht="33.75" hidden="1">
       <c r="A34" s="5">
         <v>22</v>
       </c>
@@ -2998,7 +3002,7 @@
         <v>309.3333333333328</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="69" customHeight="1">
+    <row r="35" spans="1:9" ht="69" hidden="1" customHeight="1">
       <c r="A35" s="5">
         <v>23</v>
       </c>
@@ -3028,7 +3032,7 @@
         <v>158.6666666666664</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="38.25">
+    <row r="36" spans="1:9" ht="38.25" hidden="1">
       <c r="A36" s="5">
         <v>24</v>
       </c>
@@ -3058,7 +3062,7 @@
         <v>182.99999999999972</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="38.25">
+    <row r="37" spans="1:9" ht="38.25" hidden="1">
       <c r="A37" s="5">
         <v>25</v>
       </c>
@@ -3088,7 +3092,7 @@
         <v>62.499999999999901</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="25.5">
+    <row r="38" spans="1:9" ht="25.5" hidden="1">
       <c r="A38" s="5">
         <v>26</v>
       </c>
@@ -3118,7 +3122,7 @@
         <v>63.999999999999901</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="25.5">
+    <row r="39" spans="1:9" ht="25.5" hidden="1">
       <c r="A39" s="5">
         <v>26</v>
       </c>
@@ -3148,7 +3152,7 @@
         <v>240.16666666666629</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="22.5">
+    <row r="40" spans="1:9" ht="22.5" hidden="1">
       <c r="A40" s="5">
         <v>27</v>
       </c>
@@ -3178,7 +3182,7 @@
         <v>379.66666666666612</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="22.5">
+    <row r="41" spans="1:9" ht="22.5" hidden="1">
       <c r="A41" s="5">
         <v>28</v>
       </c>
@@ -3208,7 +3212,7 @@
         <v>45.6666666666666</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="22.5">
+    <row r="42" spans="1:9" ht="22.5" hidden="1">
       <c r="A42" s="5">
         <v>28</v>
       </c>
@@ -3238,7 +3242,7 @@
         <v>46.6666666666666</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="51">
+    <row r="43" spans="1:9" ht="51" hidden="1">
       <c r="A43" s="5">
         <v>29</v>
       </c>
@@ -3268,7 +3272,7 @@
         <v>309.83333333333292</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="33.75">
+    <row r="44" spans="1:9" ht="33.75" hidden="1">
       <c r="A44" s="5">
         <v>30</v>
       </c>
@@ -3298,7 +3302,7 @@
         <v>316.33333333333292</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="25.5">
+    <row r="45" spans="1:9" ht="25.5" hidden="1">
       <c r="A45" s="5">
         <v>31</v>
       </c>
@@ -3328,7 +3332,7 @@
         <v>24.8333333333333</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="24">
+    <row r="46" spans="1:9" ht="24" hidden="1">
       <c r="A46" s="5">
         <v>32</v>
       </c>
@@ -3358,7 +3362,7 @@
         <v>253.333333333333</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="38.25">
+    <row r="47" spans="1:9" ht="38.25" hidden="1">
       <c r="A47" s="5">
         <v>33</v>
       </c>
@@ -3388,7 +3392,7 @@
         <v>129.16666666666652</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="33.75">
+    <row r="48" spans="1:9" ht="33.75" hidden="1">
       <c r="A48" s="5">
         <v>34</v>
       </c>
@@ -3418,7 +3422,7 @@
         <v>184.33333333333309</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="38.25">
+    <row r="49" spans="1:9" ht="38.25" hidden="1">
       <c r="A49" s="5">
         <v>35</v>
       </c>
@@ -3448,7 +3452,7 @@
         <v>321.9999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="25.5">
+    <row r="50" spans="1:9" ht="25.5" hidden="1">
       <c r="A50" s="5">
         <v>36</v>
       </c>
@@ -3478,7 +3482,7 @@
         <v>245.99999999999972</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="33.75">
+    <row r="51" spans="1:9" ht="33.75" hidden="1">
       <c r="A51" s="5">
         <v>37</v>
       </c>
@@ -3508,7 +3512,7 @@
         <v>27.8333333333333</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="48">
+    <row r="52" spans="1:9" ht="48" hidden="1">
       <c r="A52" s="5">
         <v>38</v>
       </c>
@@ -3538,7 +3542,7 @@
         <v>113.3333333333332</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="38.25">
+    <row r="53" spans="1:9" ht="38.25" hidden="1">
       <c r="A53" s="5">
         <v>39</v>
       </c>
@@ -3568,7 +3572,7 @@
         <v>172.9999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="38.25">
+    <row r="54" spans="1:9" ht="38.25" hidden="1">
       <c r="A54" s="5">
         <v>39</v>
       </c>
@@ -3598,7 +3602,7 @@
         <v>87.999999999999901</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="24.75">
+    <row r="55" spans="1:9" ht="24.75" hidden="1">
       <c r="A55" s="5">
         <v>40</v>
       </c>
@@ -3628,7 +3632,7 @@
         <v>149.16666666666652</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="51">
+    <row r="56" spans="1:9" ht="51" hidden="1">
       <c r="A56" s="5">
         <v>41</v>
       </c>
@@ -3658,7 +3662,7 @@
         <v>30.3333333333333</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" hidden="1">
       <c r="A57" s="5">
         <v>42</v>
       </c>
@@ -3688,7 +3692,7 @@
         <v>184.9999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="56.25">
+    <row r="58" spans="1:9" ht="56.25" hidden="1">
       <c r="A58" s="5">
         <v>43</v>
       </c>
@@ -3718,7 +3722,7 @@
         <v>93.999999999999901</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="22.5">
+    <row r="59" spans="1:9" ht="22.5" hidden="1">
       <c r="A59" s="5">
         <v>44</v>
       </c>
@@ -3748,7 +3752,7 @@
         <v>159.16666666666652</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="22.5">
+    <row r="60" spans="1:9" ht="22.5" hidden="1">
       <c r="A60" s="5">
         <v>45</v>
       </c>
@@ -3778,7 +3782,7 @@
         <v>96.999999999999901</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="24">
+    <row r="61" spans="1:9" ht="24" hidden="1">
       <c r="A61" s="5">
         <v>46</v>
       </c>
@@ -3808,7 +3812,7 @@
         <v>229.83333333333309</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="45">
+    <row r="62" spans="1:9" ht="45" hidden="1">
       <c r="A62" s="5">
         <v>47</v>
       </c>
@@ -3836,7 +3840,7 @@
         <v>166.66666666666652</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="22.5">
+    <row r="63" spans="1:9" ht="22.5" hidden="1">
       <c r="A63" s="5">
         <v>48</v>
       </c>
@@ -3866,7 +3870,7 @@
         <v>169.16666666666652</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="36" customHeight="1">
+    <row r="64" spans="1:9" ht="36" hidden="1" customHeight="1">
       <c r="A64" s="5">
         <v>49</v>
       </c>
@@ -3896,7 +3900,7 @@
         <v>240.33333333333309</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="51">
+    <row r="65" spans="1:9" ht="51" hidden="1">
       <c r="A65" s="5">
         <v>50</v>
       </c>
@@ -3926,7 +3930,7 @@
         <v>313.49999999999972</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="56.25">
+    <row r="66" spans="1:9" ht="56.25" hidden="1">
       <c r="A66" s="12">
         <v>51</v>
       </c>
@@ -3956,7 +3960,7 @@
         <v>35.3333333333333</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="56.25">
+    <row r="67" spans="1:9" ht="56.25" hidden="1">
       <c r="A67" s="12">
         <v>52</v>
       </c>
@@ -3986,7 +3990,7 @@
         <v>35.8333333333333</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="56.25">
+    <row r="68" spans="1:9" ht="56.25" hidden="1">
       <c r="A68" s="12">
         <v>53</v>
       </c>
@@ -4016,7 +4020,7 @@
         <v>36.3333333333333</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="90">
+    <row r="69" spans="1:9" ht="90" hidden="1">
       <c r="A69" s="12">
         <v>54</v>
       </c>
@@ -4046,7 +4050,7 @@
         <v>36.8333333333333</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="90">
+    <row r="70" spans="1:9" ht="90" hidden="1">
       <c r="A70" s="12">
         <v>55</v>
       </c>
@@ -4076,7 +4080,7 @@
         <v>74.6666666666666</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="60">
+    <row r="71" spans="1:9" ht="60" hidden="1">
       <c r="A71" s="5">
         <v>56</v>
       </c>
@@ -4106,7 +4110,7 @@
         <v>113.4999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="22.5">
+    <row r="72" spans="1:9" ht="22.5" hidden="1">
       <c r="A72" s="5">
         <v>57</v>
       </c>
@@ -4136,7 +4140,7 @@
         <v>38.3333333333333</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="38.25">
+    <row r="73" spans="1:9" ht="38.25" hidden="1">
       <c r="A73" s="5">
         <v>58</v>
       </c>
@@ -4166,7 +4170,7 @@
         <v>194.16666666666652</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="33.75">
+    <row r="74" spans="1:9" ht="33.75" hidden="1">
       <c r="A74" s="5">
         <v>59</v>
       </c>
@@ -4196,7 +4200,7 @@
         <v>471.9999999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="22.5" customHeight="1">
+    <row r="75" spans="1:9" ht="22.5" hidden="1" customHeight="1">
       <c r="A75" s="5">
         <v>60</v>
       </c>
@@ -4226,7 +4230,7 @@
         <v>79.6666666666666</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="36">
+    <row r="76" spans="1:9" ht="36" hidden="1">
       <c r="A76" s="5">
         <v>61</v>
       </c>
@@ -4256,7 +4260,7 @@
         <v>120.9999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="33.75">
+    <row r="77" spans="1:9" ht="33.75" hidden="1">
       <c r="A77" s="5">
         <v>62</v>
       </c>
@@ -4286,7 +4290,7 @@
         <v>40.8333333333333</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="45">
+    <row r="78" spans="1:9" ht="45" hidden="1">
       <c r="A78" s="5">
         <v>63</v>
       </c>
@@ -4316,7 +4320,7 @@
         <v>454.66666666666629</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="33.75">
+    <row r="79" spans="1:9" ht="33.75" hidden="1">
       <c r="A79" s="5">
         <v>64</v>
       </c>
@@ -4346,7 +4350,7 @@
         <v>167.3333333333332</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="25.5" customHeight="1">
+    <row r="80" spans="1:9" ht="25.5" hidden="1" customHeight="1">
       <c r="A80" s="5">
         <v>65</v>
       </c>
@@ -4376,7 +4380,7 @@
         <v>126.9999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="33.75">
+    <row r="81" spans="1:9" ht="33.75" hidden="1">
       <c r="A81" s="5">
         <v>66</v>
       </c>
@@ -4406,7 +4410,7 @@
         <v>214.16666666666652</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="56.25">
+    <row r="82" spans="1:9" ht="56.25" hidden="1">
       <c r="A82" s="5">
         <v>67</v>
       </c>
@@ -4436,7 +4440,7 @@
         <v>303.33333333333309</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="45">
+    <row r="83" spans="1:9" ht="45" hidden="1">
       <c r="A83" s="5">
         <v>68</v>
       </c>
@@ -4466,7 +4470,7 @@
         <v>350.6666666666664</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="45">
+    <row r="84" spans="1:9" ht="45" hidden="1">
       <c r="A84" s="5">
         <v>69</v>
       </c>
@@ -4496,7 +4500,7 @@
         <v>44.3333333333333</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="33.75">
+    <row r="85" spans="1:9" ht="33.75" hidden="1">
       <c r="A85" s="5">
         <v>70</v>
       </c>
@@ -4526,7 +4530,7 @@
         <v>224.16666666666652</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="45">
+    <row r="86" spans="1:9" ht="45" hidden="1">
       <c r="A86" s="5">
         <v>71</v>
       </c>
@@ -4556,7 +4560,7 @@
         <v>135.99999999999989</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="22.5">
+    <row r="87" spans="1:9" ht="22.5" hidden="1">
       <c r="A87" s="5">
         <v>72</v>
       </c>
@@ -4586,7 +4590,7 @@
         <v>137.49999999999989</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="45">
+    <row r="88" spans="1:9" ht="45" hidden="1">
       <c r="A88" s="5">
         <v>73</v>
       </c>
@@ -4616,7 +4620,7 @@
         <v>185.3333333333332</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="25.5">
+    <row r="89" spans="1:9" ht="25.5" hidden="1">
       <c r="A89" s="5">
         <v>74</v>
       </c>
@@ -4646,7 +4650,7 @@
         <v>140.49999999999989</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="36" customHeight="1">
+    <row r="90" spans="1:9" ht="36" hidden="1" customHeight="1">
       <c r="A90" s="5">
         <v>75</v>
       </c>
@@ -4676,7 +4680,7 @@
         <v>47.3333333333333</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="67.5">
+    <row r="91" spans="1:9" ht="67.5" hidden="1">
       <c r="A91" s="5">
         <v>76</v>
       </c>
@@ -4706,7 +4710,7 @@
         <v>191.3333333333332</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="33.75">
+    <row r="92" spans="1:9" ht="33.75" hidden="1">
       <c r="A92" s="5">
         <v>77</v>
       </c>
@@ -4736,7 +4740,7 @@
         <v>338.33333333333309</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="67.5">
+    <row r="93" spans="1:9" ht="67.5" hidden="1">
       <c r="A93" s="5">
         <v>78</v>
       </c>
@@ -4782,7 +4786,9 @@
       <c r="E94" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F94" s="8"/>
+      <c r="F94" s="8">
+        <v>2</v>
+      </c>
       <c r="G94" s="8">
         <v>4</v>
       </c>
@@ -4794,7 +4800,7 @@
         <v>197.3333333333332</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="45">
+    <row r="95" spans="1:9" ht="45" hidden="1">
       <c r="A95" s="5"/>
       <c r="B95" s="23" t="s">
         <v>33</v>
@@ -4822,7 +4828,7 @@
         <v>896.99999999999943</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="45">
+    <row r="96" spans="1:9" ht="45" hidden="1">
       <c r="A96" s="5"/>
       <c r="B96" s="24" t="s">
         <v>67</v>
@@ -4850,7 +4856,7 @@
         <v>1761.6666666666656</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="45">
+    <row r="97" spans="1:9" ht="45" hidden="1">
       <c r="A97" s="5"/>
       <c r="B97" s="24" t="s">
         <v>68</v>
@@ -4878,7 +4884,7 @@
         <v>762.49999999999955</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="45">
+    <row r="98" spans="1:9" ht="45" hidden="1">
       <c r="A98" s="5"/>
       <c r="B98" s="24" t="s">
         <v>69</v>
@@ -4906,7 +4912,7 @@
         <v>769.99999999999955</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="33.75">
+    <row r="99" spans="1:9" ht="33.75" hidden="1">
       <c r="A99" s="5"/>
       <c r="B99" s="24" t="s">
         <v>70</v>
@@ -4934,7 +4940,7 @@
         <v>2332.4999999999986</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="42.75" customHeight="1">
+    <row r="100" spans="1:9" ht="42.75" hidden="1" customHeight="1">
       <c r="A100" s="5"/>
       <c r="B100" s="25" t="s">
         <v>71</v>
@@ -4962,7 +4968,7 @@
         <v>1412.9999999999991</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="33.75">
+    <row r="101" spans="1:9" ht="33.75" hidden="1">
       <c r="A101" s="5"/>
       <c r="B101" s="23" t="s">
         <v>34</v>
@@ -4990,7 +4996,7 @@
         <v>2060.4999999999986</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="33.75">
+    <row r="102" spans="1:9" ht="33.75" hidden="1">
       <c r="A102" s="28"/>
       <c r="B102" s="24" t="s">
         <v>72</v>
@@ -5018,7 +5024,7 @@
         <v>1119.9999999999993</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="24">
+    <row r="103" spans="1:9" ht="15.75">
       <c r="A103" s="30" t="s">
         <v>102</v>
       </c>
@@ -5028,19 +5034,19 @@
       <c r="E103" s="33"/>
       <c r="F103" s="34">
         <f>SUBTOTAL(103,[Strefa])</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G103" s="34">
         <f>SUBTOTAL(109,[Liczba (sztuki)])</f>
-        <v>793</v>
+        <v>4</v>
       </c>
       <c r="H103" s="36">
         <f>SUBTOTAL(101,[Średnia cena])</f>
-        <v>28.333333333333318</v>
+        <v>49.3333333333333</v>
       </c>
       <c r="I103" s="34">
         <f>SUBTOTAL(109,[Suma])</f>
-        <v>24381.833333333325</v>
+        <v>197.3333333333332</v>
       </c>
     </row>
     <row r="104" spans="1:9">

--- a/plan/Rośliny.Zestawienie.xlsx
+++ b/plan/Rośliny.Zestawienie.xlsx
@@ -8,17 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="Zestawienie" sheetId="1" r:id="rId1"/>
+    <sheet name="Statystyki" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Zestawienie!$A$1:$I$102</definedName>
     <definedName name="Typ.Rośliny">Zestawienie!$O$1:$O$10</definedName>
   </definedNames>
   <calcPr calcId="125725" calcMode="autoNoTable"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="186">
   <si>
     <t>Nr</t>
   </si>
@@ -826,12 +830,36 @@
   <si>
     <t>Średnia</t>
   </si>
+  <si>
+    <t>Funkie są piękne :)</t>
+  </si>
+  <si>
+    <t>Kolumna1</t>
+  </si>
+  <si>
+    <t>Suma z Suma</t>
+  </si>
+  <si>
+    <t>Suma końcowa</t>
+  </si>
+  <si>
+    <t>Typ rośliny</t>
+  </si>
+  <si>
+    <t>Suma z Suma, Razem</t>
+  </si>
+  <si>
+    <t>Suma z Liczba (sztuki), Razem</t>
+  </si>
+  <si>
+    <t>Suma z Liczba (sztuki)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -939,8 +967,14 @@
       <family val="1"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -953,8 +987,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1010,11 +1056,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1125,11 +1182,178 @@
     <xf numFmtId="2" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1595,8 +1819,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>297883</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>61705</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>235640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1628,25 +1852,1561 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="42425.825420717592" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="101">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabela1"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Nr" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="79"/>
+    </cacheField>
+    <cacheField name="Nazwa" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Opis" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Typ" numFmtId="0">
+      <sharedItems count="9">
+        <s v="Krzew"/>
+        <s v="Drzewo małe"/>
+        <s v="Krzewinka"/>
+        <s v="Krzew mały"/>
+        <s v="Paproć"/>
+        <s v="Drzewo"/>
+        <s v="Bylina"/>
+        <s v="Trawa"/>
+        <s v="Cebulkowe"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Zimozielony?" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Strefa" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="7" count="7">
+        <n v="6"/>
+        <n v="7"/>
+        <n v="1"/>
+        <n v="5"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Liczba (sztuki)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="45"/>
+    </cacheField>
+    <cacheField name="Średnia cena" numFmtId="2">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.5" maxValue="200" count="32">
+        <n v="50"/>
+        <n v="35"/>
+        <n v="20"/>
+        <n v="200"/>
+        <n v="6"/>
+        <n v="27"/>
+        <n v="13"/>
+        <n v="7.1"/>
+        <m/>
+        <n v="10"/>
+        <n v="5"/>
+        <n v="40"/>
+        <n v="15"/>
+        <n v="85"/>
+        <n v="4"/>
+        <n v="12"/>
+        <n v="140"/>
+        <n v="25"/>
+        <n v="8"/>
+        <n v="30"/>
+        <n v="150"/>
+        <n v="60"/>
+        <n v="7"/>
+        <n v="100"/>
+        <n v="80"/>
+        <n v="70"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="90"/>
+        <n v="0.5"/>
+        <n v="1.5"/>
+        <n v="2.5"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Suma" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1260"/>
+    </cacheField>
+    <cacheField name="Kolumna1" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="101">
+  <r>
+    <n v="1"/>
+    <s v="Taxus baccata - Cis pospolity, forma stożka, 80cm"/>
+    <s v="Gleba żyzna, wilgotnawa"/>
+    <x v="0"/>
+    <s v="TAK"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="0"/>
+    <n v="100"/>
+    <m/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Taxus baccata - Cis pospolity, forma stożka, 60cm"/>
+    <s v="Gleba żyzna, wilgotnawa"/>
+    <x v="0"/>
+    <s v="TAK"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="1"/>
+    <n v="70"/>
+    <m/>
+  </r>
+  <r>
+    <n v="1"/>
+    <s v="Taxus baccata - Cis pospolity, forma stożka, 45cm"/>
+    <s v="Gleba żyzna, wilgotnawa"/>
+    <x v="0"/>
+    <s v="TAK"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="40"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Magnolia x soulangeana „Alexandrina” - Magnolia pośrednia, Posadzić w formie drzewka na nodze;"/>
+    <s v="Gleba żyzna, wilgotnawa, lekko kwaśna, IV-V"/>
+    <x v="1"/>
+    <s v="NIE"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="3"/>
+    <n v="200"/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Pachysandra terminalis „Variegata”– Runianka japońska ; Zimozielona krzewinka zadarniająca; stworzy szczelny dywan"/>
+    <s v="Gleba żyzna, wilgotna, próchniczna"/>
+    <x v="2"/>
+    <s v="TAK"/>
+    <x v="0"/>
+    <n v="35"/>
+    <x v="4"/>
+    <n v="210"/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Leucothoe „Zeblid” - Kiścień"/>
+    <s v="Gleba kwaśna"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="0"/>
+    <n v="16"/>
+    <x v="5"/>
+    <n v="432"/>
+    <m/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="Hydrangea paniculata „BOBO” – Hortensja bukietowa, karłowa Nie wycinać suchych kwiatostanów na zimę, dopiero wiosną; Warto wczesną wiosną (marzec) przyciąć nad 3-4 pąkiem, by się rozkrzewiła i bujnie kwitła"/>
+    <s v="Gleba kwaśna, próchniczna; VII-X "/>
+    <x v="0"/>
+    <s v="NIE"/>
+    <x v="0"/>
+    <n v="6"/>
+    <x v="6"/>
+    <n v="78"/>
+    <m/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Euonymus fortunei „Emerald’n’ Gold” – Trzmielina Fortune’a ; Można przycinać, aby stworzyła zimozielony dywan;"/>
+    <s v="Gleba żyzna i wilgotna"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="7"/>
+    <n v="106.5"/>
+    <m/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Pieris japonica „Little Heath” – Pieris japoński"/>
+    <s v="Gleba kwaśna, przepuszczalna"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="0"/>
+    <n v="6"/>
+    <x v="2"/>
+    <n v="120"/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="Polystichum setiferum „Herrenhausen”–  Paprotnik szczecinkozębny"/>
+    <s v="Gleba wilgotna, próchniczna, wapienna"/>
+    <x v="4"/>
+    <s v="TAK"/>
+    <x v="0"/>
+    <n v="6"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="Polystichum setiferum „Herrenhausen”–  Paprotnik szczecinkozębny"/>
+    <s v="Gleba wilgotna, próchniczna, wapienna"/>
+    <x v="4"/>
+    <s v="TAK"/>
+    <x v="1"/>
+    <n v="5"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Thuja occidentalis „Janed Gold” – Żywotnik zachodniSadzić w rzędzie jako żywopłot co 70 cm"/>
+    <s v="Gleba żyzna, wilgotnawa"/>
+    <x v="1"/>
+    <s v="TAK"/>
+    <x v="2"/>
+    <n v="12"/>
+    <x v="9"/>
+    <n v="120"/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Thuja occidentalis „Janed Gold” – Żywotnik zachodniSadzić w rzędzie jako żywopłot co 70 cm"/>
+    <s v="Gleba żyzna, wilgotnawa"/>
+    <x v="1"/>
+    <s v="TAK"/>
+    <x v="3"/>
+    <n v="5"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Thuja occidentalis „Janed Gold” – Żywotnik zachodniSadzić w rzędzie jako żywopłot co 70 cm"/>
+    <s v="Gleba żyzna, wilgotnawa"/>
+    <x v="1"/>
+    <s v="TAK"/>
+    <x v="4"/>
+    <n v="11"/>
+    <x v="9"/>
+    <n v="110"/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Picea abies „Cupressina” – Świerk pospolity, wąskokolumnowy"/>
+    <s v="Gleba ogrodowa"/>
+    <x v="5"/>
+    <s v="TAK"/>
+    <x v="4"/>
+    <n v="7"/>
+    <x v="10"/>
+    <n v="35"/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Picea abies „Cupressina” – Świerk pospolity, wąskokolumnowy"/>
+    <s v="Gleba ogrodowa"/>
+    <x v="5"/>
+    <s v="TAK"/>
+    <x v="3"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="Thuja plicata „Kórnik III” - Żywotnik olbrzymi"/>
+    <s v="Gleba żyzna, wilgotnawa"/>
+    <x v="1"/>
+    <s v="TAK"/>
+    <x v="3"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="Thuja occidentalis „Golden Tuffet” - Żywotnik zachodni, karłowy"/>
+    <s v="Gleba gliniasta, próchniczna"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="3"/>
+    <n v="6"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="13"/>
+    <s v="Heuchera „Marmalade” - Żurawka"/>
+    <s v="Gleba żyzna, próchniczna, VI-VIII"/>
+    <x v="6"/>
+    <s v="NIE"/>
+    <x v="3"/>
+    <n v="8"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="14"/>
+    <s v="Viburnum plicatum Grandiflorum”- Kalina japońska"/>
+    <s v="Gleba żyzna, wilgotnawa, lekko kwaśna, V-VI"/>
+    <x v="0"/>
+    <s v="NIE"/>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="14a"/>
+    <s v="Rhododendron „Ken Janeck” - Różanecznik, W celu corocznego zakwaszania gleby, należy podlać roślinę roztworem siarczanu amonu; najlepiej około kwietnia;"/>
+    <s v="Gleba kwaśna, żyzna, V-VI"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="15"/>
+    <s v="Thuja occidentalis „Smaragd” – Żywotnik zachodni, Sadzić co 70 cm (żywopłot); "/>
+    <s v="Gleba żyzna, wilgotnawa"/>
+    <x v="1"/>
+    <s v="TAK"/>
+    <x v="3"/>
+    <n v="8"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="15"/>
+    <s v="Thuja occidentalis „Smaragd” – Żywotnik zachodni, Sadzić co 70 cm (żywopłot); "/>
+    <s v="Gleba żyzna, wilgotnawa"/>
+    <x v="1"/>
+    <s v="TAK"/>
+    <x v="4"/>
+    <n v="27"/>
+    <x v="2"/>
+    <n v="540"/>
+    <m/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="Chamaecyparis lawsoniana „Stewartii” - Cyprysik Lawsona"/>
+    <s v="Gleba wilgotnawa, żyzna"/>
+    <x v="5"/>
+    <s v="TAK"/>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="Chamaecyparis lawsoniana „Stewartii” - Cyprysik Lawsona"/>
+    <s v="Gleba wilgotnawa, żyzna"/>
+    <x v="5"/>
+    <s v="TAK"/>
+    <x v="4"/>
+    <n v="4"/>
+    <x v="9"/>
+    <n v="40"/>
+    <m/>
+  </r>
+  <r>
+    <n v="17"/>
+    <s v="Euonymus fortunei „Emerald Gaiety” – Trzmielina Fortune’a; Można przycinać"/>
+    <s v="Gleba żyzna i wilgotna"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="3"/>
+    <n v="16"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="17"/>
+    <s v="Euonymus fortunei „Emerald Gaiety” – Trzmielina Fortune’a; Można przycinać"/>
+    <s v="Gleba żyzna i wilgotna"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="4"/>
+    <n v="8"/>
+    <x v="10"/>
+    <n v="40"/>
+    <m/>
+  </r>
+  <r>
+    <n v="18"/>
+    <s v="Platycladus orientalis „Aurea Nana” - Żywotnik wschodni"/>
+    <s v="Gleba ogrodowa"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="3"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="18"/>
+    <s v="Platycladus orientalis „Aurea Nana” - Żywotnik wschodni"/>
+    <s v="Gleba ogrodowa"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="4"/>
+    <n v="3"/>
+    <x v="11"/>
+    <n v="120"/>
+    <m/>
+  </r>
+  <r>
+    <n v="19"/>
+    <s v="Anemone x hybrida „Honorine Jobert”– Zawilec mieszańcowy (biały)"/>
+    <s v="Gleba żyzna, piaszczysto-gliniasta, wilgotna;VIII-X"/>
+    <x v="6"/>
+    <s v="NIE"/>
+    <x v="3"/>
+    <n v="7"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="20"/>
+    <s v="Pinus parviflora  „Negishi” - Sosna drobnokwiatowa"/>
+    <s v="Gleba przeciętna"/>
+    <x v="1"/>
+    <s v="TAK"/>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="21"/>
+    <s v="Calluna vulgaris „Darkness” – Wrzos pospolity (fioletowo-różowy)"/>
+    <s v="Gleba próchniczna, kwaśna VIII-X"/>
+    <x v="2"/>
+    <s v="TAK"/>
+    <x v="3"/>
+    <n v="21"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="22"/>
+    <s v="Erica carnea „Golden Starlet” – Wrzosiec czerwony (biały)"/>
+    <s v="Gleba próchniczna, kwaśna"/>
+    <x v="2"/>
+    <s v="TAK"/>
+    <x v="3"/>
+    <n v="16"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="23"/>
+    <s v="Buxus microphylla „Faulkner” - Bukszpan drobnolistny, kulisty Posadzić różne średnice;"/>
+    <s v="Gleba żyzna, wapienna"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="2"/>
+    <n v="8"/>
+    <x v="12"/>
+    <n v="120"/>
+    <m/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="Taxus baccata „Fastigiata Robusta”  - Cis pospolity, kolumnowy Posadzić w 3 wysokościach"/>
+    <s v="Gleba żyzna, wilgotna"/>
+    <x v="1"/>
+    <s v="TAK"/>
+    <x v="2"/>
+    <n v="9"/>
+    <x v="9"/>
+    <n v="90"/>
+    <m/>
+  </r>
+  <r>
+    <n v="25"/>
+    <s v="Miscanthus sinensis „Morning Light” – Miskant chiński_x000a_Wczesną wiosna przyciąć nisko nad ziemią;"/>
+    <s v="Gleba żyzna, wilgotna VII-IX"/>
+    <x v="7"/>
+    <s v="NIE"/>
+    <x v="2"/>
+    <n v="3"/>
+    <x v="12"/>
+    <n v="45"/>
+    <m/>
+  </r>
+  <r>
+    <n v="26"/>
+    <s v="Thuja occidentalis „Amber Glow” – Żywotnik zachodni"/>
+    <s v="Gleba ogrodowa"/>
+    <x v="1"/>
+    <s v="TAK"/>
+    <x v="2"/>
+    <n v="3"/>
+    <x v="12"/>
+    <n v="45"/>
+    <m/>
+  </r>
+  <r>
+    <n v="26"/>
+    <s v="Thuja occidentalis „Amber Glow” – Żywotnik zachodni"/>
+    <s v="Gleba ogrodowa"/>
+    <x v="1"/>
+    <s v="TAK"/>
+    <x v="4"/>
+    <n v="11"/>
+    <x v="12"/>
+    <n v="165"/>
+    <m/>
+  </r>
+  <r>
+    <n v="27"/>
+    <s v="Carex morrowii „Ice Dance” – Turzyca japońska"/>
+    <s v="Gleba ogrodowa"/>
+    <x v="7"/>
+    <s v="TAK"/>
+    <x v="2"/>
+    <n v="17"/>
+    <x v="4"/>
+    <n v="102"/>
+    <m/>
+  </r>
+  <r>
+    <n v="28"/>
+    <s v="Pinus mugo „OPHIR” – Sosna górska (karłowa)"/>
+    <s v="Każda gleba ogrodowa"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="5"/>
+    <n v="2"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="28"/>
+    <s v="Pinus mugo „OPHIR” – Sosna górska (karłowa)"/>
+    <s v="Każda gleba ogrodowa"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="6"/>
+    <n v="2"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="29"/>
+    <s v="Iberis sempervirens – Ubiorek wiecznie zielony (kwitnie na biało) _x000a_Aby ładnie wyglądał, należy przyciąć po kwitnieniu"/>
+    <s v="Gleba żyzna, przepuszczalna IV-V"/>
+    <x v="6"/>
+    <s v="TAK"/>
+    <x v="6"/>
+    <n v="13"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="30"/>
+    <s v="Chamaecyparis lawsoniana „Columnaris” - Cyprysik Lawsona; Sadzić na żywopłot co 80 cm"/>
+    <s v="Gleba żyzna, przepuszczalna"/>
+    <x v="1"/>
+    <s v="TAK"/>
+    <x v="4"/>
+    <n v="13"/>
+    <x v="12"/>
+    <n v="195"/>
+    <m/>
+  </r>
+  <r>
+    <n v="31"/>
+    <s v="Cornus kousa „Satomi” - Dereń Kousa, różowy Prowadzić w formie drzewka"/>
+    <s v="Gleba żyzna, wilgotnawa V"/>
+    <x v="5"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="13"/>
+    <n v="85"/>
+    <m/>
+  </r>
+  <r>
+    <n v="32"/>
+    <s v="Thuja occidentalis „Danica” – Żywotnik zachodni_x000a_Można formować w kulę, gdy będzie nieco za duża;"/>
+    <s v="Gleba żyzna, wilgotnawa"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="4"/>
+    <n v="10"/>
+    <x v="12"/>
+    <n v="150"/>
+    <m/>
+  </r>
+  <r>
+    <n v="33"/>
+    <s v="Nepeta „Walker's Low” - Kocimiętka_x000a_Po pierwszym kwitnieniu warto przyciąć, aby powtórnie zakwitła;"/>
+    <s v="Gleba ogrodowa V-IV"/>
+    <x v="6"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="5"/>
+    <x v="14"/>
+    <n v="20"/>
+    <m/>
+  </r>
+  <r>
+    <n v="34"/>
+    <s v="Hosta „Patriot” - Funkia"/>
+    <s v="Gleba żyzna, stale wilgotna VII-VIII"/>
+    <x v="6"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="7"/>
+    <x v="15"/>
+    <n v="84"/>
+    <s v="Funkie są piękne :)"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <s v="Taxus x media „Hicksii” - Cis pośredni Szybko rosnąca odmiana; Sadzić w rzędzie co 60cm; formować raz w roku (marzec-lipiec)"/>
+    <s v="Gleba żyzna, wilgotnawa"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="4"/>
+    <n v="12"/>
+    <x v="2"/>
+    <n v="240"/>
+    <m/>
+  </r>
+  <r>
+    <n v="36"/>
+    <s v="Betula pendula „Gracilis” - Brzoza pospolita, wys. do 5-6m;"/>
+    <s v="Gleba ogrodowa"/>
+    <x v="1"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="9"/>
+    <x v="16"/>
+    <n v="1260"/>
+    <m/>
+  </r>
+  <r>
+    <n v="37"/>
+    <s v="Sambucus nigra „Gerda” – Bez czarny, purpurowy "/>
+    <s v="Każda gleba ogrodowa VI-VII"/>
+    <x v="0"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="17"/>
+    <n v="25"/>
+    <m/>
+  </r>
+  <r>
+    <n v="38"/>
+    <s v="Hemerocallis hybrida „Crimson Pirate” – Liliowiec ogrodowy_x000a_Po przekwitnięciu liście można przyciąć o 50%, aby ładnie wyglądały;"/>
+    <s v="Gleba żyzna, wilgotnawa; VI-VII"/>
+    <x v="6"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="4"/>
+    <x v="18"/>
+    <n v="32"/>
+    <m/>
+  </r>
+  <r>
+    <n v="39"/>
+    <s v="Prunus laurocerasus „Otto Luyken” – Laurowiśnia wschodnia_x000a_Można przycinać, najpóźniej do połowy VII;"/>
+    <s v="Gleba żyzna, przeciętnie wilgotna"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="4"/>
+    <n v="6"/>
+    <x v="19"/>
+    <n v="180"/>
+    <m/>
+  </r>
+  <r>
+    <n v="39"/>
+    <s v="Prunus laurocerasus „Otto Luyken” – Laurowiśnia wschodnia_x000a_Można przycinać, najpóźniej do połowy VII;"/>
+    <s v="Gleba żyzna, przeciętnie wilgotna"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="40"/>
+    <s v="Pinus nigra „Pyramidalis” - Sosna czarna, kolumnowa"/>
+    <s v="Gleba ogrodowa"/>
+    <x v="5"/>
+    <s v="TAK"/>
+    <x v="4"/>
+    <n v="5"/>
+    <x v="20"/>
+    <n v="750"/>
+    <m/>
+  </r>
+  <r>
+    <n v="41"/>
+    <s v="Hamamelis x intermedia „Jelena” – Oczar pośredni Kwitnie zimą, oryginalne frędzelkowate kwiatostany w kolorze pomarańczowym; jesienią piękne przebarwienia liści;"/>
+    <s v="Gleba świeża, żyzna, lekko kwaśna XII-II"/>
+    <x v="0"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="21"/>
+    <n v="60"/>
+    <m/>
+  </r>
+  <r>
+    <n v="42"/>
+    <s v="Pinus mugo „Mops” – Sosna górska"/>
+    <s v="Każda gleba"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="4"/>
+    <n v="6"/>
+    <x v="11"/>
+    <n v="240"/>
+    <m/>
+  </r>
+  <r>
+    <n v="43"/>
+    <s v="Eupatorium maculatum „Atropurpureum” – Sadziec plamisty Piękna, majestatyczna bylina, kwitnąca pod koniec lata;"/>
+    <s v="Gleba wilgotna, żyzna, zasadowa VII-IX"/>
+    <x v="6"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="3"/>
+    <x v="9"/>
+    <n v="30"/>
+    <m/>
+  </r>
+  <r>
+    <n v="44"/>
+    <s v="Carex elata „Aurea” - Turzyca sztywna"/>
+    <s v="Gleba żyzna, wilgotnawa"/>
+    <x v="7"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="5"/>
+    <x v="22"/>
+    <n v="35"/>
+    <m/>
+  </r>
+  <r>
+    <n v="45"/>
+    <s v="Pinus heldreichii „Satelit” - Sosna bośniacka"/>
+    <s v="Gleba ogrodowa"/>
+    <x v="1"/>
+    <s v="TAK"/>
+    <x v="4"/>
+    <n v="3"/>
+    <x v="23"/>
+    <n v="300"/>
+    <m/>
+  </r>
+  <r>
+    <n v="46"/>
+    <s v="Betula pubescens „Rubra” - Brzoza omszona, purpurowe liście"/>
+    <s v="Gleba ogrodowa"/>
+    <x v="5"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="7"/>
+    <x v="24"/>
+    <n v="560"/>
+    <m/>
+  </r>
+  <r>
+    <n v="47"/>
+    <s v="Fothergilla major – Fotergilla większa"/>
+    <s v="Gleba wilgotna, próchniczna V"/>
+    <x v="0"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="5"/>
+    <x v="2"/>
+    <n v="100"/>
+    <m/>
+  </r>
+  <r>
+    <n v="48"/>
+    <s v="Pinus mugo „Gnom” – Sosna górska karłowa"/>
+    <s v="Gleba przeciętna"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="4"/>
+    <n v="5"/>
+    <x v="25"/>
+    <n v="350"/>
+    <m/>
+  </r>
+  <r>
+    <n v="49"/>
+    <s v="Hosta „August Moon” - Funkia"/>
+    <s v="Gleba żyzna, wilgotnawa VI-VIII"/>
+    <x v="6"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="7"/>
+    <x v="6"/>
+    <n v="91"/>
+    <m/>
+  </r>
+  <r>
+    <n v="50"/>
+    <s v="Spiraea japonica „Goldflame” – Tawuła japońska Przycinać mocno po kwitnieniu, wówczas zakwitnie ponownie; w marcu można przyciąć jeszcze raz, by ograniczyć szerokość;"/>
+    <s v="Gleby żyzne, dostatecznie wilgotne VI-VIII"/>
+    <x v="3"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="9"/>
+    <x v="22"/>
+    <n v="63"/>
+    <m/>
+  </r>
+  <r>
+    <n v="51"/>
+    <s v="Porzeczka czerwona"/>
+    <s v="Gleba piaszczysto-gliniasta, próchniczna, lekko kwaśna"/>
+    <x v="3"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="26"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="52"/>
+    <s v="Porzeczka czarna"/>
+    <s v="Gleba piaszczysto-gliniasta, próchniczna, lekko kwaśna"/>
+    <x v="3"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="26"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <n v="53"/>
+    <s v="Agrest na nodze"/>
+    <s v="Gleba piaszczysto-gliniasta, próchniczna, lekko kwaśna"/>
+    <x v="3"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="27"/>
+    <n v="2"/>
+    <m/>
+  </r>
+  <r>
+    <n v="54"/>
+    <s v="Borówka wysoka Bluegold"/>
+    <s v="Gleba kwaśna, przepuszczalna, próchniczna; nie przesuszać podłoża; Owoce druga połowa VIII"/>
+    <x v="3"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="22"/>
+    <n v="7"/>
+    <m/>
+  </r>
+  <r>
+    <n v="55"/>
+    <s v="Borówka wysoka Bluejay"/>
+    <s v="Gleba kwaśna, przepuszczalna, próchniczna; nie przesuszać podłoża; Owoce połowa VII"/>
+    <x v="3"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="2"/>
+    <x v="22"/>
+    <n v="14"/>
+    <m/>
+  </r>
+  <r>
+    <n v="56"/>
+    <s v="Hydrangea paniculata „Candlelight” – Hortensja bukietowa Nie wycinać suchych kwiatostanów na zimę, dopiero wiosną; Warto wczesną wiosną (marzec) przyciąć nad 3-4 pąkiem, by się rozkrzewiła i bujnie kwitła"/>
+    <s v="Gleba kwaśna, próchniczna; VIII-X"/>
+    <x v="0"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="3"/>
+    <x v="9"/>
+    <n v="30"/>
+    <m/>
+  </r>
+  <r>
+    <n v="57"/>
+    <s v="Viburnum sargentii „Onondaga” - Kalina Sargenta"/>
+    <s v="Gleba żyzna, wilgotnawa; V"/>
+    <x v="0"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="20"/>
+    <m/>
+  </r>
+  <r>
+    <n v="58"/>
+    <s v="Juniperus horizontalis „Golden Carpet” - Jałowiec płożący Bardzo niski, zadarniający jałowiec o złotych igłach;"/>
+    <s v="Gleba przeciętna"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="4"/>
+    <n v="5"/>
+    <x v="12"/>
+    <n v="75"/>
+    <m/>
+  </r>
+  <r>
+    <n v="59"/>
+    <s v="Phlox subulata - Płomyk szydlasty, różowy"/>
+    <s v="Gleba ogrodowa IV-V"/>
+    <x v="6"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="12"/>
+    <x v="14"/>
+    <n v="48"/>
+    <m/>
+  </r>
+  <r>
+    <n v="60"/>
+    <s v="Prunus serrulata „Amanogawa” - Wiśnia piłkowana, kolumnowa"/>
+    <s v="Gleba żyzna, wilgotnawa V"/>
+    <x v="1"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="2"/>
+    <x v="28"/>
+    <n v="180"/>
+    <m/>
+  </r>
+  <r>
+    <n v="61"/>
+    <s v="Miscanthus sinensis „Adagio” - Miskant chiński Trawy przycinać dopiero wczesną wiosną, przy samej ziemi;"/>
+    <s v="Gleba ogrodowa"/>
+    <x v="7"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="3"/>
+    <x v="12"/>
+    <n v="45"/>
+    <m/>
+  </r>
+  <r>
+    <n v="62"/>
+    <s v="Forsythia intermedia „Golden Times” - Forsycja posrednia"/>
+    <s v="Gleba ogrodowa, III-IV"/>
+    <x v="0"/>
+    <s v="NIE"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="63"/>
+    <s v="Hosta „Island Charm” - Funkia karłowa"/>
+    <s v="Gleba żyzna, stale wilgotna, VII-VIII"/>
+    <x v="6"/>
+    <s v="NIE"/>
+    <x v="1"/>
+    <n v="11"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="64"/>
+    <s v="Salvia officinalis - szałwia lekarska, Po kwitnieniu roślinę należy silnie przyciąć;"/>
+    <s v="Gleba żyzna, wilgotnawa; V-VI"/>
+    <x v="6"/>
+    <s v="NIE"/>
+    <x v="5"/>
+    <n v="4"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="65"/>
+    <s v="Melissa officinalis - Melisa lekarska, Po kwitnieniu roślinę należy silnie przyciąć;"/>
+    <s v="Gleba wilgotnawa, spulchniona, żyzna;"/>
+    <x v="6"/>
+    <s v="NIE"/>
+    <x v="5"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="66"/>
+    <s v="Thymus vulgaris - Tymianek pospolity"/>
+    <s v="Gleba uboga, przepuszczalna"/>
+    <x v="6"/>
+    <s v="NIE"/>
+    <x v="5"/>
+    <n v="5"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="67"/>
+    <s v="Lavandula angustifolia „Hidcote Blue Strain”– Lawenda wąskolistna Po przekwitnięciu ścinamy kwiatostany i lekko przycinamy krzewinkę"/>
+    <s v="Gleba sucha, zdrenowana, najlepiej z zawartością wapnia"/>
+    <x v="2"/>
+    <s v="TAK"/>
+    <x v="5"/>
+    <n v="7"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="68"/>
+    <s v="Aurinia saxatilis – Smagliczka skalna"/>
+    <s v="Gleba przepuszczalna, wapienna IV-V"/>
+    <x v="2"/>
+    <s v="TAK"/>
+    <x v="5"/>
+    <n v="8"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="69"/>
+    <s v="Prunus serrulata „Kanzan” – Wiśnia piłkowana, Forma pienna, wys. szczepienia min. 230 cm"/>
+    <s v="Gleba ogrodowa, przepuszczalna, zasobna; V"/>
+    <x v="1"/>
+    <s v="NIE"/>
+    <x v="5"/>
+    <n v="1"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="70"/>
+    <s v="Perovskia atriplicifolia „Blue Spire” – Perowskia łobodolistna Suche gałązki wyciąć dopiero na wiosnę;"/>
+    <s v="Gleba przeciętna. VII-IX"/>
+    <x v="6"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="5"/>
+    <x v="9"/>
+    <n v="50"/>
+    <m/>
+  </r>
+  <r>
+    <n v="71"/>
+    <s v="Pennisetum alopecuroides „Little Boy” – Rozplenica japońska karłowa Wiosną przyciąć przy ziemi"/>
+    <s v="Gleba ogrodowa, wilgotnawa VIII-X"/>
+    <x v="7"/>
+    <s v="NIE"/>
+    <x v="5"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="72"/>
+    <s v="Pinus mugo „Humpy” - Sosna górska, karłowa"/>
+    <s v="Gleba przeciętna"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="5"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="73"/>
+    <s v="Iris pallida „Variegata” – Kosaciec blady"/>
+    <s v="Gleba przepuszczalna, ogrodowa V-VI"/>
+    <x v="6"/>
+    <s v="NIE"/>
+    <x v="5"/>
+    <n v="4"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="74"/>
+    <s v="Picea abies „Nidiformis” – Świerk pospolity karłowy"/>
+    <s v="Każda gleba ogrodowa"/>
+    <x v="3"/>
+    <s v="TAK"/>
+    <x v="5"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="75"/>
+    <s v="Pinus heldreichii „Malinki” - Sosna bośniacka"/>
+    <s v="Gleba ogrodowa"/>
+    <x v="1"/>
+    <s v="TAK"/>
+    <x v="5"/>
+    <n v="1"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="76"/>
+    <s v="Echinacea purpurea – Jeżówka purpurowa (kolor różowy)"/>
+    <s v="Gleba próchniczna, przeciętnie wilgotna, pH obojętne VII-X"/>
+    <x v="6"/>
+    <s v="NIE"/>
+    <x v="5"/>
+    <n v="4"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="77"/>
+    <s v="Aubrieta hybrida – Żagwin ogrodowy"/>
+    <s v="Gleba lekka, przepuszczalna, wapienna;"/>
+    <x v="6"/>
+    <s v="NIE"/>
+    <x v="5"/>
+    <n v="7"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="78"/>
+    <s v="Aquilegia hybrida – Orlik ogrodowy, (mix kolorów lub np. „Nora Barlow”, Blue Jay”)"/>
+    <s v="Gleba próchniczna, przepuszczalna. Daje samosiew  IV-VI"/>
+    <x v="6"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="9"/>
+    <x v="14"/>
+    <n v="36"/>
+    <m/>
+  </r>
+  <r>
+    <n v="79"/>
+    <s v="Primula vulgaris – Pierwiosnek pospolity, żółty"/>
+    <s v="Gleba wilgotnawa, przepuszczalna; IV-V"/>
+    <x v="6"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="4"/>
+    <x v="9"/>
+    <n v="40"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Eranthis hyemalis - Rannik zimowy"/>
+    <s v="Gleba przepuszczalna, żyzna III-IV"/>
+    <x v="6"/>
+    <s v="NIE"/>
+    <x v="1"/>
+    <n v="18"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Crocus flavus „Golden Yellow” – Krokus  żółty"/>
+    <s v="Gleba piaszczysta, próchniczna III-IV"/>
+    <x v="8"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="35"/>
+    <x v="29"/>
+    <n v="17.5"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Crocus „Flower Record” - Krokus"/>
+    <s v="Gleba piaszczysta, próchniczna III-IV"/>
+    <x v="8"/>
+    <s v="NIE"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Hyacinthus „Lady Derby” – Hiacynt różowy"/>
+    <s v="Gleba żyzna, próchniczna, przepuszczalna IV"/>
+    <x v="8"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="15"/>
+    <x v="27"/>
+    <n v="30"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Tulipa „Angelique” – Tulipan różowo-zielono-kremowy"/>
+    <s v="Gleba próchniczna, żyzna IV-V"/>
+    <x v="8"/>
+    <s v="NIE"/>
+    <x v="3"/>
+    <n v="45"/>
+    <x v="8"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Narcissus „Flower Record” - Narcyz"/>
+    <s v="Gleba próchniczna, III-IV"/>
+    <x v="8"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="27"/>
+    <x v="29"/>
+    <n v="13.5"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Galanthus nivalis - Śnieżyczka przebiśnieg"/>
+    <s v="Gleba zwięzła, wilgotna, żyzna, II-III"/>
+    <x v="8"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="39"/>
+    <x v="30"/>
+    <n v="58.5"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="Tulipa „Blue Diamond” – Tulipan ciemny fiolet"/>
+    <s v="Gleba próchniczna, żyzna, IV-V"/>
+    <x v="8"/>
+    <s v="NIE"/>
+    <x v="4"/>
+    <n v="21"/>
+    <x v="31"/>
+    <n v="52.5"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Typ rośliny" colHeaderCaption="Strefa">
+  <location ref="A3:G13" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="6"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="3"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="33">
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="27"/>
+        <item x="31"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="7"/>
+        <item x="18"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="5"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="21"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="13"/>
+        <item x="28"/>
+        <item x="23"/>
+        <item x="16"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="5"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Suma z Liczba (sztuki)" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Suma z Suma" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="15">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="7">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="8"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="7">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="8"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="7">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="8"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea field="3" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="2" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="7">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:I103" totalsRowCount="1" headerRowDxfId="14" totalsRowDxfId="12" tableBorderDxfId="13">
-  <autoFilter ref="A1:I102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J103" totalsRowCount="1" headerRowDxfId="31" totalsRowDxfId="29" tableBorderDxfId="30">
+  <autoFilter ref="A1:J102">
     <filterColumn colId="5">
-      <filters blank="1"/>
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+      </filters>
     </filterColumn>
+    <filterColumn colId="9"/>
   </autoFilter>
-  <tableColumns count="9">
-    <tableColumn id="1" name="Nr" totalsRowLabel="Suma" totalsRowDxfId="8"/>
-    <tableColumn id="2" name="Nazwa" totalsRowDxfId="7"/>
-    <tableColumn id="3" name="Opis" totalsRowDxfId="6"/>
-    <tableColumn id="4" name="Typ" totalsRowDxfId="5"/>
-    <tableColumn id="5" name="Zimozielony?" totalsRowDxfId="4"/>
-    <tableColumn id="6" name="Strefa" totalsRowFunction="count" totalsRowDxfId="3"/>
-    <tableColumn id="7" name="Liczba (sztuki)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="2"/>
-    <tableColumn id="8" name="Średnia cena" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="1"/>
-    <tableColumn id="9" name="Suma" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="0">
+  <tableColumns count="10">
+    <tableColumn id="1" name="Nr" totalsRowLabel="Suma" totalsRowDxfId="25"/>
+    <tableColumn id="2" name="Nazwa" totalsRowDxfId="24"/>
+    <tableColumn id="3" name="Opis" totalsRowDxfId="23"/>
+    <tableColumn id="4" name="Typ" totalsRowDxfId="22"/>
+    <tableColumn id="5" name="Zimozielony?" totalsRowDxfId="21"/>
+    <tableColumn id="6" name="Strefa" totalsRowFunction="count" totalsRowDxfId="20"/>
+    <tableColumn id="7" name="Liczba (sztuki)" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="19"/>
+    <tableColumn id="8" name="Średnia cena" totalsRowFunction="average" dataDxfId="27" totalsRowDxfId="18"/>
+    <tableColumn id="9" name="Suma" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="17">
       <calculatedColumnFormula>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="10" name="Kolumna1" totalsRowDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1940,8 +3700,8 @@
   <dimension ref="A1:O104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F103" sqref="F103"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1981,11 +3741,14 @@
       <c r="I1" s="27" t="s">
         <v>102</v>
       </c>
+      <c r="J1" s="37" t="s">
+        <v>179</v>
+      </c>
       <c r="O1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="25.5" hidden="1">
+    <row r="2" spans="1:15" ht="22.5" hidden="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2008,17 +3771,17 @@
         <v>2</v>
       </c>
       <c r="H2" s="35">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="I2" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="O2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="25.5" hidden="1">
+    <row r="3" spans="1:15" ht="22.5" hidden="1">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2041,17 +3804,17 @@
         <v>2</v>
       </c>
       <c r="H3" s="35">
-        <v>4.5</v>
+        <v>35</v>
       </c>
       <c r="I3" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="O3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="25.5" hidden="1">
+    <row r="4" spans="1:15" ht="22.5" hidden="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2074,11 +3837,11 @@
         <v>2</v>
       </c>
       <c r="H4" s="35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I4" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
         <v>87</v>
@@ -2107,11 +3870,11 @@
         <v>1</v>
       </c>
       <c r="H5" s="35">
-        <v>4.8333333333333304</v>
+        <v>200</v>
       </c>
       <c r="I5" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>4.8333333333333304</v>
+        <v>200</v>
       </c>
       <c r="O5" t="s">
         <v>89</v>
@@ -2140,11 +3903,11 @@
         <v>35</v>
       </c>
       <c r="H6" s="35">
-        <v>5.3333333333333304</v>
+        <v>6</v>
       </c>
       <c r="I6" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>186.66666666666657</v>
+        <v>210</v>
       </c>
       <c r="O6" t="s">
         <v>88</v>
@@ -2173,11 +3936,11 @@
         <v>16</v>
       </c>
       <c r="H7" s="35">
-        <v>5.8333333333333304</v>
+        <v>27</v>
       </c>
       <c r="I7" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>93.333333333333286</v>
+        <v>432</v>
       </c>
       <c r="O7" t="s">
         <v>90</v>
@@ -2206,11 +3969,11 @@
         <v>6</v>
       </c>
       <c r="H8" s="35">
-        <v>6.3333333333333304</v>
+        <v>13</v>
       </c>
       <c r="I8" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>37.999999999999986</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
         <v>95</v>
@@ -2239,11 +4002,11 @@
         <v>15</v>
       </c>
       <c r="H9" s="35">
-        <v>6.8333333333333304</v>
+        <v>7.1</v>
       </c>
       <c r="I9" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>102.49999999999996</v>
+        <v>106.5</v>
       </c>
       <c r="O9" t="s">
         <v>106</v>
@@ -2272,11 +4035,11 @@
         <v>6</v>
       </c>
       <c r="H10" s="35">
-        <v>7.3333333333333304</v>
+        <v>20</v>
       </c>
       <c r="I10" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>43.999999999999986</v>
+        <v>120</v>
       </c>
       <c r="O10" t="s">
         <v>96</v>
@@ -2304,12 +4067,10 @@
       <c r="G11" s="8">
         <v>6</v>
       </c>
-      <c r="H11" s="35">
-        <v>7.8333333333333304</v>
-      </c>
+      <c r="H11" s="35"/>
       <c r="I11" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>46.999999999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="45" hidden="1">
@@ -2334,15 +4095,13 @@
       <c r="G12" s="8">
         <v>5</v>
       </c>
-      <c r="H12" s="35">
-        <v>8.3333333333333304</v>
-      </c>
+      <c r="H12" s="35"/>
       <c r="I12" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>41.66666666666665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="26.25" hidden="1" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="26.25" customHeight="1">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -2365,11 +4124,11 @@
         <v>12</v>
       </c>
       <c r="H13" s="35">
-        <v>8.8333333333333304</v>
+        <v>10</v>
       </c>
       <c r="I13" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>105.99999999999997</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="26.25" hidden="1" customHeight="1">
@@ -2394,15 +4153,13 @@
       <c r="G14" s="8">
         <v>5</v>
       </c>
-      <c r="H14" s="35">
-        <v>9.3333333333333304</v>
-      </c>
+      <c r="H14" s="35"/>
       <c r="I14" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>46.66666666666665</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="26.25" hidden="1" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="26.25" customHeight="1">
       <c r="A15" s="5">
         <v>9</v>
       </c>
@@ -2425,14 +4182,14 @@
         <v>11</v>
       </c>
       <c r="H15" s="35">
-        <v>9.8333333333333304</v>
+        <v>10</v>
       </c>
       <c r="I15" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>108.16666666666663</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="26.25" hidden="1" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="26.25" customHeight="1">
       <c r="A16" s="5">
         <v>10</v>
       </c>
@@ -2455,11 +4212,11 @@
         <v>7</v>
       </c>
       <c r="H16" s="35">
-        <v>10.3333333333333</v>
+        <v>5</v>
       </c>
       <c r="I16" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>72.333333333333101</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="24" hidden="1">
@@ -2484,12 +4241,10 @@
       <c r="G17" s="8">
         <v>3</v>
       </c>
-      <c r="H17" s="35">
-        <v>10.8333333333333</v>
-      </c>
+      <c r="H17" s="35"/>
       <c r="I17" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>32.499999999999901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="22.5" hidden="1">
@@ -2514,12 +4269,10 @@
       <c r="G18" s="8">
         <v>3</v>
       </c>
-      <c r="H18" s="35">
-        <v>11.3333333333333</v>
-      </c>
+      <c r="H18" s="35"/>
       <c r="I18" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>33.999999999999901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="33.75" hidden="1">
@@ -2544,12 +4297,10 @@
       <c r="G19" s="8">
         <v>6</v>
       </c>
-      <c r="H19" s="35">
-        <v>11.8333333333333</v>
-      </c>
+      <c r="H19" s="35"/>
       <c r="I19" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>70.999999999999801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="40.5" hidden="1" customHeight="1">
@@ -2574,12 +4325,10 @@
       <c r="G20" s="8">
         <v>8</v>
       </c>
-      <c r="H20" s="35">
-        <v>12.3333333333333</v>
-      </c>
+      <c r="H20" s="35"/>
       <c r="I20" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>98.666666666666401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="45" hidden="1">
@@ -2604,12 +4353,10 @@
       <c r="G21" s="8">
         <v>1</v>
       </c>
-      <c r="H21" s="35">
-        <v>12.8333333333333</v>
-      </c>
+      <c r="H21" s="35"/>
       <c r="I21" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>12.8333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="36" hidden="1">
@@ -2634,12 +4381,10 @@
       <c r="G22" s="8">
         <v>1</v>
       </c>
-      <c r="H22" s="35">
-        <v>13.3333333333333</v>
-      </c>
+      <c r="H22" s="35"/>
       <c r="I22" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>13.3333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="24" hidden="1">
@@ -2664,15 +4409,13 @@
       <c r="G23" s="8">
         <v>8</v>
       </c>
-      <c r="H23" s="35">
-        <v>13.8333333333333</v>
-      </c>
+      <c r="H23" s="35"/>
       <c r="I23" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>110.6666666666664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="24" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="24">
       <c r="A24" s="5">
         <v>15</v>
       </c>
@@ -2695,11 +4438,11 @@
         <v>27</v>
       </c>
       <c r="H24" s="35">
-        <v>14.3333333333333</v>
+        <v>20</v>
       </c>
       <c r="I24" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>386.99999999999909</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="33.75" hidden="1">
@@ -2724,15 +4467,13 @@
       <c r="G25" s="8">
         <v>1</v>
       </c>
-      <c r="H25" s="35">
-        <v>14.8333333333333</v>
-      </c>
+      <c r="H25" s="35"/>
       <c r="I25" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>14.8333333333333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="33.75" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="33.75">
       <c r="A26" s="5">
         <v>16</v>
       </c>
@@ -2755,11 +4496,11 @@
         <v>4</v>
       </c>
       <c r="H26" s="35">
-        <v>15.3333333333333</v>
+        <v>10</v>
       </c>
       <c r="I26" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>61.333333333333201</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="25.5" hidden="1">
@@ -2784,15 +4525,13 @@
       <c r="G27" s="8">
         <v>16</v>
       </c>
-      <c r="H27" s="35">
-        <v>15.8333333333333</v>
-      </c>
+      <c r="H27" s="35"/>
       <c r="I27" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>253.3333333333328</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="25.5" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="25.5">
       <c r="A28" s="5">
         <v>17</v>
       </c>
@@ -2815,11 +4554,11 @@
         <v>8</v>
       </c>
       <c r="H28" s="35">
-        <v>16.3333333333333</v>
+        <v>5</v>
       </c>
       <c r="I28" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>130.6666666666664</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="25.5" hidden="1">
@@ -2844,15 +4583,13 @@
       <c r="G29" s="8">
         <v>3</v>
       </c>
-      <c r="H29" s="35">
-        <v>16.8333333333333</v>
-      </c>
+      <c r="H29" s="35"/>
       <c r="I29" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>50.499999999999901</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="25.5" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="25.5">
       <c r="A30" s="5">
         <v>18</v>
       </c>
@@ -2875,11 +4612,11 @@
         <v>3</v>
       </c>
       <c r="H30" s="35">
-        <v>17.3333333333333</v>
+        <v>40</v>
       </c>
       <c r="I30" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>51.999999999999901</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="56.25" hidden="1">
@@ -2904,12 +4641,10 @@
       <c r="G31" s="8">
         <v>7</v>
       </c>
-      <c r="H31" s="35">
-        <v>17.8333333333333</v>
-      </c>
+      <c r="H31" s="35"/>
       <c r="I31" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>124.8333333333331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="25.5" hidden="1">
@@ -2934,15 +4669,13 @@
       <c r="G32" s="8">
         <v>1</v>
       </c>
-      <c r="H32" s="35">
-        <v>18.3333333333333</v>
-      </c>
+      <c r="H32" s="35"/>
       <c r="I32" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>18.3333333333333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="45" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45" hidden="1">
       <c r="A33" s="5">
         <v>21</v>
       </c>
@@ -2964,15 +4697,13 @@
       <c r="G33" s="8">
         <v>21</v>
       </c>
-      <c r="H33" s="35">
-        <v>18.8333333333333</v>
-      </c>
+      <c r="H33" s="35"/>
       <c r="I33" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>395.49999999999932</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="33.75" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="33.75" hidden="1">
       <c r="A34" s="5">
         <v>22</v>
       </c>
@@ -2994,15 +4725,13 @@
       <c r="G34" s="8">
         <v>16</v>
       </c>
-      <c r="H34" s="35">
-        <v>19.3333333333333</v>
-      </c>
+      <c r="H34" s="35"/>
       <c r="I34" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>309.3333333333328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="69" hidden="1" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="69" customHeight="1">
       <c r="A35" s="5">
         <v>23</v>
       </c>
@@ -3025,14 +4754,14 @@
         <v>8</v>
       </c>
       <c r="H35" s="35">
-        <v>19.8333333333333</v>
+        <v>15</v>
       </c>
       <c r="I35" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>158.6666666666664</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="38.25" hidden="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="38.25">
       <c r="A36" s="5">
         <v>24</v>
       </c>
@@ -3055,14 +4784,14 @@
         <v>9</v>
       </c>
       <c r="H36" s="35">
-        <v>20.3333333333333</v>
+        <v>10</v>
       </c>
       <c r="I36" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>182.99999999999972</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="38.25" hidden="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="38.25">
       <c r="A37" s="5">
         <v>25</v>
       </c>
@@ -3085,14 +4814,14 @@
         <v>3</v>
       </c>
       <c r="H37" s="35">
-        <v>20.8333333333333</v>
+        <v>15</v>
       </c>
       <c r="I37" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>62.499999999999901</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="25.5" hidden="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="25.5">
       <c r="A38" s="5">
         <v>26</v>
       </c>
@@ -3115,14 +4844,14 @@
         <v>3</v>
       </c>
       <c r="H38" s="35">
-        <v>21.3333333333333</v>
+        <v>15</v>
       </c>
       <c r="I38" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>63.999999999999901</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="25.5" hidden="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="25.5">
       <c r="A39" s="5">
         <v>26</v>
       </c>
@@ -3145,14 +4874,14 @@
         <v>11</v>
       </c>
       <c r="H39" s="35">
-        <v>21.8333333333333</v>
+        <v>15</v>
       </c>
       <c r="I39" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>240.16666666666629</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="22.5" hidden="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="22.5">
       <c r="A40" s="5">
         <v>27</v>
       </c>
@@ -3175,14 +4904,14 @@
         <v>17</v>
       </c>
       <c r="H40" s="35">
-        <v>22.3333333333333</v>
+        <v>6</v>
       </c>
       <c r="I40" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>379.66666666666612</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="22.5" hidden="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="22.5" hidden="1">
       <c r="A41" s="5">
         <v>28</v>
       </c>
@@ -3204,15 +4933,13 @@
       <c r="G41" s="8">
         <v>2</v>
       </c>
-      <c r="H41" s="35">
-        <v>22.8333333333333</v>
-      </c>
+      <c r="H41" s="35"/>
       <c r="I41" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>45.6666666666666</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="22.5" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="22.5" hidden="1">
       <c r="A42" s="5">
         <v>28</v>
       </c>
@@ -3234,15 +4961,13 @@
       <c r="G42" s="8">
         <v>2</v>
       </c>
-      <c r="H42" s="35">
-        <v>23.3333333333333</v>
-      </c>
+      <c r="H42" s="35"/>
       <c r="I42" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>46.6666666666666</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="51" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="51" hidden="1">
       <c r="A43" s="5">
         <v>29</v>
       </c>
@@ -3264,15 +4989,13 @@
       <c r="G43" s="8">
         <v>13</v>
       </c>
-      <c r="H43" s="35">
-        <v>23.8333333333333</v>
-      </c>
+      <c r="H43" s="35"/>
       <c r="I43" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>309.83333333333292</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="33.75" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="33.75">
       <c r="A44" s="5">
         <v>30</v>
       </c>
@@ -3295,14 +5018,14 @@
         <v>13</v>
       </c>
       <c r="H44" s="35">
-        <v>24.3333333333333</v>
+        <v>15</v>
       </c>
       <c r="I44" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>316.33333333333292</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="25.5" hidden="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="25.5">
       <c r="A45" s="5">
         <v>31</v>
       </c>
@@ -3325,14 +5048,14 @@
         <v>1</v>
       </c>
       <c r="H45" s="35">
-        <v>24.8333333333333</v>
+        <v>85</v>
       </c>
       <c r="I45" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>24.8333333333333</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="24" hidden="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="24">
       <c r="A46" s="5">
         <v>32</v>
       </c>
@@ -3355,14 +5078,14 @@
         <v>10</v>
       </c>
       <c r="H46" s="35">
-        <v>25.3333333333333</v>
+        <v>15</v>
       </c>
       <c r="I46" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>253.333333333333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="38.25" hidden="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="38.25">
       <c r="A47" s="5">
         <v>33</v>
       </c>
@@ -3385,14 +5108,14 @@
         <v>5</v>
       </c>
       <c r="H47" s="35">
-        <v>25.8333333333333</v>
+        <v>4</v>
       </c>
       <c r="I47" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>129.16666666666652</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="33.75" hidden="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="33.75">
       <c r="A48" s="5">
         <v>34</v>
       </c>
@@ -3415,14 +5138,17 @@
         <v>7</v>
       </c>
       <c r="H48" s="35">
-        <v>26.3333333333333</v>
+        <v>12</v>
       </c>
       <c r="I48" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>184.33333333333309</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="38.25" hidden="1">
+        <v>84</v>
+      </c>
+      <c r="J48" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="38.25">
       <c r="A49" s="5">
         <v>35</v>
       </c>
@@ -3445,14 +5171,14 @@
         <v>12</v>
       </c>
       <c r="H49" s="35">
-        <v>26.8333333333333</v>
+        <v>20</v>
       </c>
       <c r="I49" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>321.9999999999996</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="25.5" hidden="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="25.5">
       <c r="A50" s="5">
         <v>36</v>
       </c>
@@ -3475,14 +5201,14 @@
         <v>9</v>
       </c>
       <c r="H50" s="35">
-        <v>27.3333333333333</v>
+        <v>140</v>
       </c>
       <c r="I50" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>245.99999999999972</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="33.75" hidden="1">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="33.75">
       <c r="A51" s="5">
         <v>37</v>
       </c>
@@ -3505,14 +5231,14 @@
         <v>1</v>
       </c>
       <c r="H51" s="35">
-        <v>27.8333333333333</v>
+        <v>25</v>
       </c>
       <c r="I51" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>27.8333333333333</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="48" hidden="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="48">
       <c r="A52" s="5">
         <v>38</v>
       </c>
@@ -3535,14 +5261,14 @@
         <v>4</v>
       </c>
       <c r="H52" s="35">
-        <v>28.3333333333333</v>
+        <v>8</v>
       </c>
       <c r="I52" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>113.3333333333332</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="38.25" hidden="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="38.25">
       <c r="A53" s="5">
         <v>39</v>
       </c>
@@ -3565,11 +5291,11 @@
         <v>6</v>
       </c>
       <c r="H53" s="35">
-        <v>28.8333333333333</v>
+        <v>30</v>
       </c>
       <c r="I53" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>172.9999999999998</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="38.25" hidden="1">
@@ -3594,15 +5320,13 @@
       <c r="G54" s="8">
         <v>3</v>
       </c>
-      <c r="H54" s="35">
-        <v>29.3333333333333</v>
-      </c>
+      <c r="H54" s="35"/>
       <c r="I54" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>87.999999999999901</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="24.75" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="24.75">
       <c r="A55" s="5">
         <v>40</v>
       </c>
@@ -3625,14 +5349,14 @@
         <v>5</v>
       </c>
       <c r="H55" s="35">
-        <v>29.8333333333333</v>
+        <v>150</v>
       </c>
       <c r="I55" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>149.16666666666652</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="51" hidden="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="51">
       <c r="A56" s="5">
         <v>41</v>
       </c>
@@ -3655,14 +5379,14 @@
         <v>1</v>
       </c>
       <c r="H56" s="35">
-        <v>30.3333333333333</v>
+        <v>60</v>
       </c>
       <c r="I56" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>30.3333333333333</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" hidden="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="5">
         <v>42</v>
       </c>
@@ -3685,14 +5409,14 @@
         <v>6</v>
       </c>
       <c r="H57" s="35">
-        <v>30.8333333333333</v>
+        <v>40</v>
       </c>
       <c r="I57" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>184.9999999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="56.25" hidden="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="56.25">
       <c r="A58" s="5">
         <v>43</v>
       </c>
@@ -3715,14 +5439,14 @@
         <v>3</v>
       </c>
       <c r="H58" s="35">
-        <v>31.3333333333333</v>
+        <v>10</v>
       </c>
       <c r="I58" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>93.999999999999901</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="22.5" hidden="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="22.5">
       <c r="A59" s="5">
         <v>44</v>
       </c>
@@ -3745,14 +5469,14 @@
         <v>5</v>
       </c>
       <c r="H59" s="35">
-        <v>31.8333333333333</v>
+        <v>7</v>
       </c>
       <c r="I59" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>159.16666666666652</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="22.5" hidden="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="22.5">
       <c r="A60" s="5">
         <v>45</v>
       </c>
@@ -3775,14 +5499,14 @@
         <v>3</v>
       </c>
       <c r="H60" s="35">
-        <v>32.3333333333333</v>
+        <v>100</v>
       </c>
       <c r="I60" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>96.999999999999901</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="24" hidden="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="24">
       <c r="A61" s="5">
         <v>46</v>
       </c>
@@ -3805,14 +5529,14 @@
         <v>7</v>
       </c>
       <c r="H61" s="35">
-        <v>32.8333333333333</v>
+        <v>80</v>
       </c>
       <c r="I61" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>229.83333333333309</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="45" hidden="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="45">
       <c r="A62" s="5">
         <v>47</v>
       </c>
@@ -3825,7 +5549,9 @@
       <c r="D62" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E62" s="8"/>
+      <c r="E62" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="F62" s="8">
         <v>2</v>
       </c>
@@ -3833,14 +5559,14 @@
         <v>5</v>
       </c>
       <c r="H62" s="35">
-        <v>33.3333333333333</v>
+        <v>20</v>
       </c>
       <c r="I62" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>166.66666666666652</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="22.5" hidden="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="22.5">
       <c r="A63" s="5">
         <v>48</v>
       </c>
@@ -3863,14 +5589,14 @@
         <v>5</v>
       </c>
       <c r="H63" s="35">
-        <v>33.8333333333333</v>
+        <v>70</v>
       </c>
       <c r="I63" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>169.16666666666652</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="36" hidden="1" customHeight="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="36" customHeight="1">
       <c r="A64" s="5">
         <v>49</v>
       </c>
@@ -3893,14 +5619,14 @@
         <v>7</v>
       </c>
       <c r="H64" s="35">
-        <v>34.3333333333333</v>
+        <v>13</v>
       </c>
       <c r="I64" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>240.33333333333309</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="51" hidden="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="51">
       <c r="A65" s="5">
         <v>50</v>
       </c>
@@ -3923,14 +5649,14 @@
         <v>9</v>
       </c>
       <c r="H65" s="35">
-        <v>34.8333333333333</v>
+        <v>7</v>
       </c>
       <c r="I65" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>313.49999999999972</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="56.25" hidden="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="56.25">
       <c r="A66" s="12">
         <v>51</v>
       </c>
@@ -3953,14 +5679,14 @@
         <v>1</v>
       </c>
       <c r="H66" s="35">
-        <v>35.3333333333333</v>
+        <v>1</v>
       </c>
       <c r="I66" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>35.3333333333333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="56.25" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="56.25">
       <c r="A67" s="12">
         <v>52</v>
       </c>
@@ -3983,14 +5709,14 @@
         <v>1</v>
       </c>
       <c r="H67" s="35">
-        <v>35.8333333333333</v>
+        <v>1</v>
       </c>
       <c r="I67" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>35.8333333333333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="56.25" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="56.25">
       <c r="A68" s="12">
         <v>53</v>
       </c>
@@ -4013,14 +5739,14 @@
         <v>1</v>
       </c>
       <c r="H68" s="35">
-        <v>36.3333333333333</v>
+        <v>2</v>
       </c>
       <c r="I68" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>36.3333333333333</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="90" hidden="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="90">
       <c r="A69" s="12">
         <v>54</v>
       </c>
@@ -4043,14 +5769,14 @@
         <v>1</v>
       </c>
       <c r="H69" s="35">
-        <v>36.8333333333333</v>
+        <v>7</v>
       </c>
       <c r="I69" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>36.8333333333333</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="90" hidden="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="90">
       <c r="A70" s="12">
         <v>55</v>
       </c>
@@ -4073,14 +5799,14 @@
         <v>2</v>
       </c>
       <c r="H70" s="35">
-        <v>37.3333333333333</v>
+        <v>7</v>
       </c>
       <c r="I70" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>74.6666666666666</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="60" hidden="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="60">
       <c r="A71" s="5">
         <v>56</v>
       </c>
@@ -4103,14 +5829,14 @@
         <v>3</v>
       </c>
       <c r="H71" s="35">
-        <v>37.8333333333333</v>
+        <v>10</v>
       </c>
       <c r="I71" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>113.4999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="22.5" hidden="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="22.5">
       <c r="A72" s="5">
         <v>57</v>
       </c>
@@ -4133,14 +5859,14 @@
         <v>1</v>
       </c>
       <c r="H72" s="35">
-        <v>38.3333333333333</v>
+        <v>20</v>
       </c>
       <c r="I72" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>38.3333333333333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="38.25" hidden="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="38.25">
       <c r="A73" s="5">
         <v>58</v>
       </c>
@@ -4163,14 +5889,14 @@
         <v>5</v>
       </c>
       <c r="H73" s="35">
-        <v>38.8333333333333</v>
+        <v>15</v>
       </c>
       <c r="I73" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>194.16666666666652</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="33.75" hidden="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="33.75">
       <c r="A74" s="5">
         <v>59</v>
       </c>
@@ -4193,14 +5919,14 @@
         <v>12</v>
       </c>
       <c r="H74" s="35">
-        <v>39.3333333333333</v>
+        <v>4</v>
       </c>
       <c r="I74" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>471.9999999999996</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="22.5" hidden="1" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="22.5" customHeight="1">
       <c r="A75" s="5">
         <v>60</v>
       </c>
@@ -4223,14 +5949,14 @@
         <v>2</v>
       </c>
       <c r="H75" s="35">
-        <v>39.8333333333333</v>
+        <v>90</v>
       </c>
       <c r="I75" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>79.6666666666666</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="36" hidden="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="36">
       <c r="A76" s="5">
         <v>61</v>
       </c>
@@ -4253,11 +5979,11 @@
         <v>3</v>
       </c>
       <c r="H76" s="35">
-        <v>40.3333333333333</v>
+        <v>15</v>
       </c>
       <c r="I76" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>120.9999999999999</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="33.75" hidden="1">
@@ -4282,12 +6008,10 @@
       <c r="G77" s="8">
         <v>1</v>
       </c>
-      <c r="H77" s="35">
-        <v>40.8333333333333</v>
-      </c>
+      <c r="H77" s="35"/>
       <c r="I77" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>40.8333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="45" hidden="1">
@@ -4312,12 +6036,10 @@
       <c r="G78" s="8">
         <v>11</v>
       </c>
-      <c r="H78" s="35">
-        <v>41.3333333333333</v>
-      </c>
+      <c r="H78" s="35"/>
       <c r="I78" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>454.66666666666629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="33.75" hidden="1">
@@ -4342,12 +6064,10 @@
       <c r="G79" s="8">
         <v>4</v>
       </c>
-      <c r="H79" s="35">
-        <v>41.8333333333333</v>
-      </c>
+      <c r="H79" s="35"/>
       <c r="I79" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>167.3333333333332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="25.5" hidden="1" customHeight="1">
@@ -4372,12 +6092,10 @@
       <c r="G80" s="8">
         <v>3</v>
       </c>
-      <c r="H80" s="35">
-        <v>42.3333333333333</v>
-      </c>
+      <c r="H80" s="35"/>
       <c r="I80" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>126.9999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="33.75" hidden="1">
@@ -4402,12 +6120,10 @@
       <c r="G81" s="8">
         <v>5</v>
       </c>
-      <c r="H81" s="35">
-        <v>42.8333333333333</v>
-      </c>
+      <c r="H81" s="35"/>
       <c r="I81" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>214.16666666666652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="56.25" hidden="1">
@@ -4432,12 +6148,10 @@
       <c r="G82" s="8">
         <v>7</v>
       </c>
-      <c r="H82" s="35">
-        <v>43.3333333333333</v>
-      </c>
+      <c r="H82" s="35"/>
       <c r="I82" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>303.33333333333309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="45" hidden="1">
@@ -4462,12 +6176,10 @@
       <c r="G83" s="8">
         <v>8</v>
       </c>
-      <c r="H83" s="35">
-        <v>43.8333333333333</v>
-      </c>
+      <c r="H83" s="35"/>
       <c r="I83" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>350.6666666666664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="45" hidden="1">
@@ -4492,15 +6204,13 @@
       <c r="G84" s="8">
         <v>1</v>
       </c>
-      <c r="H84" s="35">
-        <v>44.3333333333333</v>
-      </c>
+      <c r="H84" s="35"/>
       <c r="I84" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>44.3333333333333</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="33.75" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="33.75">
       <c r="A85" s="5">
         <v>70</v>
       </c>
@@ -4523,11 +6233,11 @@
         <v>5</v>
       </c>
       <c r="H85" s="35">
-        <v>44.8333333333333</v>
+        <v>10</v>
       </c>
       <c r="I85" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>224.16666666666652</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="45" hidden="1">
@@ -4552,12 +6262,10 @@
       <c r="G86" s="8">
         <v>3</v>
       </c>
-      <c r="H86" s="35">
-        <v>45.3333333333333</v>
-      </c>
+      <c r="H86" s="35"/>
       <c r="I86" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>135.99999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="22.5" hidden="1">
@@ -4582,12 +6290,10 @@
       <c r="G87" s="8">
         <v>3</v>
       </c>
-      <c r="H87" s="35">
-        <v>45.8333333333333</v>
-      </c>
+      <c r="H87" s="35"/>
       <c r="I87" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>137.49999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="45" hidden="1">
@@ -4612,12 +6318,10 @@
       <c r="G88" s="8">
         <v>4</v>
       </c>
-      <c r="H88" s="35">
-        <v>46.3333333333333</v>
-      </c>
+      <c r="H88" s="35"/>
       <c r="I88" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>185.3333333333332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="25.5" hidden="1">
@@ -4642,12 +6346,10 @@
       <c r="G89" s="8">
         <v>3</v>
       </c>
-      <c r="H89" s="35">
-        <v>46.8333333333333</v>
-      </c>
+      <c r="H89" s="35"/>
       <c r="I89" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>140.49999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="36" hidden="1" customHeight="1">
@@ -4672,12 +6374,10 @@
       <c r="G90" s="8">
         <v>1</v>
       </c>
-      <c r="H90" s="35">
-        <v>47.3333333333333</v>
-      </c>
+      <c r="H90" s="35"/>
       <c r="I90" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>47.3333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="67.5" hidden="1">
@@ -4702,12 +6402,10 @@
       <c r="G91" s="8">
         <v>4</v>
       </c>
-      <c r="H91" s="35">
-        <v>47.8333333333333</v>
-      </c>
+      <c r="H91" s="35"/>
       <c r="I91" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>191.3333333333332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="33.75" hidden="1">
@@ -4732,15 +6430,13 @@
       <c r="G92" s="8">
         <v>7</v>
       </c>
-      <c r="H92" s="35">
-        <v>48.3333333333333</v>
-      </c>
+      <c r="H92" s="35"/>
       <c r="I92" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>338.33333333333309</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="67.5" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="67.5">
       <c r="A93" s="5">
         <v>78</v>
       </c>
@@ -4763,11 +6459,11 @@
         <v>9</v>
       </c>
       <c r="H93" s="35">
-        <v>48.8333333333333</v>
+        <v>4</v>
       </c>
       <c r="I93" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>439.49999999999972</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="45">
@@ -4793,11 +6489,11 @@
         <v>4</v>
       </c>
       <c r="H94" s="35">
-        <v>49.3333333333333</v>
+        <v>10</v>
       </c>
       <c r="I94" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>197.3333333333332</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="45" hidden="1">
@@ -4820,15 +6516,13 @@
       <c r="G95" s="8">
         <v>18</v>
       </c>
-      <c r="H95" s="35">
-        <v>49.8333333333333</v>
-      </c>
+      <c r="H95" s="35"/>
       <c r="I95" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>896.99999999999943</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="45" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="45">
       <c r="A96" s="5"/>
       <c r="B96" s="24" t="s">
         <v>67</v>
@@ -4849,14 +6543,14 @@
         <v>35</v>
       </c>
       <c r="H96" s="35">
-        <v>50.3333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I96" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>1761.6666666666656</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="45" hidden="1">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="45" hidden="1">
       <c r="A97" s="5"/>
       <c r="B97" s="24" t="s">
         <v>68</v>
@@ -4876,15 +6570,13 @@
       <c r="G97" s="8">
         <v>15</v>
       </c>
-      <c r="H97" s="35">
-        <v>50.8333333333333</v>
-      </c>
+      <c r="H97" s="35"/>
       <c r="I97" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>762.49999999999955</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="45" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="45">
       <c r="A98" s="5"/>
       <c r="B98" s="24" t="s">
         <v>69</v>
@@ -4905,14 +6597,14 @@
         <v>15</v>
       </c>
       <c r="H98" s="35">
-        <v>51.3333333333333</v>
+        <v>2</v>
       </c>
       <c r="I98" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>769.99999999999955</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="33.75" hidden="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="33.75" hidden="1">
       <c r="A99" s="5"/>
       <c r="B99" s="24" t="s">
         <v>70</v>
@@ -4932,15 +6624,13 @@
       <c r="G99" s="8">
         <v>45</v>
       </c>
-      <c r="H99" s="35">
-        <v>51.8333333333333</v>
-      </c>
+      <c r="H99" s="35"/>
       <c r="I99" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>2332.4999999999986</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="42.75" hidden="1" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="42.75" customHeight="1">
       <c r="A100" s="5"/>
       <c r="B100" s="25" t="s">
         <v>71</v>
@@ -4961,14 +6651,14 @@
         <v>27</v>
       </c>
       <c r="H100" s="35">
-        <v>52.3333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I100" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>1412.9999999999991</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="33.75" hidden="1">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="33.75">
       <c r="A101" s="5"/>
       <c r="B101" s="23" t="s">
         <v>34</v>
@@ -4989,14 +6679,14 @@
         <v>39</v>
       </c>
       <c r="H101" s="35">
-        <v>52.8333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="I101" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>2060.4999999999986</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="33.75" hidden="1">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="33.75">
       <c r="A102" s="28"/>
       <c r="B102" s="24" t="s">
         <v>72</v>
@@ -5017,14 +6707,14 @@
         <v>21</v>
       </c>
       <c r="H102" s="35">
-        <v>53.3333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="I102" s="35">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>1119.9999999999993</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="15.75">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="24">
       <c r="A103" s="30" t="s">
         <v>102</v>
       </c>
@@ -5034,22 +6724,23 @@
       <c r="E103" s="33"/>
       <c r="F103" s="34">
         <f>SUBTOTAL(103,[Strefa])</f>
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="G103" s="34">
         <f>SUBTOTAL(109,[Liczba (sztuki)])</f>
-        <v>4</v>
+        <v>434</v>
       </c>
       <c r="H103" s="36">
         <f>SUBTOTAL(101,[Średnia cena])</f>
-        <v>49.3333333333333</v>
+        <v>24.339622641509433</v>
       </c>
       <c r="I103" s="34">
         <f>SUBTOTAL(109,[Suma])</f>
-        <v>197.3333333333332</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>7143</v>
+      </c>
+      <c r="J103" s="38"/>
+    </row>
+    <row r="104" spans="1:10">
       <c r="F104" t="s">
         <v>176</v>
       </c>
@@ -5076,4 +6767,235 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7">
+      <c r="B3" s="40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="42">
+        <v>56</v>
+      </c>
+      <c r="E6" s="42">
+        <v>431</v>
+      </c>
+      <c r="F6" s="42">
+        <v>56</v>
+      </c>
+      <c r="G6" s="42">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="42">
+        <v>137</v>
+      </c>
+      <c r="E7" s="42">
+        <v>172</v>
+      </c>
+      <c r="F7" s="42">
+        <v>137</v>
+      </c>
+      <c r="G7" s="42">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="42">
+        <v>24</v>
+      </c>
+      <c r="E8" s="42">
+        <v>1470</v>
+      </c>
+      <c r="F8" s="42">
+        <v>24</v>
+      </c>
+      <c r="G8" s="42">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="42">
+        <v>24</v>
+      </c>
+      <c r="C9" s="43">
+        <v>255</v>
+      </c>
+      <c r="D9" s="42">
+        <v>76</v>
+      </c>
+      <c r="E9" s="42">
+        <v>2750</v>
+      </c>
+      <c r="F9" s="42">
+        <v>100</v>
+      </c>
+      <c r="G9" s="42">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="42">
+        <v>11</v>
+      </c>
+      <c r="E10" s="42">
+        <v>235</v>
+      </c>
+      <c r="F10" s="42">
+        <v>11</v>
+      </c>
+      <c r="G10" s="42">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="42">
+        <v>8</v>
+      </c>
+      <c r="C11" s="43">
+        <v>120</v>
+      </c>
+      <c r="D11" s="42">
+        <v>70</v>
+      </c>
+      <c r="E11" s="42">
+        <v>1483</v>
+      </c>
+      <c r="F11" s="42">
+        <v>78</v>
+      </c>
+      <c r="G11" s="42">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="42">
+        <v>20</v>
+      </c>
+      <c r="C12" s="43">
+        <v>147</v>
+      </c>
+      <c r="D12" s="42">
+        <v>8</v>
+      </c>
+      <c r="E12" s="42">
+        <v>80</v>
+      </c>
+      <c r="F12" s="42">
+        <v>28</v>
+      </c>
+      <c r="G12" s="42">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="39">
+        <v>52</v>
+      </c>
+      <c r="C13" s="39">
+        <v>522</v>
+      </c>
+      <c r="D13" s="39">
+        <v>382</v>
+      </c>
+      <c r="E13" s="39">
+        <v>6621</v>
+      </c>
+      <c r="F13" s="39">
+        <v>434</v>
+      </c>
+      <c r="G13" s="39">
+        <v>7143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plan/Rośliny.Zestawienie.xlsx
+++ b/plan/Rośliny.Zestawienie.xlsx
@@ -12,17 +12,17 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Zestawienie!$A$1:$I$102</definedName>
-    <definedName name="Typ.Rośliny">Zestawienie!$O$1:$O$10</definedName>
+    <definedName name="Typ.Rośliny">Zestawienie!$P$1:$P$10</definedName>
   </definedNames>
   <calcPr calcId="125725" calcMode="autoNoTable"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="205">
   <si>
     <t>Nr</t>
   </si>
@@ -854,12 +854,69 @@
   <si>
     <t>Suma z Liczba (sztuki)</t>
   </si>
+  <si>
+    <t>Opinie</t>
+  </si>
+  <si>
+    <t>ok.</t>
+  </si>
+  <si>
+    <t>dopytać jak wygląda zimą (centralne miejsce - musi dobrze wygladać)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jak to utrzymywać po opadnięciu liści </t>
+  </si>
+  <si>
+    <t>wolałabym z różowymi kwiatkami</t>
+  </si>
+  <si>
+    <t>czy jest pewnosć, ze nie zbrzydna</t>
+  </si>
+  <si>
+    <t>NIE - coś weselszego</t>
+  </si>
+  <si>
+    <t>w okolice altany</t>
+  </si>
+  <si>
+    <t>coś milszego</t>
+  </si>
+  <si>
+    <t>coś weselszego</t>
+  </si>
+  <si>
+    <t>może być ich więcej</t>
+  </si>
+  <si>
+    <t>więcej choinek większych</t>
+  </si>
+  <si>
+    <t>mniej</t>
+  </si>
+  <si>
+    <t>lepiej z zielonymi liśćmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + gdzieś lilak z przodu lub koło tarasu</t>
+  </si>
+  <si>
+    <t>więcej funki</t>
+  </si>
+  <si>
+    <t>może tu lilak</t>
+  </si>
+  <si>
+    <t>miał być jeszcze rozmaryn</t>
+  </si>
+  <si>
+    <t>inne byliny kwitnące</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -961,15 +1018,28 @@
       <charset val="238"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="238"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
@@ -1071,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1161,32 +1231,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1195,131 +1244,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -1352,6 +1308,44 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1715,6 +1709,55 @@
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1811,16 +1854,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>174498</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83389</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>58393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>297883</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>235640</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>206775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4142</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1838,8 +1881,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7918323" y="371476"/>
-          <a:ext cx="3552385" cy="2190750"/>
+          <a:off x="9790606" y="563632"/>
+          <a:ext cx="3560668" cy="2289727"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3161,7 +3204,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Typ rośliny" colHeaderCaption="Strefa">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Typ rośliny" colHeaderCaption="Strefa">
   <location ref="A3:G13" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -3384,29 +3427,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J103" totalsRowCount="1" headerRowDxfId="31" totalsRowDxfId="29" tableBorderDxfId="30">
-  <autoFilter ref="A1:J102">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="1"/>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:K103" totalsRowCount="1" headerRowDxfId="21" totalsRowDxfId="19" tableBorderDxfId="20">
+  <autoFilter ref="A1:K102">
+    <filterColumn colId="5"/>
     <filterColumn colId="9"/>
+    <filterColumn colId="10"/>
   </autoFilter>
-  <tableColumns count="10">
-    <tableColumn id="1" name="Nr" totalsRowLabel="Suma" totalsRowDxfId="25"/>
-    <tableColumn id="2" name="Nazwa" totalsRowDxfId="24"/>
-    <tableColumn id="3" name="Opis" totalsRowDxfId="23"/>
-    <tableColumn id="4" name="Typ" totalsRowDxfId="22"/>
-    <tableColumn id="5" name="Zimozielony?" totalsRowDxfId="21"/>
-    <tableColumn id="6" name="Strefa" totalsRowFunction="count" totalsRowDxfId="20"/>
-    <tableColumn id="7" name="Liczba (sztuki)" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="19"/>
-    <tableColumn id="8" name="Średnia cena" totalsRowFunction="average" dataDxfId="27" totalsRowDxfId="18"/>
-    <tableColumn id="9" name="Suma" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="17">
+  <tableColumns count="11">
+    <tableColumn id="1" name="Nr" totalsRowLabel="Suma" totalsRowDxfId="10"/>
+    <tableColumn id="2" name="Nazwa" totalsRowDxfId="9"/>
+    <tableColumn id="3" name="Opis" totalsRowDxfId="8"/>
+    <tableColumn id="4" name="Typ" totalsRowDxfId="7"/>
+    <tableColumn id="5" name="Zimozielony?" totalsRowDxfId="6"/>
+    <tableColumn id="6" name="Strefa" totalsRowFunction="count" totalsRowDxfId="5"/>
+    <tableColumn id="7" name="Liczba (sztuki)" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="4"/>
+    <tableColumn id="8" name="Średnia cena" totalsRowFunction="average" dataDxfId="17" totalsRowDxfId="3"/>
+    <tableColumn id="9" name="Suma" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Kolumna1" totalsRowDxfId="16"/>
+    <tableColumn id="11" name="Opinie" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="10" name="Kolumna1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3697,11 +3737,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O104"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3711,9 +3751,10 @@
     <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
     <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3742,13 +3783,16 @@
         <v>102</v>
       </c>
       <c r="J1" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22.5" hidden="1">
+    <row r="2" spans="1:16" ht="22.5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3770,18 +3814,21 @@
       <c r="G2" s="8">
         <v>2</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="30">
         <v>50</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>100</v>
       </c>
-      <c r="O2" t="s">
+      <c r="J2" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="P2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="22.5" hidden="1">
+    <row r="3" spans="1:16" ht="22.5">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -3803,18 +3850,21 @@
       <c r="G3" s="8">
         <v>2</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="30">
         <v>35</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>70</v>
       </c>
-      <c r="O3" t="s">
+      <c r="J3" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="P3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="22.5" hidden="1">
+    <row r="4" spans="1:16" ht="22.5">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -3836,18 +3886,21 @@
       <c r="G4" s="8">
         <v>2</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="30">
         <v>20</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>40</v>
       </c>
-      <c r="O4" t="s">
+      <c r="J4" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="P4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="26.25" hidden="1" customHeight="1">
+    <row r="5" spans="1:16" ht="26.25" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -3869,18 +3922,21 @@
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="30">
         <v>200</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>200</v>
       </c>
-      <c r="O5" t="s">
+      <c r="J5" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="P5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="38.25" hidden="1">
+    <row r="6" spans="1:16" ht="38.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -3902,18 +3958,21 @@
       <c r="G6" s="8">
         <v>35</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="30">
         <v>6</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>210</v>
       </c>
-      <c r="O6" t="s">
+      <c r="J6" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="P6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1">
+    <row r="7" spans="1:16">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -3935,18 +3994,21 @@
       <c r="G7" s="8">
         <v>16</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="30">
         <v>27</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>432</v>
       </c>
-      <c r="O7" t="s">
+      <c r="J7" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="P7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="60" hidden="1">
+    <row r="8" spans="1:16" ht="60">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -3968,18 +4030,21 @@
       <c r="G8" s="8">
         <v>6</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="30">
         <v>13</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>78</v>
       </c>
-      <c r="O8" t="s">
+      <c r="J8" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="38.25" hidden="1">
+    <row r="9" spans="1:16" ht="38.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -4001,18 +4066,21 @@
       <c r="G9" s="8">
         <v>15</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="30">
         <v>7.1</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>106.5</v>
       </c>
-      <c r="O9" t="s">
+      <c r="J9" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="P9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="33.75" hidden="1">
+    <row r="10" spans="1:16" ht="33.75">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -4034,18 +4102,21 @@
       <c r="G10" s="8">
         <v>6</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="30">
         <v>20</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>120</v>
       </c>
-      <c r="O10" t="s">
+      <c r="J10" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="P10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="45" hidden="1">
+    <row r="11" spans="1:16" ht="45">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -4067,13 +4138,16 @@
       <c r="G11" s="8">
         <v>6</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35">
+      <c r="H11" s="30"/>
+      <c r="I11" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="45" hidden="1">
+      <c r="J11" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="45">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -4095,13 +4169,16 @@
       <c r="G12" s="8">
         <v>5</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35">
+      <c r="H12" s="30"/>
+      <c r="I12" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="26.25" customHeight="1">
+      <c r="J12" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="26.25" customHeight="1">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -4123,15 +4200,18 @@
       <c r="G13" s="8">
         <v>12</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="30">
         <v>10</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="26.25" hidden="1" customHeight="1">
+      <c r="J13" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="26.25" customHeight="1">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -4153,13 +4233,16 @@
       <c r="G14" s="8">
         <v>5</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35">
+      <c r="H14" s="30"/>
+      <c r="I14" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="26.25" customHeight="1">
+      <c r="J14" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="26.25" customHeight="1">
       <c r="A15" s="5">
         <v>9</v>
       </c>
@@ -4181,15 +4264,18 @@
       <c r="G15" s="8">
         <v>11</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="30">
         <v>10</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="26.25" customHeight="1">
+      <c r="J15" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="26.25" customHeight="1">
       <c r="A16" s="5">
         <v>10</v>
       </c>
@@ -4211,15 +4297,18 @@
       <c r="G16" s="8">
         <v>7</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="30">
         <v>5</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="24" hidden="1">
+      <c r="J16" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="24">
       <c r="A17" s="5">
         <v>10</v>
       </c>
@@ -4241,13 +4330,16 @@
       <c r="G17" s="8">
         <v>3</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35">
+      <c r="H17" s="30"/>
+      <c r="I17" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="22.5" hidden="1">
+      <c r="J17" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="22.5">
       <c r="A18" s="5">
         <v>11</v>
       </c>
@@ -4269,13 +4361,16 @@
       <c r="G18" s="8">
         <v>3</v>
       </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35">
+      <c r="H18" s="30"/>
+      <c r="I18" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="33.75" hidden="1">
+      <c r="J18" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="33.75">
       <c r="A19" s="5">
         <v>12</v>
       </c>
@@ -4297,13 +4392,16 @@
       <c r="G19" s="8">
         <v>6</v>
       </c>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35">
+      <c r="H19" s="30"/>
+      <c r="I19" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="40.5" hidden="1" customHeight="1">
+      <c r="J19" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="40.5" customHeight="1">
       <c r="A20" s="5">
         <v>13</v>
       </c>
@@ -4325,13 +4423,16 @@
       <c r="G20" s="8">
         <v>8</v>
       </c>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35">
+      <c r="H20" s="30"/>
+      <c r="I20" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="45" hidden="1">
+      <c r="J20" s="38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="60">
       <c r="A21" s="5">
         <v>14</v>
       </c>
@@ -4353,13 +4454,19 @@
       <c r="G21" s="8">
         <v>1</v>
       </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35">
+      <c r="H21" s="30"/>
+      <c r="I21" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="36" hidden="1">
+      <c r="J21" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="36">
       <c r="A22" s="5" t="s">
         <v>120</v>
       </c>
@@ -4381,13 +4488,16 @@
       <c r="G22" s="8">
         <v>1</v>
       </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35">
+      <c r="H22" s="30"/>
+      <c r="I22" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="24" hidden="1">
+      <c r="J22" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="24">
       <c r="A23" s="5">
         <v>15</v>
       </c>
@@ -4409,13 +4519,16 @@
       <c r="G23" s="8">
         <v>8</v>
       </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35">
+      <c r="H23" s="30"/>
+      <c r="I23" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="24">
+      <c r="J23" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="24">
       <c r="A24" s="5">
         <v>15</v>
       </c>
@@ -4437,15 +4550,18 @@
       <c r="G24" s="8">
         <v>27</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="30">
         <v>20</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>540</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="33.75" hidden="1">
+      <c r="J24" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="33.75">
       <c r="A25" s="5">
         <v>16</v>
       </c>
@@ -4467,13 +4583,16 @@
       <c r="G25" s="8">
         <v>1</v>
       </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35">
+      <c r="H25" s="30"/>
+      <c r="I25" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="33.75">
+      <c r="J25" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="33.75">
       <c r="A26" s="5">
         <v>16</v>
       </c>
@@ -4495,15 +4614,18 @@
       <c r="G26" s="8">
         <v>4</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="30">
         <v>10</v>
       </c>
-      <c r="I26" s="35">
+      <c r="I26" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="25.5" hidden="1">
+      <c r="J26" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="25.5">
       <c r="A27" s="5">
         <v>17</v>
       </c>
@@ -4525,13 +4647,16 @@
       <c r="G27" s="8">
         <v>16</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35">
+      <c r="H27" s="30"/>
+      <c r="I27" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="25.5">
+      <c r="J27" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="25.5">
       <c r="A28" s="5">
         <v>17</v>
       </c>
@@ -4553,15 +4678,18 @@
       <c r="G28" s="8">
         <v>8</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="30">
         <v>5</v>
       </c>
-      <c r="I28" s="35">
+      <c r="I28" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="25.5" hidden="1">
+      <c r="J28" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="36">
       <c r="A29" s="5">
         <v>18</v>
       </c>
@@ -4583,13 +4711,16 @@
       <c r="G29" s="8">
         <v>3</v>
       </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35">
+      <c r="H29" s="30"/>
+      <c r="I29" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="25.5">
+      <c r="J29" s="38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="36">
       <c r="A30" s="5">
         <v>18</v>
       </c>
@@ -4611,15 +4742,18 @@
       <c r="G30" s="8">
         <v>3</v>
       </c>
-      <c r="H30" s="35">
+      <c r="H30" s="30">
         <v>40</v>
       </c>
-      <c r="I30" s="35">
+      <c r="I30" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="56.25" hidden="1">
+      <c r="J30" s="38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="56.25">
       <c r="A31" s="5">
         <v>19</v>
       </c>
@@ -4641,13 +4775,16 @@
       <c r="G31" s="8">
         <v>7</v>
       </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35">
+      <c r="H31" s="30"/>
+      <c r="I31" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="25.5" hidden="1">
+      <c r="J31" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="25.5">
       <c r="A32" s="5">
         <v>20</v>
       </c>
@@ -4669,13 +4806,16 @@
       <c r="G32" s="8">
         <v>1</v>
       </c>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35">
+      <c r="H32" s="30"/>
+      <c r="I32" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="45" hidden="1">
+      <c r="J32" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="45">
       <c r="A33" s="5">
         <v>21</v>
       </c>
@@ -4697,13 +4837,16 @@
       <c r="G33" s="8">
         <v>21</v>
       </c>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35">
+      <c r="H33" s="30"/>
+      <c r="I33" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="33.75" hidden="1">
+      <c r="J33" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="33.75">
       <c r="A34" s="5">
         <v>22</v>
       </c>
@@ -4725,13 +4868,16 @@
       <c r="G34" s="8">
         <v>16</v>
       </c>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35">
+      <c r="H34" s="30"/>
+      <c r="I34" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="69" customHeight="1">
+      <c r="J34" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="69" customHeight="1">
       <c r="A35" s="5">
         <v>23</v>
       </c>
@@ -4753,15 +4899,18 @@
       <c r="G35" s="8">
         <v>8</v>
       </c>
-      <c r="H35" s="35">
+      <c r="H35" s="30">
         <v>15</v>
       </c>
-      <c r="I35" s="35">
+      <c r="I35" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="38.25">
+      <c r="J35" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="38.25">
       <c r="A36" s="5">
         <v>24</v>
       </c>
@@ -4783,15 +4932,18 @@
       <c r="G36" s="8">
         <v>9</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H36" s="30">
         <v>10</v>
       </c>
-      <c r="I36" s="35">
+      <c r="I36" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="38.25">
+      <c r="J36" s="38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="38.25">
       <c r="A37" s="5">
         <v>25</v>
       </c>
@@ -4813,15 +4965,21 @@
       <c r="G37" s="8">
         <v>3</v>
       </c>
-      <c r="H37" s="35">
+      <c r="H37" s="30">
         <v>15</v>
       </c>
-      <c r="I37" s="35">
+      <c r="I37" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="25.5">
+      <c r="J37" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="K37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="25.5">
       <c r="A38" s="5">
         <v>26</v>
       </c>
@@ -4843,15 +5001,18 @@
       <c r="G38" s="8">
         <v>3</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38" s="30">
         <v>15</v>
       </c>
-      <c r="I38" s="35">
+      <c r="I38" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="25.5">
+      <c r="J38" s="38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="25.5">
       <c r="A39" s="5">
         <v>26</v>
       </c>
@@ -4873,15 +5034,18 @@
       <c r="G39" s="8">
         <v>11</v>
       </c>
-      <c r="H39" s="35">
+      <c r="H39" s="30">
         <v>15</v>
       </c>
-      <c r="I39" s="35">
+      <c r="I39" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>165</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="22.5">
+      <c r="J39" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="22.5">
       <c r="A40" s="5">
         <v>27</v>
       </c>
@@ -4903,15 +5067,18 @@
       <c r="G40" s="8">
         <v>17</v>
       </c>
-      <c r="H40" s="35">
+      <c r="H40" s="30">
         <v>6</v>
       </c>
-      <c r="I40" s="35">
+      <c r="I40" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>102</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="22.5" hidden="1">
+      <c r="J40" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="22.5">
       <c r="A41" s="5">
         <v>28</v>
       </c>
@@ -4933,13 +5100,16 @@
       <c r="G41" s="8">
         <v>2</v>
       </c>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35">
+      <c r="H41" s="30"/>
+      <c r="I41" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="22.5" hidden="1">
+      <c r="J41" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="22.5">
       <c r="A42" s="5">
         <v>28</v>
       </c>
@@ -4961,13 +5131,16 @@
       <c r="G42" s="8">
         <v>2</v>
       </c>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35">
+      <c r="H42" s="30"/>
+      <c r="I42" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="51" hidden="1">
+      <c r="J42" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="51">
       <c r="A43" s="5">
         <v>29</v>
       </c>
@@ -4989,13 +5162,16 @@
       <c r="G43" s="8">
         <v>13</v>
       </c>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35">
+      <c r="H43" s="30"/>
+      <c r="I43" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="33.75">
+      <c r="J43" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="33.75">
       <c r="A44" s="5">
         <v>30</v>
       </c>
@@ -5017,15 +5193,18 @@
       <c r="G44" s="8">
         <v>13</v>
       </c>
-      <c r="H44" s="35">
+      <c r="H44" s="30">
         <v>15</v>
       </c>
-      <c r="I44" s="35">
+      <c r="I44" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>195</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="25.5">
+      <c r="J44" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="25.5">
       <c r="A45" s="5">
         <v>31</v>
       </c>
@@ -5047,15 +5226,18 @@
       <c r="G45" s="8">
         <v>1</v>
       </c>
-      <c r="H45" s="35">
+      <c r="H45" s="30">
         <v>85</v>
       </c>
-      <c r="I45" s="35">
+      <c r="I45" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="24">
+      <c r="J45" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="24">
       <c r="A46" s="5">
         <v>32</v>
       </c>
@@ -5077,15 +5259,18 @@
       <c r="G46" s="8">
         <v>10</v>
       </c>
-      <c r="H46" s="35">
+      <c r="H46" s="30">
         <v>15</v>
       </c>
-      <c r="I46" s="35">
+      <c r="I46" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="38.25">
+      <c r="J46" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="38.25">
       <c r="A47" s="5">
         <v>33</v>
       </c>
@@ -5107,15 +5292,18 @@
       <c r="G47" s="8">
         <v>5</v>
       </c>
-      <c r="H47" s="35">
+      <c r="H47" s="30">
         <v>4</v>
       </c>
-      <c r="I47" s="35">
+      <c r="I47" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="33.75">
+      <c r="J47" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="33.75">
       <c r="A48" s="5">
         <v>34</v>
       </c>
@@ -5137,18 +5325,21 @@
       <c r="G48" s="8">
         <v>7</v>
       </c>
-      <c r="H48" s="35">
+      <c r="H48" s="30">
         <v>12</v>
       </c>
-      <c r="I48" s="35">
+      <c r="I48" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>84</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="K48" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="38.25">
+    <row r="49" spans="1:11" ht="38.25">
       <c r="A49" s="5">
         <v>35</v>
       </c>
@@ -5170,15 +5361,18 @@
       <c r="G49" s="8">
         <v>12</v>
       </c>
-      <c r="H49" s="35">
+      <c r="H49" s="30">
         <v>20</v>
       </c>
-      <c r="I49" s="35">
+      <c r="I49" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>240</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="25.5">
+      <c r="J49" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="25.5">
       <c r="A50" s="5">
         <v>36</v>
       </c>
@@ -5200,15 +5394,18 @@
       <c r="G50" s="8">
         <v>9</v>
       </c>
-      <c r="H50" s="35">
+      <c r="H50" s="30">
         <v>140</v>
       </c>
-      <c r="I50" s="35">
+      <c r="I50" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>1260</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="33.75">
+      <c r="J50" s="38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="33.75">
       <c r="A51" s="5">
         <v>37</v>
       </c>
@@ -5230,15 +5427,21 @@
       <c r="G51" s="8">
         <v>1</v>
       </c>
-      <c r="H51" s="35">
+      <c r="H51" s="30">
         <v>25</v>
       </c>
-      <c r="I51" s="35">
+      <c r="I51" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="48">
+      <c r="J51" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="K51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="48">
       <c r="A52" s="5">
         <v>38</v>
       </c>
@@ -5260,15 +5463,18 @@
       <c r="G52" s="8">
         <v>4</v>
       </c>
-      <c r="H52" s="35">
+      <c r="H52" s="30">
         <v>8</v>
       </c>
-      <c r="I52" s="35">
+      <c r="I52" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="38.25">
+      <c r="J52" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="38.25">
       <c r="A53" s="5">
         <v>39</v>
       </c>
@@ -5290,15 +5496,18 @@
       <c r="G53" s="8">
         <v>6</v>
       </c>
-      <c r="H53" s="35">
+      <c r="H53" s="30">
         <v>30</v>
       </c>
-      <c r="I53" s="35">
+      <c r="I53" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="38.25" hidden="1">
+      <c r="J53" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="38.25">
       <c r="A54" s="5">
         <v>39</v>
       </c>
@@ -5320,13 +5529,16 @@
       <c r="G54" s="8">
         <v>3</v>
       </c>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35">
+      <c r="H54" s="30"/>
+      <c r="I54" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="24.75">
+      <c r="J54" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="24.75">
       <c r="A55" s="5">
         <v>40</v>
       </c>
@@ -5348,15 +5560,18 @@
       <c r="G55" s="8">
         <v>5</v>
       </c>
-      <c r="H55" s="35">
+      <c r="H55" s="30">
         <v>150</v>
       </c>
-      <c r="I55" s="35">
+      <c r="I55" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>750</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="51">
+      <c r="J55" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="51">
       <c r="A56" s="5">
         <v>41</v>
       </c>
@@ -5378,15 +5593,18 @@
       <c r="G56" s="8">
         <v>1</v>
       </c>
-      <c r="H56" s="35">
+      <c r="H56" s="30">
         <v>60</v>
       </c>
-      <c r="I56" s="35">
+      <c r="I56" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="5">
         <v>42</v>
       </c>
@@ -5408,15 +5626,18 @@
       <c r="G57" s="8">
         <v>6</v>
       </c>
-      <c r="H57" s="35">
+      <c r="H57" s="30">
         <v>40</v>
       </c>
-      <c r="I57" s="35">
+      <c r="I57" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>240</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="56.25">
+      <c r="J57" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="56.25">
       <c r="A58" s="5">
         <v>43</v>
       </c>
@@ -5438,15 +5659,18 @@
       <c r="G58" s="8">
         <v>3</v>
       </c>
-      <c r="H58" s="35">
+      <c r="H58" s="30">
         <v>10</v>
       </c>
-      <c r="I58" s="35">
+      <c r="I58" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="22.5">
+      <c r="J58" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="22.5">
       <c r="A59" s="5">
         <v>44</v>
       </c>
@@ -5468,15 +5692,18 @@
       <c r="G59" s="8">
         <v>5</v>
       </c>
-      <c r="H59" s="35">
+      <c r="H59" s="30">
         <v>7</v>
       </c>
-      <c r="I59" s="35">
+      <c r="I59" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="22.5">
+      <c r="J59" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="22.5">
       <c r="A60" s="5">
         <v>45</v>
       </c>
@@ -5498,15 +5725,18 @@
       <c r="G60" s="8">
         <v>3</v>
       </c>
-      <c r="H60" s="35">
+      <c r="H60" s="30">
         <v>100</v>
       </c>
-      <c r="I60" s="35">
+      <c r="I60" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="24">
+      <c r="J60" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="36">
       <c r="A61" s="5">
         <v>46</v>
       </c>
@@ -5528,15 +5758,18 @@
       <c r="G61" s="8">
         <v>7</v>
       </c>
-      <c r="H61" s="35">
+      <c r="H61" s="30">
         <v>80</v>
       </c>
-      <c r="I61" s="35">
+      <c r="I61" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>560</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="45">
+      <c r="J61" s="38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="45">
       <c r="A62" s="5">
         <v>47</v>
       </c>
@@ -5558,15 +5791,18 @@
       <c r="G62" s="8">
         <v>5</v>
       </c>
-      <c r="H62" s="35">
+      <c r="H62" s="30">
         <v>20</v>
       </c>
-      <c r="I62" s="35">
+      <c r="I62" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="22.5">
+      <c r="J62" s="38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="36">
       <c r="A63" s="5">
         <v>48</v>
       </c>
@@ -5588,15 +5824,18 @@
       <c r="G63" s="8">
         <v>5</v>
       </c>
-      <c r="H63" s="35">
+      <c r="H63" s="30">
         <v>70</v>
       </c>
-      <c r="I63" s="35">
+      <c r="I63" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>350</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="36" customHeight="1">
+      <c r="J63" s="38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="36" customHeight="1">
       <c r="A64" s="5">
         <v>49</v>
       </c>
@@ -5618,15 +5857,21 @@
       <c r="G64" s="8">
         <v>7</v>
       </c>
-      <c r="H64" s="35">
+      <c r="H64" s="30">
         <v>13</v>
       </c>
-      <c r="I64" s="35">
+      <c r="I64" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>91</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="51">
+      <c r="J64" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="K64" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="51">
       <c r="A65" s="5">
         <v>50</v>
       </c>
@@ -5648,15 +5893,18 @@
       <c r="G65" s="8">
         <v>9</v>
       </c>
-      <c r="H65" s="35">
+      <c r="H65" s="30">
         <v>7</v>
       </c>
-      <c r="I65" s="35">
+      <c r="I65" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="56.25">
+      <c r="J65" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="56.25">
       <c r="A66" s="12">
         <v>51</v>
       </c>
@@ -5678,15 +5926,16 @@
       <c r="G66" s="8">
         <v>1</v>
       </c>
-      <c r="H66" s="35">
+      <c r="H66" s="30">
         <v>1</v>
       </c>
-      <c r="I66" s="35">
+      <c r="I66" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="56.25">
+      <c r="J66" s="38"/>
+    </row>
+    <row r="67" spans="1:11" ht="56.25">
       <c r="A67" s="12">
         <v>52</v>
       </c>
@@ -5708,15 +5957,16 @@
       <c r="G67" s="8">
         <v>1</v>
       </c>
-      <c r="H67" s="35">
+      <c r="H67" s="30">
         <v>1</v>
       </c>
-      <c r="I67" s="35">
+      <c r="I67" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="56.25">
+      <c r="J67" s="38"/>
+    </row>
+    <row r="68" spans="1:11" ht="56.25">
       <c r="A68" s="12">
         <v>53</v>
       </c>
@@ -5738,15 +5988,16 @@
       <c r="G68" s="8">
         <v>1</v>
       </c>
-      <c r="H68" s="35">
+      <c r="H68" s="30">
         <v>2</v>
       </c>
-      <c r="I68" s="35">
+      <c r="I68" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="90">
+      <c r="J68" s="38"/>
+    </row>
+    <row r="69" spans="1:11" ht="90">
       <c r="A69" s="12">
         <v>54</v>
       </c>
@@ -5768,15 +6019,16 @@
       <c r="G69" s="8">
         <v>1</v>
       </c>
-      <c r="H69" s="35">
+      <c r="H69" s="30">
         <v>7</v>
       </c>
-      <c r="I69" s="35">
+      <c r="I69" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="90">
+      <c r="J69" s="38"/>
+    </row>
+    <row r="70" spans="1:11" ht="90">
       <c r="A70" s="12">
         <v>55</v>
       </c>
@@ -5798,15 +6050,16 @@
       <c r="G70" s="8">
         <v>2</v>
       </c>
-      <c r="H70" s="35">
+      <c r="H70" s="30">
         <v>7</v>
       </c>
-      <c r="I70" s="35">
+      <c r="I70" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="60">
+      <c r="J70" s="38"/>
+    </row>
+    <row r="71" spans="1:11" ht="60">
       <c r="A71" s="5">
         <v>56</v>
       </c>
@@ -5828,15 +6081,18 @@
       <c r="G71" s="8">
         <v>3</v>
       </c>
-      <c r="H71" s="35">
+      <c r="H71" s="30">
         <v>10</v>
       </c>
-      <c r="I71" s="35">
+      <c r="I71" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="22.5">
+      <c r="J71" s="38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="22.5">
       <c r="A72" s="5">
         <v>57</v>
       </c>
@@ -5858,15 +6114,21 @@
       <c r="G72" s="8">
         <v>1</v>
       </c>
-      <c r="H72" s="35">
+      <c r="H72" s="30">
         <v>20</v>
       </c>
-      <c r="I72" s="35">
+      <c r="I72" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="38.25">
+      <c r="J72" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="K72" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="38.25">
       <c r="A73" s="5">
         <v>58</v>
       </c>
@@ -5888,15 +6150,18 @@
       <c r="G73" s="8">
         <v>5</v>
       </c>
-      <c r="H73" s="35">
+      <c r="H73" s="30">
         <v>15</v>
       </c>
-      <c r="I73" s="35">
+      <c r="I73" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="33.75">
+      <c r="J73" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="33.75">
       <c r="A74" s="5">
         <v>59</v>
       </c>
@@ -5918,15 +6183,18 @@
       <c r="G74" s="8">
         <v>12</v>
       </c>
-      <c r="H74" s="35">
+      <c r="H74" s="30">
         <v>4</v>
       </c>
-      <c r="I74" s="35">
+      <c r="I74" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="22.5" customHeight="1">
+      <c r="J74" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="22.5" customHeight="1">
       <c r="A75" s="5">
         <v>60</v>
       </c>
@@ -5948,15 +6216,18 @@
       <c r="G75" s="8">
         <v>2</v>
       </c>
-      <c r="H75" s="35">
+      <c r="H75" s="30">
         <v>90</v>
       </c>
-      <c r="I75" s="35">
+      <c r="I75" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="36">
+      <c r="J75" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="36">
       <c r="A76" s="5">
         <v>61</v>
       </c>
@@ -5978,15 +6249,18 @@
       <c r="G76" s="8">
         <v>3</v>
       </c>
-      <c r="H76" s="35">
+      <c r="H76" s="30">
         <v>15</v>
       </c>
-      <c r="I76" s="35">
+      <c r="I76" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="33.75" hidden="1">
+      <c r="J76" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="33.75">
       <c r="A77" s="5">
         <v>62</v>
       </c>
@@ -6008,13 +6282,16 @@
       <c r="G77" s="8">
         <v>1</v>
       </c>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35">
+      <c r="H77" s="30"/>
+      <c r="I77" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="45" hidden="1">
+      <c r="J77" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="45">
       <c r="A78" s="5">
         <v>63</v>
       </c>
@@ -6036,13 +6313,16 @@
       <c r="G78" s="8">
         <v>11</v>
       </c>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35">
+      <c r="H78" s="30"/>
+      <c r="I78" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" ht="33.75" hidden="1">
+      <c r="J78" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="33.75">
       <c r="A79" s="5">
         <v>64</v>
       </c>
@@ -6064,13 +6344,17 @@
       <c r="G79" s="8">
         <v>4</v>
       </c>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35">
+      <c r="H79" s="30"/>
+      <c r="I79" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="25.5" hidden="1" customHeight="1">
+      <c r="J79" s="38"/>
+      <c r="K79" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="25.5" customHeight="1">
       <c r="A80" s="5">
         <v>65</v>
       </c>
@@ -6092,13 +6376,14 @@
       <c r="G80" s="8">
         <v>3</v>
       </c>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35">
+      <c r="H80" s="30"/>
+      <c r="I80" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="33.75" hidden="1">
+      <c r="J80" s="38"/>
+    </row>
+    <row r="81" spans="1:10" ht="33.75">
       <c r="A81" s="5">
         <v>66</v>
       </c>
@@ -6120,13 +6405,14 @@
       <c r="G81" s="8">
         <v>5</v>
       </c>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35">
+      <c r="H81" s="30"/>
+      <c r="I81" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" ht="56.25" hidden="1">
+      <c r="J81" s="38"/>
+    </row>
+    <row r="82" spans="1:10" ht="56.25">
       <c r="A82" s="5">
         <v>67</v>
       </c>
@@ -6148,13 +6434,14 @@
       <c r="G82" s="8">
         <v>7</v>
       </c>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35">
+      <c r="H82" s="30"/>
+      <c r="I82" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" ht="45" hidden="1">
+      <c r="J82" s="38"/>
+    </row>
+    <row r="83" spans="1:10" ht="45">
       <c r="A83" s="5">
         <v>68</v>
       </c>
@@ -6176,13 +6463,16 @@
       <c r="G83" s="8">
         <v>8</v>
       </c>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35">
+      <c r="H83" s="30"/>
+      <c r="I83" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="45" hidden="1">
+      <c r="J83" s="38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="45">
       <c r="A84" s="5">
         <v>69</v>
       </c>
@@ -6204,13 +6494,16 @@
       <c r="G84" s="8">
         <v>1</v>
       </c>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35">
+      <c r="H84" s="30"/>
+      <c r="I84" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="33.75">
+      <c r="J84" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="33.75">
       <c r="A85" s="5">
         <v>70</v>
       </c>
@@ -6232,15 +6525,18 @@
       <c r="G85" s="8">
         <v>5</v>
       </c>
-      <c r="H85" s="35">
+      <c r="H85" s="30">
         <v>10</v>
       </c>
-      <c r="I85" s="35">
+      <c r="I85" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" ht="45" hidden="1">
+      <c r="J85" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="45">
       <c r="A86" s="5">
         <v>71</v>
       </c>
@@ -6262,13 +6558,16 @@
       <c r="G86" s="8">
         <v>3</v>
       </c>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35">
+      <c r="H86" s="30"/>
+      <c r="I86" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" ht="22.5" hidden="1">
+      <c r="J86" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="22.5">
       <c r="A87" s="5">
         <v>72</v>
       </c>
@@ -6290,13 +6589,16 @@
       <c r="G87" s="8">
         <v>3</v>
       </c>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35">
+      <c r="H87" s="30"/>
+      <c r="I87" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="45" hidden="1">
+      <c r="J87" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="45">
       <c r="A88" s="5">
         <v>73</v>
       </c>
@@ -6318,13 +6620,16 @@
       <c r="G88" s="8">
         <v>4</v>
       </c>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35">
+      <c r="H88" s="30"/>
+      <c r="I88" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" ht="25.5" hidden="1">
+      <c r="J88" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="25.5">
       <c r="A89" s="5">
         <v>74</v>
       </c>
@@ -6346,13 +6651,16 @@
       <c r="G89" s="8">
         <v>3</v>
       </c>
-      <c r="H89" s="35"/>
-      <c r="I89" s="35">
+      <c r="H89" s="30"/>
+      <c r="I89" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="36" hidden="1" customHeight="1">
+      <c r="J89" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="36" customHeight="1">
       <c r="A90" s="5">
         <v>75</v>
       </c>
@@ -6374,13 +6682,16 @@
       <c r="G90" s="8">
         <v>1</v>
       </c>
-      <c r="H90" s="35"/>
-      <c r="I90" s="35">
+      <c r="H90" s="30"/>
+      <c r="I90" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" ht="67.5" hidden="1">
+      <c r="J90" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="67.5">
       <c r="A91" s="5">
         <v>76</v>
       </c>
@@ -6402,13 +6713,16 @@
       <c r="G91" s="8">
         <v>4</v>
       </c>
-      <c r="H91" s="35"/>
-      <c r="I91" s="35">
+      <c r="H91" s="30"/>
+      <c r="I91" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" ht="33.75" hidden="1">
+      <c r="J91" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="33.75">
       <c r="A92" s="5">
         <v>77</v>
       </c>
@@ -6430,13 +6744,16 @@
       <c r="G92" s="8">
         <v>7</v>
       </c>
-      <c r="H92" s="35"/>
-      <c r="I92" s="35">
+      <c r="H92" s="30"/>
+      <c r="I92" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="67.5">
+      <c r="J92" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="67.5">
       <c r="A93" s="5">
         <v>78</v>
       </c>
@@ -6458,15 +6775,18 @@
       <c r="G93" s="8">
         <v>9</v>
       </c>
-      <c r="H93" s="35">
+      <c r="H93" s="30">
         <v>4</v>
       </c>
-      <c r="I93" s="35">
+      <c r="I93" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="45">
+      <c r="J93" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="45">
       <c r="A94" s="5">
         <v>79</v>
       </c>
@@ -6488,15 +6808,18 @@
       <c r="G94" s="8">
         <v>4</v>
       </c>
-      <c r="H94" s="35">
+      <c r="H94" s="30">
         <v>10</v>
       </c>
-      <c r="I94" s="35">
+      <c r="I94" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="45" hidden="1">
+      <c r="J94" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="45">
       <c r="A95" s="5"/>
       <c r="B95" s="23" t="s">
         <v>33</v>
@@ -6516,13 +6839,14 @@
       <c r="G95" s="8">
         <v>18</v>
       </c>
-      <c r="H95" s="35"/>
-      <c r="I95" s="35">
+      <c r="H95" s="30"/>
+      <c r="I95" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="45">
+      <c r="J95" s="38"/>
+    </row>
+    <row r="96" spans="1:10" ht="45">
       <c r="A96" s="5"/>
       <c r="B96" s="24" t="s">
         <v>67</v>
@@ -6542,15 +6866,16 @@
       <c r="G96" s="8">
         <v>35</v>
       </c>
-      <c r="H96" s="35">
+      <c r="H96" s="30">
         <v>0.5</v>
       </c>
-      <c r="I96" s="35">
+      <c r="I96" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>17.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="45" hidden="1">
+      <c r="J96" s="38"/>
+    </row>
+    <row r="97" spans="1:11" ht="45">
       <c r="A97" s="5"/>
       <c r="B97" s="24" t="s">
         <v>68</v>
@@ -6570,13 +6895,14 @@
       <c r="G97" s="8">
         <v>15</v>
       </c>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35">
+      <c r="H97" s="30"/>
+      <c r="I97" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="45">
+      <c r="J97" s="38"/>
+    </row>
+    <row r="98" spans="1:11" ht="45">
       <c r="A98" s="5"/>
       <c r="B98" s="24" t="s">
         <v>69</v>
@@ -6596,15 +6922,16 @@
       <c r="G98" s="8">
         <v>15</v>
       </c>
-      <c r="H98" s="35">
+      <c r="H98" s="30">
         <v>2</v>
       </c>
-      <c r="I98" s="35">
+      <c r="I98" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="33.75" hidden="1">
+      <c r="J98" s="38"/>
+    </row>
+    <row r="99" spans="1:11" ht="33.75">
       <c r="A99" s="5"/>
       <c r="B99" s="24" t="s">
         <v>70</v>
@@ -6624,13 +6951,14 @@
       <c r="G99" s="8">
         <v>45</v>
       </c>
-      <c r="H99" s="35"/>
-      <c r="I99" s="35">
+      <c r="H99" s="30"/>
+      <c r="I99" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="42.75" customHeight="1">
+      <c r="J99" s="38"/>
+    </row>
+    <row r="100" spans="1:11" ht="42.75" customHeight="1">
       <c r="A100" s="5"/>
       <c r="B100" s="25" t="s">
         <v>71</v>
@@ -6650,15 +6978,16 @@
       <c r="G100" s="8">
         <v>27</v>
       </c>
-      <c r="H100" s="35">
+      <c r="H100" s="30">
         <v>0.5</v>
       </c>
-      <c r="I100" s="35">
+      <c r="I100" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>13.5</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="33.75">
+      <c r="J100" s="38"/>
+    </row>
+    <row r="101" spans="1:11" ht="33.75">
       <c r="A101" s="5"/>
       <c r="B101" s="23" t="s">
         <v>34</v>
@@ -6678,15 +7007,16 @@
       <c r="G101" s="8">
         <v>39</v>
       </c>
-      <c r="H101" s="35">
+      <c r="H101" s="30">
         <v>1.5</v>
       </c>
-      <c r="I101" s="35">
+      <c r="I101" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>58.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="33.75">
+      <c r="J101" s="38"/>
+    </row>
+    <row r="102" spans="1:11" ht="33.75">
       <c r="A102" s="28"/>
       <c r="B102" s="24" t="s">
         <v>72</v>
@@ -6706,41 +7036,43 @@
       <c r="G102" s="8">
         <v>21</v>
       </c>
-      <c r="H102" s="35">
+      <c r="H102" s="30">
         <v>2.5</v>
       </c>
-      <c r="I102" s="35">
+      <c r="I102" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="24">
-      <c r="A103" s="30" t="s">
+      <c r="J102" s="38"/>
+    </row>
+    <row r="103" spans="1:11" ht="24">
+      <c r="A103" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="31"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="34">
+      <c r="B103" s="41"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="39">
         <f>SUBTOTAL(103,[Strefa])</f>
-        <v>53</v>
-      </c>
-      <c r="G103" s="34">
+        <v>101</v>
+      </c>
+      <c r="G103" s="39">
         <f>SUBTOTAL(109,[Liczba (sztuki)])</f>
-        <v>434</v>
-      </c>
-      <c r="H103" s="36">
+        <v>793</v>
+      </c>
+      <c r="H103" s="44">
         <f>SUBTOTAL(101,[Średnia cena])</f>
-        <v>24.339622641509433</v>
-      </c>
-      <c r="I103" s="34">
+        <v>26.904838709677417</v>
+      </c>
+      <c r="I103" s="39">
         <f>SUBTOTAL(109,[Suma])</f>
-        <v>7143</v>
-      </c>
-      <c r="J103" s="38"/>
-    </row>
-    <row r="104" spans="1:10">
+        <v>8499.5</v>
+      </c>
+      <c r="J103" s="39"/>
+      <c r="K103" s="45"/>
+    </row>
+    <row r="104" spans="1:11">
       <c r="F104" t="s">
         <v>176</v>
       </c>
@@ -6792,7 +7124,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="33" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6811,7 +7143,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="33" t="s">
         <v>182</v>
       </c>
       <c r="B5" t="s">
@@ -6828,170 +7160,170 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="42">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="35">
         <v>56</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="35">
         <v>431</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="35">
         <v>56</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="35">
         <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="42">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="35">
         <v>137</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="35">
         <v>172</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="35">
         <v>137</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="35">
         <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="42">
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="35">
         <v>24</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="35">
         <v>1470</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="35">
         <v>24</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="35">
         <v>1470</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="35">
         <v>24</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="36">
         <v>255</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="35">
         <v>76</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="35">
         <v>2750</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="35">
         <v>100</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="35">
         <v>3005</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="42">
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="35">
         <v>11</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="35">
         <v>235</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="35">
         <v>11</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="35">
         <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="35">
         <v>8</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="36">
         <v>120</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="35">
         <v>70</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="35">
         <v>1483</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="35">
         <v>78</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="35">
         <v>1603</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="35">
         <v>20</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="36">
         <v>147</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="35">
         <v>8</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="35">
         <v>80</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="35">
         <v>28</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="35">
         <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="32">
         <v>52</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="32">
         <v>522</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="32">
         <v>382</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="32">
         <v>6621</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="32">
         <v>434</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="32">
         <v>7143</v>
       </c>
     </row>

--- a/plan/Rośliny.Zestawienie.xlsx
+++ b/plan/Rośliny.Zestawienie.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="207">
   <si>
     <t>Nr</t>
   </si>
@@ -910,6 +910,12 @@
   </si>
   <si>
     <t>inne byliny kwitnące</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +róża, piwonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - że niby czarny bez się rozplenia</t>
   </si>
 </sst>
 </file>
@@ -1277,6 +1283,36 @@
   </cellStyles>
   <dxfs count="22">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1359,6 +1395,25 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
@@ -1372,6 +1427,39 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1426,6 +1514,9 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1461,6 +1552,13 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -1707,98 +1805,6 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3338,7 +3344,7 @@
     <dataField name="Suma z Suma" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="15">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3359,7 +3365,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3380,7 +3386,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -3402,7 +3408,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="0">
       <pivotArea field="3" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2" selected="0">
@@ -3434,19 +3440,19 @@
     <filterColumn colId="10"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" name="Nr" totalsRowLabel="Suma" totalsRowDxfId="10"/>
-    <tableColumn id="2" name="Nazwa" totalsRowDxfId="9"/>
-    <tableColumn id="3" name="Opis" totalsRowDxfId="8"/>
-    <tableColumn id="4" name="Typ" totalsRowDxfId="7"/>
-    <tableColumn id="5" name="Zimozielony?" totalsRowDxfId="6"/>
-    <tableColumn id="6" name="Strefa" totalsRowFunction="count" totalsRowDxfId="5"/>
-    <tableColumn id="7" name="Liczba (sztuki)" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="4"/>
-    <tableColumn id="8" name="Średnia cena" totalsRowFunction="average" dataDxfId="17" totalsRowDxfId="3"/>
-    <tableColumn id="9" name="Suma" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="2">
+    <tableColumn id="1" name="Nr" totalsRowLabel="Suma" totalsRowDxfId="18"/>
+    <tableColumn id="2" name="Nazwa" totalsRowDxfId="17"/>
+    <tableColumn id="3" name="Opis" totalsRowDxfId="16"/>
+    <tableColumn id="4" name="Typ" totalsRowDxfId="15"/>
+    <tableColumn id="5" name="Zimozielony?" totalsRowDxfId="14"/>
+    <tableColumn id="6" name="Strefa" totalsRowFunction="count" totalsRowDxfId="13"/>
+    <tableColumn id="7" name="Liczba (sztuki)" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="8" name="Średnia cena" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="9" name="Suma" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Opinie" dataDxfId="11" totalsRowDxfId="1"/>
-    <tableColumn id="10" name="Kolumna1" totalsRowDxfId="0"/>
+    <tableColumn id="11" name="Opinie" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="10" name="Kolumna1" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3737,11 +3743,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P104"/>
+  <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J95" sqref="J95"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3792,7 +3798,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="22.5">
+    <row r="2" spans="1:16" ht="25.5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3828,7 +3834,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="22.5">
+    <row r="3" spans="1:16" ht="25.5">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -3864,7 +3870,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="22.5">
+    <row r="4" spans="1:16" ht="25.5">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -7045,7 +7051,7 @@
       </c>
       <c r="J102" s="38"/>
     </row>
-    <row r="103" spans="1:11" ht="24">
+    <row r="103" spans="1:11" ht="15.75">
       <c r="A103" s="40" t="s">
         <v>102</v>
       </c>
@@ -7084,6 +7090,16 @@
       </c>
       <c r="I104" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="J107" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="J108" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/plan/Rośliny.Zestawienie.xlsx
+++ b/plan/Rośliny.Zestawienie.xlsx
@@ -4,25 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20400" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20400" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Zestawienie" sheetId="1" r:id="rId1"/>
     <sheet name="Statystyki" sheetId="2" r:id="rId2"/>
+    <sheet name="Iglaki" sheetId="3" r:id="rId3"/>
+    <sheet name="Arkusz2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Zestawienie!$A$1:$I$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Zestawienie!$A$1:$I$117</definedName>
     <definedName name="Typ.Rośliny">Zestawienie!$P$1:$P$10</definedName>
   </definedNames>
   <calcPr calcId="125725" calcMode="autoNoTable"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="297">
   <si>
     <t>Nr</t>
   </si>
@@ -72,9 +74,6 @@
     <t>Gleba żyzna, wapienna</t>
   </si>
   <si>
-    <t>Gleba żyzna, wilgotna</t>
-  </si>
-  <si>
     <t>Każda gleba ogrodowa</t>
   </si>
   <si>
@@ -141,9 +140,6 @@
     <t>Picea abies „Cupressina” – Świerk pospolity, wąskokolumnowy</t>
   </si>
   <si>
-    <t>Viburnum plicatum Grandiflorum”- Kalina japońska</t>
-  </si>
-  <si>
     <t>Platycladus orientalis „Aurea Nana” - Żywotnik wschodni</t>
   </si>
   <si>
@@ -159,9 +155,6 @@
     <t>Thuja occidentalis „Amber Glow” – Żywotnik zachodni</t>
   </si>
   <si>
-    <t>Carex morrowii „Ice Dance” – Turzyca japońska</t>
-  </si>
-  <si>
     <t>Pinus mugo „OPHIR” – Sosna górska (karłowa)</t>
   </si>
   <si>
@@ -177,21 +170,12 @@
     <t>Pinus mugo „Mops” – Sosna górska</t>
   </si>
   <si>
-    <t>Betula pubescens „Rubra” - Brzoza omszona, purpurowe liście</t>
-  </si>
-  <si>
     <t>Fothergilla major – Fotergilla większa</t>
   </si>
   <si>
-    <t>Pinus mugo „Gnom” – Sosna górska karłowa</t>
-  </si>
-  <si>
     <t>Hosta „August Moon” - Funkia</t>
   </si>
   <si>
-    <t>Viburnum sargentii „Onondaga” - Kalina Sargenta</t>
-  </si>
-  <si>
     <t>Prunus serrulata „Amanogawa” - Wiśnia piłkowana, kolumnowa</t>
   </si>
   <si>
@@ -199,9 +183,6 @@
   </si>
   <si>
     <t>Hosta „Island Charm” - Funkia karłowa</t>
-  </si>
-  <si>
-    <t>Aurinia saxatilis – Smagliczka skalna</t>
   </si>
   <si>
     <t>Iris pallida „Variegata” – Kosaciec blady</t>
@@ -554,9 +535,6 @@
     <t>Suma</t>
   </si>
   <si>
-    <t>Hydrangea paniculata „BOBO” – Hortensja bukietowa, karłowa Nie wycinać suchych kwiatostanów na zimę, dopiero wiosną; Warto wczesną wiosną (marzec) przyciąć nad 3-4 pąkiem, by się rozkrzewiła i bujnie kwitła</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gleba kwaśna, próchniczna; VII-X </t>
   </si>
   <si>
@@ -606,16 +584,6 @@
       </rPr>
       <t>„Faulkner” - Bukszpan drobnolistny, kulisty Posadzić różne średnice;</t>
     </r>
-  </si>
-  <si>
-    <t>Taxus baccata „Fastigiata Robusta”  - Cis pospolity, kolumnowy Posadzić w 3 wysokościach</t>
-  </si>
-  <si>
-    <t>Miscanthus sinensis „Morning Light” – Miskant chiński
-Wczesną wiosna przyciąć nisko nad ziemią;</t>
-  </si>
-  <si>
-    <t>Gleba żyzna, wilgotna VII-IX</t>
   </si>
   <si>
     <t>14a</t>
@@ -720,9 +688,6 @@
     <t>Gleba kwaśna, przepuszczalna, próchniczna; nie przesuszać podłoża; Owoce połowa VII</t>
   </si>
   <si>
-    <t>Hydrangea paniculata „Candlelight” – Hortensja bukietowa Nie wycinać suchych kwiatostanów na zimę, dopiero wiosną; Warto wczesną wiosną (marzec) przyciąć nad 3-4 pąkiem, by się rozkrzewiła i bujnie kwitła</t>
-  </si>
-  <si>
     <t>Gleba kwaśna, próchniczna; VIII-X</t>
   </si>
   <si>
@@ -768,9 +733,6 @@
     <t>Lavandula angustifolia „Hidcote Blue Strain”– Lawenda wąskolistna Po przekwitnięciu ścinamy kwiatostany i lekko przycinamy krzewinkę</t>
   </si>
   <si>
-    <t>Gleba przepuszczalna, wapienna IV-V</t>
-  </si>
-  <si>
     <t>Prunus serrulata „Kanzan” – Wiśnia piłkowana, Forma pienna, wys. szczepienia min. 230 cm</t>
   </si>
   <si>
@@ -834,9 +796,6 @@
     <t>Funkie są piękne :)</t>
   </si>
   <si>
-    <t>Kolumna1</t>
-  </si>
-  <si>
     <t>Suma z Suma</t>
   </si>
   <si>
@@ -861,51 +820,15 @@
     <t>ok.</t>
   </si>
   <si>
-    <t>dopytać jak wygląda zimą (centralne miejsce - musi dobrze wygladać)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jak to utrzymywać po opadnięciu liści </t>
-  </si>
-  <si>
-    <t>wolałabym z różowymi kwiatkami</t>
-  </si>
-  <si>
     <t>czy jest pewnosć, ze nie zbrzydna</t>
   </si>
   <si>
-    <t>NIE - coś weselszego</t>
-  </si>
-  <si>
-    <t>w okolice altany</t>
-  </si>
-  <si>
-    <t>coś milszego</t>
-  </si>
-  <si>
-    <t>coś weselszego</t>
-  </si>
-  <si>
     <t>może być ich więcej</t>
   </si>
   <si>
-    <t>więcej choinek większych</t>
-  </si>
-  <si>
-    <t>mniej</t>
-  </si>
-  <si>
-    <t>lepiej z zielonymi liśćmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + gdzieś lilak z przodu lub koło tarasu</t>
-  </si>
-  <si>
     <t>więcej funki</t>
   </si>
   <si>
-    <t>może tu lilak</t>
-  </si>
-  <si>
     <t>miał być jeszcze rozmaryn</t>
   </si>
   <si>
@@ -916,6 +839,556 @@
   </si>
   <si>
     <t xml:space="preserve"> - że niby czarny bez się rozplenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrangea paniculata „Sundae Fraise Rensun” – Hortensja bukietowa, karłowa, różowa
+Nie wycinać suchych kwiatostanów na zimę, dopiero wiosną, aby ładnie wyglądała; 
+Warto wczesną wiosną (marzec) przyciąć nad 3-4 pąkiem, by się rozkrzewiła i bujnie kwitła oraz zachowała zwarty pokrój
+</t>
+  </si>
+  <si>
+    <t>Viburnum plicatum „Pink Sensation”- Kalina japońska, różowa</t>
+  </si>
+  <si>
+    <t>Rhododendron „Cheer” - Różanecznik różowy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gleba kwaśna, żyzna
+Od pierwszej połowy V do VI
+</t>
+  </si>
+  <si>
+    <t>24a</t>
+  </si>
+  <si>
+    <t>24b</t>
+  </si>
+  <si>
+    <t>Rhododendron „Azurro” - Różanecznik fioletowy</t>
+  </si>
+  <si>
+    <t>Rhododendron „Roseum Elegans” - Różanecznik różowy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gleba kwaśna, żyzna
+Pod koniec V do VI
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gleba kwaśna, żyzna
+V-VI
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allium schoenoprasum „Forescate” - Szczypiorek ozdobny
+Pięknie kwitnie, liście jadalne.
+</t>
+  </si>
+  <si>
+    <t>Gleba ogrodowa, V-VI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prunus triloba - Migdałek trójklapowy  forma krzewiasta
+Aby migdałek zachował swą urodę trzeba dbać o regularne przycinanie pędów. Ten zabieg wykonuje się po okresie kwitnięcia, czyli w czerwcu. Ważne, by w tym czasie liście były jeszcze rozwinięte. Dzięki regularnemu przycinaniu pędów, z roku na rok zagęszcza się korona krzewu, a to bardzo dodatnio wpływa na walory ozdobne migdałka. Nie wolno również zapominać o tym, że należy usuwać pędy, które wybijają z podkładki.
+</t>
+  </si>
+  <si>
+    <t>IV-V</t>
+  </si>
+  <si>
+    <t>Betula pendula „Schneverdingen Goldbirke” - Brzoza pospolita, złotawe liście, niższy wzrost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinus mugo „Pal Maleter” – Sosna górska </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrangea paniculata „Vanille Fraise” – Hortensja bukietowa, różowa
+Nie wycinać suchych kwiatostanów na zimę, dopiero wiosną;
+Warto wczesną wiosną (marzec) przyciąć nad 3-4 pąkiem, by się rozkrzewiła i bujnie kwitła
+</t>
+  </si>
+  <si>
+    <t>Cercis canadensis „Covey” - Judaszowiec kanadyjski</t>
+  </si>
+  <si>
+    <t>Thymus serpyllum - Macierzanka wczesna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gleba przeciętna
+VI-X
+</t>
+  </si>
+  <si>
+    <t>Pinus mugo „Mops” - Sosna górska</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rhododendron </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>„Cecile”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> - Azalia łososiowa-różowa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rhododendron </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>„Homebush”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> - Azalia różowa</t>
+    </r>
+  </si>
+  <si>
+    <t>Daphne mezereum „Rubra” - Wawrzynek wilczełyko</t>
+  </si>
+  <si>
+    <r>
+      <t>Magnolia soulange'a „Genie”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> - Magnolia Soulange'a</t>
+    </r>
+  </si>
+  <si>
+    <t>Gleba żyzna, przepuszczalna, lekko kwaśna, V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gleba żyzna
+V
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gleba żyzna
+V-VI
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gleba próchniczna, wilgotnawa
+II-IV
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Hosta „Golden Tiara”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> – Funkia karłowa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Weigela florida </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">„Monet” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>- Krzewuszka cudowna, karłowa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Liatris spicata „Kobold” -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> Liatra kłosowa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Campanula portenschlagiana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> - Dzwonek dalmatyński</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Festuca mairei</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> – Kostrzewa Mairea</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Achillea millefolium „Terracotta”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> – Krwawnik pospolity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sedum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>„Matrona”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> - Rozchodnik ogrodowy</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosa „Cubana” - Róża okrywowa, pomarańczowa
+Mało wymagająca róża, kwitnie całe lato;
+Wiosna, gdy zaczynają pękać paki forsycji, przycinamy róże nad 3-4 pakiem, aby się ładnie zagęściły i kwitły;
+</t>
+  </si>
+  <si>
+    <t>Paeonia lactiflora „Sarah Bernhardt” – Piwonia chińska (jasny róż)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gleba wilgotnawa, żyzna;
+VII-VIII
+</t>
+  </si>
+  <si>
+    <t>Gleba zasobna, VI-VII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gleba żyzna
+VII-IX
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gleba ogrodowa VI-VII
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gleba przepuszczalna, 
+VI
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gleba przeciętna, przepuszczalna;
+VI-IX
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gleba ogrodowa
+VIII-X
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gleba żyzna, gliniasto-piaszczysta
+VI-jesieni
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gleba lekko kwaśna, żyzna, umiarkowanie wilgotna
+VI
+</t>
+  </si>
+  <si>
+    <t>110-130</t>
+  </si>
+  <si>
+    <t>Sklep</t>
+  </si>
+  <si>
+    <t>http://www.bartak.pl/rosliny/index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wielkosc </t>
+  </si>
+  <si>
+    <t>70-80</t>
+  </si>
+  <si>
+    <t>http://www.ogrodkroton.pl/towar.1007.wawrzynek.wilczelyko.rubra-daphne.mezereum.html</t>
+  </si>
+  <si>
+    <t>40-50</t>
+  </si>
+  <si>
+    <t>100-120</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.3551.magnolia.soulangeana.genie%C2%AE.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.1411.funkia.golden.tiara-.hosta.golden.tiara.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.3907.brzoza.goldbirke.-.betula.pendula.schneverdinger.goldbirke.html</t>
+  </si>
+  <si>
+    <t>180-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.2623.migdalek.trojklapowy-prunus.triloba.html</t>
+  </si>
+  <si>
+    <t>80-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.3967.wisnia.pilkowana.amanogawa.-prunus.serrulata.amanogawa.html</t>
+  </si>
+  <si>
+    <t>160-180</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.2629.oczar.posredni.pallida-hamamelis.x.intermedia.pallida.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.3373.fotergilla.amerykanska.-.fothergilla.major.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.4772.hortensja.bukietowa.vanilie.fraise.rehny.-.hydrangea.paniculata.renhy.vanille.fraise.html</t>
+  </si>
+  <si>
+    <t>30-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.3210.forsycja.golden.time-forsythia.golden.time.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://allegro.pl/pinus-parviflora-negishi-duza-roslina-i6064680842.html</t>
+  </si>
+  <si>
+    <t>szt</t>
+  </si>
+  <si>
+    <t>http://www.multiflora.com.pl/pliki/Multiflora_oferta_2016.pdf</t>
+  </si>
+  <si>
+    <t>20-30</t>
+  </si>
+  <si>
+    <t>40-60cm</t>
+  </si>
+  <si>
+    <t>P9/P11</t>
+  </si>
+  <si>
+    <t>sektor</t>
+  </si>
+  <si>
+    <t>cena</t>
+  </si>
+  <si>
+    <t>cena całość</t>
+  </si>
+  <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://e-iglaki.pl/?42,tuje-tuja-thuja-smaragd-tuja-szmaragd-30cm-szkolkowany!-donica-0-7l</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://e-iglaki.pl/?18,cis-posredni-hicksi-20-cm-paleta-nawoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://e-iglaki.pl/?613,thuja-smaragd-tuja-szmaragd-60cm!-tania-wysylka!</t>
+  </si>
+  <si>
+    <t>50-60</t>
+  </si>
+  <si>
+    <t>20cm</t>
+  </si>
+  <si>
+    <t>100cm</t>
+  </si>
+  <si>
+    <t>40cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://podkarpackiesady.pl/drzewa-i-krzewy-iglaste/402-cyprysik-lawsona-columnaris.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://podkarpackiesady.pl/drzewa-i-krzewy-iglaste/553-cis-posredni-hicksii.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://allegro.pl/szmaragd-zloty-golden-janed-gold-50-60cm-2l-i5600779388.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://iglaco.com/search.php?text=golden+smaragd</t>
+  </si>
+  <si>
+    <t>35cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://iglaco.com/search.php?text=smaragd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://e-iglaki.pl/?wyniki-wyszukiwania,17&amp;sPhrase=smaragd</t>
+  </si>
+  <si>
+    <t>60cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://sklep.ogrodslaski.pl/sosna-czarna-pinus-nigra-pyramidalis-3540-p-33237.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://sklep.ogrodslaski.pl/cyprysik-lawsona-chamaecyparis-lawsoniana-columnaris-4045-p-16375.html</t>
+  </si>
+  <si>
+    <t>http://sklep.ogrodslaski.pl/cyprysik-lawsona-chamaecyparis-lawsoniana-columnaris-80100-p-16376.html</t>
+  </si>
+  <si>
+    <t>80cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://sklep.ogrodslaski.pl/cis-posredni-taxus-media-hicksii-6070-p-17002.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://sklep.ogrodslaski.pl/zywotnik-olbrzymi-thuja-plicata-kornik-5060-p-17079.html</t>
+  </si>
+  <si>
+    <t>50cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://sklep.ogrodslaski.pl/zywotnik-olbrzymi-thuja-plicata-kornik10-7080-p-17081.html</t>
+  </si>
+  <si>
+    <t>70cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://sklep.szkolka.radom.pl/sosna-bosniacka-satelit-szczepiony-pinus-heldreichii-satelit.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://euroogrod.com.pl/product-pol-2786-Cyprysik-Lawsona-Stewartii-Chamaecyparis-lawsoniana-Stewartii-.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://euroogrod.com.pl/product-pol-5271-Tuja-Zywotnik-zachodni-Smaragd-Thuja-occidentalis-Smaragd-.html</t>
+  </si>
+  <si>
+    <t>75cm</t>
+  </si>
+  <si>
+    <t>55cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://euroogrod.com.pl/product-pol-2797-Cis-posredni-Hicksii-Taxus-media-Hicksii-.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://euroogrod.com.pl/product-pol-4160-Sosna-czarna-Pyramidalis-Pinus-nigra-Pyramidalis-.html</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://zapachzieleni.sklep.pl/glowna/431-swierk-pospolity-cupressina-c5-30-40cm.html</t>
+  </si>
+  <si>
+    <t>30cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://zapachzieleni.sklep.pl/glowna/490-sosna-bosniacka-50cm.html?search_query=pinus&amp;results=7</t>
+  </si>
+  <si>
+    <t>wysokość / pojemnik</t>
+  </si>
+  <si>
+    <t>sklep</t>
+  </si>
+  <si>
+    <t>wysokosc rosliny</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1497,6 @@
       <charset val="238"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1033,24 +1505,33 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF7030A0"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1075,8 +1556,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1143,11 +1630,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1240,9 +1768,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1256,32 +1781,106 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1311,6 +1910,40 @@
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1868,8 +2501,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>206775</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>4142</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3433,26 +4066,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:K103" totalsRowCount="1" headerRowDxfId="21" totalsRowDxfId="19" tableBorderDxfId="20">
-  <autoFilter ref="A1:K102">
-    <filterColumn colId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L118" totalsRowCount="1" headerRowDxfId="22" totalsRowDxfId="20" tableBorderDxfId="21">
+  <autoFilter ref="A1:L117">
+    <filterColumn colId="3"/>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="TAK"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="5"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="9"/>
     <filterColumn colId="10"/>
+    <filterColumn colId="11"/>
   </autoFilter>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Nr" totalsRowLabel="Suma" totalsRowDxfId="18"/>
-    <tableColumn id="2" name="Nazwa" totalsRowDxfId="17"/>
-    <tableColumn id="3" name="Opis" totalsRowDxfId="16"/>
-    <tableColumn id="4" name="Typ" totalsRowDxfId="15"/>
-    <tableColumn id="5" name="Zimozielony?" totalsRowDxfId="14"/>
-    <tableColumn id="6" name="Strefa" totalsRowFunction="count" totalsRowDxfId="13"/>
-    <tableColumn id="7" name="Liczba (sztuki)" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="8" name="Średnia cena" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="9" name="Suma" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Nr" totalsRowLabel="Suma" totalsRowDxfId="19"/>
+    <tableColumn id="2" name="Nazwa" totalsRowDxfId="18"/>
+    <tableColumn id="3" name="Opis" totalsRowDxfId="17"/>
+    <tableColumn id="4" name="Typ" totalsRowDxfId="16"/>
+    <tableColumn id="5" name="Zimozielony?" totalsRowDxfId="15"/>
+    <tableColumn id="6" name="Strefa" totalsRowFunction="count" totalsRowDxfId="14"/>
+    <tableColumn id="7" name="Liczba (sztuki)" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="8" name="Średnia cena" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="9" name="Suma" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Opinie" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="10" name="Kolumna1" totalsRowDxfId="4"/>
+    <tableColumn id="11" name="Opinie" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="10" name="Sklep" totalsRowDxfId="5"/>
+    <tableColumn id="12" name="Wielkosc " totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3743,11 +4390,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P108"/>
+  <dimension ref="A1:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3774,45 +4421,48 @@
         <v>3</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F1" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>101</v>
-      </c>
       <c r="I1" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>179</v>
+        <v>95</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>231</v>
       </c>
       <c r="P1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="25.5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="25.5" hidden="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="F2" s="8">
         <v>6</v>
@@ -3827,28 +4477,28 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>100</v>
       </c>
-      <c r="J2" s="38" t="s">
-        <v>187</v>
+      <c r="J2" s="37" t="s">
+        <v>173</v>
       </c>
       <c r="P2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="25.5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="25.5" hidden="1">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="F3" s="8">
         <v>6</v>
@@ -3863,28 +4513,28 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>70</v>
       </c>
-      <c r="J3" s="38" t="s">
-        <v>187</v>
+      <c r="J3" s="37" t="s">
+        <v>173</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="25.5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="25.5" hidden="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="F4" s="8">
         <v>6</v>
@@ -3899,28 +4549,28 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>40</v>
       </c>
-      <c r="J4" s="38" t="s">
-        <v>187</v>
+      <c r="J4" s="37" t="s">
+        <v>173</v>
       </c>
       <c r="P4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="26.25" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="26.25" hidden="1" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F5" s="8">
         <v>6</v>
@@ -3935,28 +4585,28 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>200</v>
       </c>
-      <c r="J5" s="38" t="s">
-        <v>187</v>
+      <c r="J5" s="37" t="s">
+        <v>173</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="38.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="38.25" hidden="1">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F6" s="8">
         <v>6</v>
@@ -3971,28 +4621,28 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>210</v>
       </c>
-      <c r="J6" s="38" t="s">
-        <v>187</v>
+      <c r="J6" s="37" t="s">
+        <v>173</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" hidden="1">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F7" s="8">
         <v>6</v>
@@ -4007,28 +4657,28 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>432</v>
       </c>
-      <c r="J7" s="38" t="s">
-        <v>187</v>
+      <c r="J7" s="37" t="s">
+        <v>173</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="60">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="96" hidden="1">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F8" s="8">
         <v>6</v>
@@ -4037,34 +4687,34 @@
         <v>6</v>
       </c>
       <c r="H8" s="30">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I8" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>78</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>98</v>
+        <v>180</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="38.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="38.25" hidden="1">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F9" s="8">
         <v>6</v>
@@ -4079,28 +4729,28 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>106.5</v>
       </c>
-      <c r="J9" s="38" t="s">
-        <v>187</v>
+      <c r="J9" s="37" t="s">
+        <v>173</v>
       </c>
       <c r="P9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="33.75">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="33.75" hidden="1">
       <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F10" s="8">
         <v>6</v>
@@ -4115,28 +4765,28 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>120</v>
       </c>
-      <c r="J10" s="38" t="s">
-        <v>187</v>
+      <c r="J10" s="37" t="s">
+        <v>173</v>
       </c>
       <c r="P10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="45" hidden="1">
       <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F11" s="8">
         <v>6</v>
@@ -4149,25 +4799,25 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J11" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="45">
+      <c r="J11" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="45" hidden="1">
       <c r="A12" s="5">
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F12" s="8">
         <v>7</v>
@@ -4180,8 +4830,8 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J12" s="38" t="s">
-        <v>187</v>
+      <c r="J12" s="37" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="26.25" customHeight="1">
@@ -4189,16 +4839,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F13" s="8">
         <v>1</v>
@@ -4213,8 +4863,8 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>120</v>
       </c>
-      <c r="J13" s="38" t="s">
-        <v>187</v>
+      <c r="J13" s="37" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="26.25" customHeight="1">
@@ -4222,16 +4872,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F14" s="8">
         <v>5</v>
@@ -4244,8 +4894,8 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J14" s="38" t="s">
-        <v>187</v>
+      <c r="J14" s="37" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="26.25" customHeight="1">
@@ -4253,16 +4903,16 @@
         <v>9</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F15" s="8">
         <v>2</v>
@@ -4277,8 +4927,8 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>110</v>
       </c>
-      <c r="J15" s="38" t="s">
-        <v>187</v>
+      <c r="J15" s="37" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="26.25" customHeight="1">
@@ -4286,16 +4936,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F16" s="8">
         <v>2</v>
@@ -4310,25 +4960,25 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>35</v>
       </c>
-      <c r="J16" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="24">
+      <c r="J16" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="24">
       <c r="A17" s="5">
         <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F17" s="8">
         <v>5</v>
@@ -4341,25 +4991,25 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J17" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="22.5">
+      <c r="J17" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="22.5">
       <c r="A18" s="5">
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F18" s="8">
         <v>5</v>
@@ -4367,30 +5017,38 @@
       <c r="G18" s="8">
         <v>3</v>
       </c>
-      <c r="H18" s="30"/>
+      <c r="H18" s="30">
+        <v>25</v>
+      </c>
       <c r="I18" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="33.75">
+        <v>75</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" t="s">
+        <v>230</v>
+      </c>
+      <c r="L18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="33.75">
       <c r="A19" s="5">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F19" s="8">
         <v>5</v>
@@ -4403,25 +5061,25 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J19" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="40.5" customHeight="1">
+      <c r="J19" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="40.5" hidden="1" customHeight="1">
       <c r="A20" s="5">
         <v>13</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F20" s="8">
         <v>5</v>
@@ -4434,25 +5092,25 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J20" s="38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="60">
+      <c r="J20" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="45" hidden="1">
       <c r="A21" s="5">
         <v>14</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F21" s="8">
         <v>5</v>
@@ -4460,33 +5118,32 @@
       <c r="G21" s="8">
         <v>1</v>
       </c>
-      <c r="H21" s="30"/>
+      <c r="H21" s="30">
+        <v>35</v>
+      </c>
       <c r="I21" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="K21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="36">
+        <v>35</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="36">
       <c r="A22" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F22" s="8">
         <v>5</v>
@@ -4499,25 +5156,25 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J22" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="24">
+      <c r="J22" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="24">
       <c r="A23" s="5">
         <v>15</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F23" s="8">
         <v>5</v>
@@ -4525,30 +5182,38 @@
       <c r="G23" s="8">
         <v>8</v>
       </c>
-      <c r="H23" s="30"/>
+      <c r="H23" s="30">
+        <v>35</v>
+      </c>
       <c r="I23" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="24">
+        <v>280</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="24">
       <c r="A24" s="5">
         <v>15</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F24" s="8">
         <v>2</v>
@@ -4557,31 +5222,37 @@
         <v>27</v>
       </c>
       <c r="H24" s="30">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I24" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>540</v>
-      </c>
-      <c r="J24" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="33.75">
+        <v>243</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="K24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="33.75">
       <c r="A25" s="5">
         <v>16</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F25" s="8">
         <v>5</v>
@@ -4594,25 +5265,25 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J25" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="33.75">
+      <c r="J25" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="33.75">
       <c r="A26" s="5">
         <v>16</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F26" s="8">
         <v>2</v>
@@ -4627,25 +5298,25 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>40</v>
       </c>
-      <c r="J26" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="25.5">
+      <c r="J26" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="25.5">
       <c r="A27" s="5">
         <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F27" s="8">
         <v>5</v>
@@ -4658,25 +5329,25 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J27" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="25.5">
+      <c r="J27" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="25.5">
       <c r="A28" s="5">
         <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F28" s="8">
         <v>2</v>
@@ -4691,25 +5362,25 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>40</v>
       </c>
-      <c r="J28" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="36">
+      <c r="J28" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="36">
       <c r="A29" s="5">
         <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F29" s="8">
         <v>5</v>
@@ -4722,25 +5393,25 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J29" s="38" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="36">
+      <c r="J29" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="36">
       <c r="A30" s="5">
         <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F30" s="8">
         <v>2</v>
@@ -4755,25 +5426,25 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>120</v>
       </c>
-      <c r="J30" s="38" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="56.25">
+      <c r="J30" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="56.25" hidden="1">
       <c r="A31" s="5">
         <v>19</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F31" s="8">
         <v>5</v>
@@ -4786,25 +5457,25 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J31" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="25.5">
+      <c r="J31" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="25.5">
       <c r="A32" s="5">
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F32" s="8">
         <v>5</v>
@@ -4812,30 +5483,35 @@
       <c r="G32" s="8">
         <v>1</v>
       </c>
-      <c r="H32" s="30"/>
+      <c r="H32" s="30">
+        <v>40</v>
+      </c>
       <c r="I32" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="45">
+        <v>40</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="K32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="45">
       <c r="A33" s="5">
         <v>21</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F33" s="8">
         <v>5</v>
@@ -4848,25 +5524,25 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J33" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="33.75">
+      <c r="J33" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="33.75">
       <c r="A34" s="5">
         <v>22</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F34" s="8">
         <v>5</v>
@@ -4879,25 +5555,25 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J34" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="69" customHeight="1">
+      <c r="J34" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="69" customHeight="1">
       <c r="A35" s="5">
         <v>23</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F35" s="8">
         <v>1</v>
@@ -4912,227 +5588,215 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>120</v>
       </c>
-      <c r="J35" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="38.25">
+      <c r="J35" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="67.5">
       <c r="A36" s="5">
         <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F36" s="8">
         <v>1</v>
       </c>
       <c r="G36" s="8">
-        <v>9</v>
-      </c>
-      <c r="H36" s="30">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H36" s="30"/>
       <c r="I36" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>90</v>
-      </c>
-      <c r="J36" s="38" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="38.25">
-      <c r="A37" s="5">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="J36" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="56.25">
+      <c r="A37" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>119</v>
+        <v>187</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F37" s="8">
         <v>1</v>
       </c>
       <c r="G37" s="8">
-        <v>3</v>
-      </c>
-      <c r="H37" s="30">
-        <v>15</v>
-      </c>
-      <c r="I37" s="30">
-        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>45</v>
-      </c>
-      <c r="J37" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="K37" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="25.5">
-      <c r="A38" s="5">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="H37" s="30"/>
+      <c r="I37" s="38">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="39"/>
+    </row>
+    <row r="38" spans="1:12" ht="45">
+      <c r="A38" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>10</v>
+        <v>188</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>190</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F38" s="8">
         <v>1</v>
       </c>
       <c r="G38" s="8">
+        <v>1</v>
+      </c>
+      <c r="H38" s="30"/>
+      <c r="I38" s="38">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="39"/>
+    </row>
+    <row r="39" spans="1:12" ht="51" hidden="1">
+      <c r="A39" s="5">
+        <v>25</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1</v>
+      </c>
+      <c r="G39" s="8">
         <v>3</v>
       </c>
-      <c r="H38" s="30">
-        <v>15</v>
-      </c>
-      <c r="I38" s="30">
-        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>45</v>
-      </c>
-      <c r="J38" s="38" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="25.5">
-      <c r="A39" s="5">
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="37"/>
+    </row>
+    <row r="40" spans="1:12" ht="25.5">
+      <c r="A40" s="5">
         <v>26</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="8">
-        <v>2</v>
-      </c>
-      <c r="G39" s="8">
-        <v>11</v>
-      </c>
-      <c r="H39" s="30">
-        <v>15</v>
-      </c>
-      <c r="I39" s="30">
-        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>165</v>
-      </c>
-      <c r="J39" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="22.5">
-      <c r="A40" s="5">
-        <v>27</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>45</v>
+      <c r="B40" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F40" s="8">
+        <v>2</v>
+      </c>
+      <c r="G40" s="8">
+        <v>6</v>
+      </c>
+      <c r="H40" s="30">
+        <v>15</v>
+      </c>
+      <c r="I40" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>90</v>
+      </c>
+      <c r="J40" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="144" hidden="1">
+      <c r="A41" s="5">
+        <v>27</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="8">
         <v>1</v>
       </c>
-      <c r="G40" s="8">
-        <v>17</v>
-      </c>
-      <c r="H40" s="30">
-        <v>6</v>
-      </c>
-      <c r="I40" s="30">
-        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>102</v>
-      </c>
-      <c r="J40" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="22.5">
-      <c r="A41" s="5">
-        <v>28</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="8">
-        <v>3</v>
-      </c>
       <c r="G41" s="8">
-        <v>2</v>
-      </c>
-      <c r="H41" s="30"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="30">
+        <v>39</v>
+      </c>
       <c r="I41" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="22.5">
+        <v>39</v>
+      </c>
+      <c r="J41" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="K41" t="s">
+        <v>240</v>
+      </c>
+      <c r="L41" s="60" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" hidden="1">
       <c r="A42" s="5">
         <v>28</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>17</v>
+        <v>43</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F42" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G42" s="8">
         <v>2</v>
@@ -5142,687 +5806,694 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J42" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="51">
+      <c r="J42" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="22.5" hidden="1">
       <c r="A43" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F43" s="8">
         <v>4</v>
       </c>
       <c r="G43" s="8">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H43" s="30"/>
       <c r="I43" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J43" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="33.75">
+      <c r="J43" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="51" hidden="1">
       <c r="A44" s="5">
-        <v>30</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F44" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G44" s="8">
         <v>13</v>
       </c>
-      <c r="H44" s="30">
-        <v>15</v>
-      </c>
+      <c r="H44" s="30"/>
       <c r="I44" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>195</v>
-      </c>
-      <c r="J44" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="25.5">
+        <v>0</v>
+      </c>
+      <c r="J44" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="33.75">
       <c r="A45" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>125</v>
+        <v>112</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F45" s="8">
         <v>2</v>
       </c>
       <c r="G45" s="8">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H45" s="30">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="I45" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>85</v>
-      </c>
-      <c r="J45" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="24">
+        <v>195</v>
+      </c>
+      <c r="J45" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="25.5" hidden="1">
       <c r="A46" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F46" s="8">
         <v>2</v>
       </c>
       <c r="G46" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H46" s="30">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="I46" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>150</v>
-      </c>
-      <c r="J46" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="38.25">
+        <v>85</v>
+      </c>
+      <c r="J46" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="24">
       <c r="A47" s="5">
-        <v>33</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>127</v>
+        <v>32</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F47" s="8">
         <v>2</v>
       </c>
       <c r="G47" s="8">
+        <v>10</v>
+      </c>
+      <c r="H47" s="30">
+        <v>15</v>
+      </c>
+      <c r="I47" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>150</v>
+      </c>
+      <c r="J47" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="38.25" hidden="1">
+      <c r="A48" s="5">
+        <v>33</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="8">
+        <v>1</v>
+      </c>
+      <c r="G48" s="8">
         <v>5</v>
       </c>
-      <c r="H47" s="30">
+      <c r="H48" s="30">
         <v>4</v>
       </c>
-      <c r="I47" s="30">
+      <c r="I48" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>20</v>
       </c>
-      <c r="J47" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="33.75">
-      <c r="A48" s="5">
+      <c r="J48" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="33.75" hidden="1">
+      <c r="A49" s="5">
         <v>34</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" s="8">
-        <v>2</v>
-      </c>
-      <c r="G48" s="8">
-        <v>7</v>
-      </c>
-      <c r="H48" s="30">
-        <v>12</v>
-      </c>
-      <c r="I48" s="30">
-        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>84</v>
-      </c>
-      <c r="J48" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="K48" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="38.25">
-      <c r="A49" s="5">
-        <v>35</v>
-      </c>
       <c r="B49" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" s="8">
         <v>2</v>
       </c>
       <c r="G49" s="8">
+        <v>7</v>
+      </c>
+      <c r="H49" s="30">
         <v>12</v>
       </c>
-      <c r="H49" s="30">
-        <v>20</v>
-      </c>
       <c r="I49" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>240</v>
-      </c>
-      <c r="J49" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="25.5">
+        <v>84</v>
+      </c>
+      <c r="J49" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="K49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="38.25">
       <c r="A50" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>4</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F50" s="8">
         <v>2</v>
       </c>
       <c r="G50" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H50" s="30">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="I50" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>1260</v>
-      </c>
-      <c r="J50" s="38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="33.75">
+        <v>240</v>
+      </c>
+      <c r="J50" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="25.5" hidden="1">
       <c r="A51" s="5">
-        <v>37</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>131</v>
+        <v>36</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F51" s="8">
         <v>2</v>
       </c>
       <c r="G51" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H51" s="30">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="I51" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>25</v>
-      </c>
-      <c r="J51" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="K51" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="48">
+        <v>1260</v>
+      </c>
+      <c r="J51" s="37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="33.75" hidden="1">
       <c r="A52" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F52" s="8">
         <v>2</v>
       </c>
       <c r="G52" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H52" s="30">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I52" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>32</v>
-      </c>
-      <c r="J52" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="38.25">
+        <v>35</v>
+      </c>
+      <c r="J52" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="48" hidden="1">
       <c r="A53" s="5">
-        <v>39</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F53" s="8">
         <v>2</v>
       </c>
       <c r="G53" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H53" s="30">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I53" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>180</v>
-      </c>
-      <c r="J53" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="38.25">
+        <v>32</v>
+      </c>
+      <c r="J53" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="38.25">
       <c r="A54" s="5">
         <v>39</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F54" s="8">
+        <v>2</v>
+      </c>
+      <c r="G54" s="8">
+        <v>6</v>
+      </c>
+      <c r="H54" s="30">
+        <v>30</v>
+      </c>
+      <c r="I54" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>180</v>
+      </c>
+      <c r="J54" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="38.25" hidden="1">
+      <c r="A55" s="5">
+        <v>39</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="8">
         <v>7</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G55" s="8">
         <v>3</v>
       </c>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30">
+      <c r="H55" s="30"/>
+      <c r="I55" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J54" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="24.75">
-      <c r="A55" s="5">
+      <c r="J55" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="24.75">
+      <c r="A56" s="5">
         <v>40</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="6" t="s">
+      <c r="B56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F55" s="8">
-        <v>2</v>
-      </c>
-      <c r="G55" s="8">
-        <v>5</v>
-      </c>
-      <c r="H55" s="30">
-        <v>150</v>
-      </c>
-      <c r="I55" s="30">
-        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>750</v>
-      </c>
-      <c r="J55" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="51">
-      <c r="A56" s="5">
-        <v>41</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="D56" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="F56" s="8">
         <v>2</v>
       </c>
       <c r="G56" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H56" s="30">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="I56" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>60</v>
-      </c>
-      <c r="J56" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>750</v>
+      </c>
+      <c r="J56" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="51" hidden="1">
       <c r="A57" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F57" s="8">
         <v>2</v>
       </c>
       <c r="G57" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H57" s="30">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="I57" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>240</v>
-      </c>
-      <c r="J57" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="56.25">
+        <v>68</v>
+      </c>
+      <c r="J57" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="K57" t="s">
+        <v>244</v>
+      </c>
+      <c r="L57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="5">
-        <v>43</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>137</v>
+        <v>42</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F58" s="8">
         <v>2</v>
       </c>
       <c r="G58" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H58" s="30">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I58" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>30</v>
-      </c>
-      <c r="J58" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="22.5">
+        <v>240</v>
+      </c>
+      <c r="J58" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="56.25" hidden="1">
       <c r="A59" s="5">
-        <v>44</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F59" s="8">
         <v>2</v>
       </c>
       <c r="G59" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H59" s="30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I59" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>35</v>
-      </c>
-      <c r="J59" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="22.5">
+        <v>30</v>
+      </c>
+      <c r="J59" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="22.5" hidden="1">
       <c r="A60" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>10</v>
+        <v>72</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F60" s="8">
         <v>2</v>
       </c>
       <c r="G60" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H60" s="30">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="I60" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>300</v>
-      </c>
-      <c r="J60" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="36">
+        <v>35</v>
+      </c>
+      <c r="J60" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="22.5">
       <c r="A61" s="5">
-        <v>46</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F61" s="8">
         <v>2</v>
       </c>
       <c r="G61" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H61" s="30">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I61" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>560</v>
-      </c>
-      <c r="J61" s="38" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="45">
+        <v>300</v>
+      </c>
+      <c r="J61" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="24" hidden="1">
       <c r="A62" s="5">
-        <v>47</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F62" s="8">
         <v>2</v>
       </c>
       <c r="G62" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H62" s="30">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I62" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>100</v>
-      </c>
-      <c r="J62" s="38" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="36">
+        <v>595</v>
+      </c>
+      <c r="J62" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="K62" t="s">
+        <v>238</v>
+      </c>
+      <c r="L62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="45" hidden="1">
       <c r="A63" s="5">
+        <v>47</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="C63" s="6" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F63" s="8">
         <v>2</v>
@@ -5831,131 +6502,134 @@
         <v>5</v>
       </c>
       <c r="H63" s="30">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="I63" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>350</v>
-      </c>
-      <c r="J63" s="38" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="36" customHeight="1">
+        <v>145</v>
+      </c>
+      <c r="J63" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="K63" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="22.5">
       <c r="A64" s="5">
-        <v>49</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F64" s="8">
         <v>2</v>
       </c>
       <c r="G64" s="8">
-        <v>7</v>
-      </c>
-      <c r="H64" s="30">
-        <v>13</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H64" s="30"/>
       <c r="I64" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="36" hidden="1" customHeight="1">
+      <c r="A65" s="5">
+        <v>49</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="J64" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="K64" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="51">
-      <c r="A65" s="5">
-        <v>50</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="F65" s="8">
         <v>2</v>
       </c>
       <c r="G65" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H65" s="30">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I65" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>63</v>
-      </c>
-      <c r="J65" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="56.25">
-      <c r="A66" s="12">
-        <v>51</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>22</v>
+        <v>91</v>
+      </c>
+      <c r="J65" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="K65" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="51" hidden="1">
+      <c r="A66" s="5">
+        <v>50</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F66" s="8">
         <v>2</v>
       </c>
       <c r="G66" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H66" s="30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I66" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>1</v>
-      </c>
-      <c r="J66" s="38"/>
-    </row>
-    <row r="67" spans="1:11" ht="56.25">
+        <v>63</v>
+      </c>
+      <c r="J66" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="56.25" hidden="1">
       <c r="A67" s="12">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F67" s="8">
         <v>2</v>
@@ -5970,23 +6644,23 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>1</v>
       </c>
-      <c r="J67" s="38"/>
-    </row>
-    <row r="68" spans="1:11" ht="56.25">
+      <c r="J67" s="37"/>
+    </row>
+    <row r="68" spans="1:12" ht="56.25" hidden="1">
       <c r="A68" s="12">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F68" s="8">
         <v>2</v>
@@ -5995,29 +6669,29 @@
         <v>1</v>
       </c>
       <c r="H68" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>2</v>
-      </c>
-      <c r="J68" s="38"/>
-    </row>
-    <row r="69" spans="1:11" ht="90">
+        <v>1</v>
+      </c>
+      <c r="J68" s="37"/>
+    </row>
+    <row r="69" spans="1:12" ht="56.25" hidden="1">
       <c r="A69" s="12">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>143</v>
+        <v>23</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F69" s="8">
         <v>2</v>
@@ -6026,568 +6700,580 @@
         <v>1</v>
       </c>
       <c r="H69" s="30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I69" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>7</v>
-      </c>
-      <c r="J69" s="38"/>
-    </row>
-    <row r="70" spans="1:11" ht="90">
+        <v>2</v>
+      </c>
+      <c r="J69" s="37"/>
+    </row>
+    <row r="70" spans="1:12" ht="90" hidden="1">
       <c r="A70" s="12">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F70" s="8">
         <v>2</v>
       </c>
       <c r="G70" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" s="30">
         <v>7</v>
       </c>
       <c r="I70" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>14</v>
-      </c>
-      <c r="J70" s="38"/>
-    </row>
-    <row r="71" spans="1:11" ht="60">
-      <c r="A71" s="5">
-        <v>56</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>146</v>
+        <v>7</v>
+      </c>
+      <c r="J70" s="37"/>
+    </row>
+    <row r="71" spans="1:12" ht="90" hidden="1">
+      <c r="A71" s="12">
+        <v>55</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F71" s="8">
         <v>2</v>
       </c>
       <c r="G71" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H71" s="30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I71" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>30</v>
-      </c>
-      <c r="J71" s="38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="22.5">
+        <v>14</v>
+      </c>
+      <c r="J71" s="37"/>
+    </row>
+    <row r="72" spans="1:12" ht="84" hidden="1">
       <c r="A72" s="5">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>147</v>
+        <v>197</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F72" s="8">
         <v>2</v>
       </c>
       <c r="G72" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H72" s="30">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I72" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>20</v>
-      </c>
-      <c r="J72" s="38" t="s">
-        <v>98</v>
+        <v>75</v>
+      </c>
+      <c r="J72" s="37" t="s">
+        <v>173</v>
       </c>
       <c r="K72" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="38.25">
+        <v>246</v>
+      </c>
+      <c r="L72" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="22.5" hidden="1">
       <c r="A73" s="5">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F73" s="8">
         <v>2</v>
       </c>
       <c r="G73" s="8">
-        <v>5</v>
-      </c>
-      <c r="H73" s="30">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H73" s="30"/>
       <c r="I73" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>75</v>
-      </c>
-      <c r="J73" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="33.75">
+        <v>0</v>
+      </c>
+      <c r="J73" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="38.25">
       <c r="A74" s="5">
-        <v>59</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F74" s="8">
         <v>2</v>
       </c>
       <c r="G74" s="8">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H74" s="30">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I74" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>48</v>
-      </c>
-      <c r="J74" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="22.5" customHeight="1">
+        <v>75</v>
+      </c>
+      <c r="J74" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="33.75" hidden="1">
       <c r="A75" s="5">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F75" s="8">
         <v>2</v>
       </c>
       <c r="G75" s="8">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H75" s="30">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="I75" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>180</v>
-      </c>
-      <c r="J75" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="36">
+        <v>48</v>
+      </c>
+      <c r="J75" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="22.5" hidden="1" customHeight="1">
       <c r="A76" s="5">
-        <v>61</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F76" s="8">
         <v>2</v>
       </c>
       <c r="G76" s="8">
+        <v>2</v>
+      </c>
+      <c r="H76" s="30">
+        <v>90</v>
+      </c>
+      <c r="I76" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>180</v>
+      </c>
+      <c r="J76" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="K76" t="s">
+        <v>242</v>
+      </c>
+      <c r="L76" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="36" hidden="1">
+      <c r="A77" s="5">
+        <v>61</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="8">
+        <v>2</v>
+      </c>
+      <c r="G77" s="8">
         <v>3</v>
       </c>
-      <c r="H76" s="30">
+      <c r="H77" s="30">
         <v>15</v>
       </c>
-      <c r="I76" s="30">
+      <c r="I77" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>45</v>
       </c>
-      <c r="J76" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="33.75">
-      <c r="A77" s="5">
+      <c r="J77" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="33.75" hidden="1">
+      <c r="A78" s="5">
         <v>62</v>
       </c>
-      <c r="B77" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F77" s="8">
-        <v>7</v>
-      </c>
-      <c r="G77" s="8">
-        <v>1</v>
-      </c>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30">
-        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="45">
-      <c r="A78" s="5">
-        <v>63</v>
-      </c>
       <c r="B78" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>152</v>
+        <v>51</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F78" s="8">
         <v>7</v>
       </c>
       <c r="G78" s="8">
+        <v>1</v>
+      </c>
+      <c r="H78" s="30">
+        <v>16</v>
+      </c>
+      <c r="I78" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>16</v>
+      </c>
+      <c r="J78" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="K78" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="45" hidden="1">
+      <c r="A79" s="5">
+        <v>63</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="8">
+        <v>7</v>
+      </c>
+      <c r="G79" s="8">
         <v>11</v>
-      </c>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30">
-        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="33.75">
-      <c r="A79" s="5">
-        <v>64</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F79" s="8">
-        <v>3</v>
-      </c>
-      <c r="G79" s="8">
-        <v>4</v>
       </c>
       <c r="H79" s="30"/>
       <c r="I79" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J79" s="38"/>
-      <c r="K79" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="25.5" customHeight="1">
+      <c r="J79" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="33.75" hidden="1">
       <c r="A80" s="5">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>28</v>
+        <v>141</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F80" s="8">
         <v>3</v>
       </c>
       <c r="G80" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H80" s="30"/>
       <c r="I80" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J80" s="38"/>
-    </row>
-    <row r="81" spans="1:10" ht="33.75">
+      <c r="J80" s="37"/>
+      <c r="K80" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="25.5" hidden="1" customHeight="1">
       <c r="A81" s="5">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>30</v>
+        <v>143</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F81" s="8">
         <v>3</v>
       </c>
       <c r="G81" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H81" s="30"/>
       <c r="I81" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J81" s="38"/>
-    </row>
-    <row r="82" spans="1:10" ht="56.25">
+      <c r="J81" s="37"/>
+    </row>
+    <row r="82" spans="1:10" ht="33.75" hidden="1">
       <c r="A82" s="5">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F82" s="8">
         <v>3</v>
       </c>
       <c r="G82" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H82" s="30"/>
       <c r="I82" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J82" s="38"/>
-    </row>
-    <row r="83" spans="1:10" ht="45">
+      <c r="J82" s="37"/>
+    </row>
+    <row r="83" spans="1:10" ht="56.25" hidden="1">
       <c r="A83" s="5">
-        <v>68</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>157</v>
+        <v>67</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F83" s="8">
         <v>3</v>
       </c>
       <c r="G83" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H83" s="30"/>
       <c r="I83" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J83" s="38" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="45">
+      <c r="J83" s="37"/>
+    </row>
+    <row r="84" spans="1:10" ht="45" hidden="1">
       <c r="A84" s="5">
-        <v>69</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>158</v>
+        <v>68</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F84" s="8">
         <v>3</v>
       </c>
       <c r="G84" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H84" s="30"/>
       <c r="I84" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J84" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="33.75">
+      <c r="J84" s="37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="45" hidden="1">
       <c r="A85" s="5">
+        <v>69</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="8">
+        <v>3</v>
+      </c>
+      <c r="G85" s="8">
+        <v>1</v>
+      </c>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="33.75" hidden="1">
+      <c r="A86" s="5">
         <v>70</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F85" s="8">
+      <c r="B86" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" s="8">
         <v>2</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G86" s="8">
         <v>5</v>
       </c>
-      <c r="H85" s="30">
+      <c r="H86" s="30">
         <v>10</v>
       </c>
-      <c r="I85" s="30">
+      <c r="I86" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>50</v>
       </c>
-      <c r="J85" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="45">
-      <c r="A86" s="5">
+      <c r="J86" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="45" hidden="1">
+      <c r="A87" s="5">
         <v>71</v>
       </c>
-      <c r="B86" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F86" s="8">
-        <v>3</v>
-      </c>
-      <c r="G86" s="8">
-        <v>3</v>
-      </c>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30">
-        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>0</v>
-      </c>
-      <c r="J86" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="22.5">
-      <c r="A87" s="5">
-        <v>72</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="E87" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F87" s="8">
         <v>3</v>
@@ -6600,511 +7286,970 @@
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J87" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="45">
+      <c r="J87" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="22.5" hidden="1">
       <c r="A88" s="5">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F88" s="8">
         <v>3</v>
       </c>
       <c r="G88" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H88" s="30"/>
       <c r="I88" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J88" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="25.5">
+      <c r="J88" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="45" hidden="1">
       <c r="A89" s="5">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F89" s="8">
         <v>3</v>
       </c>
       <c r="G89" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H89" s="30"/>
       <c r="I89" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J89" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="36" customHeight="1">
+      <c r="J89" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="25.5" hidden="1">
       <c r="A90" s="5">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>10</v>
+        <v>54</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F90" s="8">
         <v>3</v>
       </c>
       <c r="G90" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90" s="30"/>
       <c r="I90" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J90" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="67.5">
+      <c r="J90" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="36" hidden="1" customHeight="1">
       <c r="A91" s="5">
-        <v>76</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>165</v>
+        <v>75</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F91" s="8">
         <v>3</v>
       </c>
       <c r="G91" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H91" s="30"/>
       <c r="I91" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J91" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="33.75">
+      <c r="J91" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="67.5" hidden="1">
       <c r="A92" s="5">
-        <v>77</v>
-      </c>
-      <c r="B92" s="22" t="s">
-        <v>64</v>
+        <v>76</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F92" s="8">
         <v>3</v>
       </c>
       <c r="G92" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H92" s="30"/>
       <c r="I92" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J92" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="67.5">
+      <c r="J92" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="33.75" hidden="1">
       <c r="A93" s="5">
+        <v>77</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F93" s="8">
+        <v>3</v>
+      </c>
+      <c r="G93" s="8">
+        <v>7</v>
+      </c>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="67.5" hidden="1">
+      <c r="A94" s="5">
         <v>78</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F93" s="8">
-        <v>2</v>
-      </c>
-      <c r="G93" s="8">
-        <v>9</v>
-      </c>
-      <c r="H93" s="30">
-        <v>4</v>
-      </c>
-      <c r="I93" s="30">
-        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>36</v>
-      </c>
-      <c r="J93" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="45">
-      <c r="A94" s="5">
-        <v>79</v>
-      </c>
-      <c r="B94" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>167</v>
+      <c r="B94" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F94" s="8">
         <v>2</v>
       </c>
       <c r="G94" s="8">
+        <v>9</v>
+      </c>
+      <c r="H94" s="30">
         <v>4</v>
       </c>
-      <c r="H94" s="30">
+      <c r="I94" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>36</v>
+      </c>
+      <c r="J94" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="45" hidden="1">
+      <c r="A95" s="5">
+        <v>79</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F95" s="8">
+        <v>2</v>
+      </c>
+      <c r="G95" s="8">
+        <v>4</v>
+      </c>
+      <c r="H95" s="30">
         <v>10</v>
       </c>
-      <c r="I94" s="30">
+      <c r="I95" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>40</v>
       </c>
-      <c r="J94" s="38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="45">
-      <c r="A95" s="5"/>
-      <c r="B95" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F95" s="8">
-        <v>7</v>
-      </c>
-      <c r="G95" s="8">
-        <v>18</v>
-      </c>
-      <c r="H95" s="30"/>
-      <c r="I95" s="30">
+      <c r="J95" s="37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1">
+      <c r="A96" s="5">
+        <v>80</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F96" s="8">
+        <v>3</v>
+      </c>
+      <c r="G96" s="8">
+        <v>5</v>
+      </c>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J95" s="38"/>
-    </row>
-    <row r="96" spans="1:10" ht="45">
-      <c r="A96" s="5"/>
-      <c r="B96" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F96" s="8">
-        <v>2</v>
-      </c>
-      <c r="G96" s="8">
-        <v>35</v>
-      </c>
-      <c r="H96" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="I96" s="30">
-        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>17.5</v>
-      </c>
-      <c r="J96" s="38"/>
-    </row>
-    <row r="97" spans="1:11" ht="45">
-      <c r="A97" s="5"/>
-      <c r="B97" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>169</v>
+      <c r="J96" s="37"/>
+    </row>
+    <row r="97" spans="1:12" ht="34.5" hidden="1" thickBot="1">
+      <c r="A97" s="5">
+        <v>81</v>
+      </c>
+      <c r="B97" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" s="52" t="s">
+        <v>207</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F97" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G97" s="8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H97" s="30"/>
       <c r="I97" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J97" s="38"/>
-    </row>
-    <row r="98" spans="1:11" ht="45">
-      <c r="A98" s="5"/>
-      <c r="B98" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>170</v>
+      <c r="J97" s="37"/>
+    </row>
+    <row r="98" spans="1:12" ht="34.5" hidden="1" thickBot="1">
+      <c r="A98" s="5">
+        <v>82</v>
+      </c>
+      <c r="B98" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" s="52" t="s">
+        <v>208</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F98" s="8">
+        <v>1</v>
+      </c>
+      <c r="G98" s="8">
+        <v>1</v>
+      </c>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="37"/>
+    </row>
+    <row r="99" spans="1:12" ht="57" hidden="1" thickBot="1">
+      <c r="A99" s="5">
+        <v>83</v>
+      </c>
+      <c r="B99" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F99" s="8">
+        <v>1</v>
+      </c>
+      <c r="G99" s="8">
+        <v>1</v>
+      </c>
+      <c r="H99" s="30">
+        <v>35</v>
+      </c>
+      <c r="I99" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>35</v>
+      </c>
+      <c r="J99" s="37"/>
+      <c r="K99" t="s">
+        <v>233</v>
+      </c>
+      <c r="L99" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="26.25" hidden="1" thickBot="1">
+      <c r="A100" s="5">
+        <v>84</v>
+      </c>
+      <c r="B100" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100" s="8">
+        <v>1</v>
+      </c>
+      <c r="G100" s="8">
+        <v>1</v>
+      </c>
+      <c r="H100" s="30">
+        <v>200</v>
+      </c>
+      <c r="I100" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>200</v>
+      </c>
+      <c r="J100" s="37"/>
+      <c r="K100" t="s">
+        <v>236</v>
+      </c>
+      <c r="L100" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="57" hidden="1" thickBot="1">
+      <c r="A101" s="5">
+        <v>85</v>
+      </c>
+      <c r="B101" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="C101" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F101" s="8">
+        <v>1</v>
+      </c>
+      <c r="G101" s="8">
+        <v>7</v>
+      </c>
+      <c r="H101" s="30">
+        <v>12</v>
+      </c>
+      <c r="I101" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>84</v>
+      </c>
+      <c r="J101" s="37"/>
+      <c r="K101" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="16.5" hidden="1" customHeight="1" thickBot="1">
+      <c r="A102" s="5">
+        <v>86</v>
+      </c>
+      <c r="B102" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C102" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F102" s="8">
+        <v>1</v>
+      </c>
+      <c r="G102" s="8">
+        <v>6</v>
+      </c>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="37"/>
+    </row>
+    <row r="103" spans="1:12" ht="34.5" hidden="1" thickBot="1">
+      <c r="A103" s="5">
+        <v>87</v>
+      </c>
+      <c r="B103" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C103" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F103" s="8">
+        <v>1</v>
+      </c>
+      <c r="G103" s="8">
+        <v>4</v>
+      </c>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>0</v>
+      </c>
+      <c r="J103" s="37"/>
+    </row>
+    <row r="104" spans="1:12" ht="45.75" hidden="1" thickBot="1">
+      <c r="A104" s="5">
+        <v>88</v>
+      </c>
+      <c r="B104" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="C104" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F104" s="8">
+        <v>1</v>
+      </c>
+      <c r="G104" s="8">
+        <v>14</v>
+      </c>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>0</v>
+      </c>
+      <c r="J104" s="37"/>
+    </row>
+    <row r="105" spans="1:12" ht="57" hidden="1" thickBot="1">
+      <c r="A105" s="5">
+        <v>89</v>
+      </c>
+      <c r="B105" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="C105" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F105" s="8">
+        <v>1</v>
+      </c>
+      <c r="G105" s="8">
+        <v>3</v>
+      </c>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>0</v>
+      </c>
+      <c r="J105" s="37"/>
+    </row>
+    <row r="106" spans="1:12" ht="16.5" hidden="1" customHeight="1" thickBot="1">
+      <c r="A106" s="5">
+        <v>90</v>
+      </c>
+      <c r="B106" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="C106" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F106" s="8">
+        <v>1</v>
+      </c>
+      <c r="G106" s="8">
+        <v>7</v>
+      </c>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>0</v>
+      </c>
+      <c r="J106" s="37"/>
+    </row>
+    <row r="107" spans="1:12" ht="45.75" hidden="1" thickBot="1">
+      <c r="A107" s="5">
+        <v>91</v>
+      </c>
+      <c r="B107" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="8">
+        <v>1</v>
+      </c>
+      <c r="G107" s="8">
+        <v>3</v>
+      </c>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>0</v>
+      </c>
+      <c r="J107" s="37"/>
+    </row>
+    <row r="108" spans="1:12" ht="76.5" hidden="1">
+      <c r="A108" s="5">
+        <v>92</v>
+      </c>
+      <c r="B108" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F108" s="8">
         <v>2</v>
       </c>
-      <c r="G98" s="8">
+      <c r="G108" s="8">
+        <v>5</v>
+      </c>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>0</v>
+      </c>
+      <c r="J108" s="37"/>
+    </row>
+    <row r="109" spans="1:12" ht="78.75" hidden="1">
+      <c r="A109" s="5">
+        <v>93</v>
+      </c>
+      <c r="B109" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F109" s="8">
+        <v>2</v>
+      </c>
+      <c r="G109" s="8">
+        <v>3</v>
+      </c>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>0</v>
+      </c>
+      <c r="J109" s="37"/>
+    </row>
+    <row r="110" spans="1:12" ht="45.75" hidden="1" thickBot="1">
+      <c r="A110" s="5"/>
+      <c r="B110" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F110" s="8">
+        <v>7</v>
+      </c>
+      <c r="G110" s="8">
+        <v>18</v>
+      </c>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>0</v>
+      </c>
+      <c r="J110" s="37"/>
+    </row>
+    <row r="111" spans="1:12" ht="45.75" hidden="1" thickBot="1">
+      <c r="A111" s="5"/>
+      <c r="B111" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F111" s="8">
+        <v>2</v>
+      </c>
+      <c r="G111" s="8">
+        <v>35</v>
+      </c>
+      <c r="H111" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="I111" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>17.5</v>
+      </c>
+      <c r="J111" s="37"/>
+    </row>
+    <row r="112" spans="1:12" ht="45" hidden="1">
+      <c r="A112" s="5"/>
+      <c r="B112" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F112" s="8">
+        <v>6</v>
+      </c>
+      <c r="G112" s="8">
         <v>15</v>
       </c>
-      <c r="H98" s="30">
+      <c r="H112" s="30"/>
+      <c r="I112" s="30">
+        <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="37"/>
+    </row>
+    <row r="113" spans="1:12" ht="45" hidden="1">
+      <c r="A113" s="5"/>
+      <c r="B113" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F113" s="8">
         <v>2</v>
       </c>
-      <c r="I98" s="30">
+      <c r="G113" s="8">
+        <v>15</v>
+      </c>
+      <c r="H113" s="30">
+        <v>2</v>
+      </c>
+      <c r="I113" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>30</v>
       </c>
-      <c r="J98" s="38"/>
-    </row>
-    <row r="99" spans="1:11" ht="33.75">
-      <c r="A99" s="5"/>
-      <c r="B99" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F99" s="8">
+      <c r="J113" s="37"/>
+    </row>
+    <row r="114" spans="1:12" ht="33.75" hidden="1">
+      <c r="A114" s="5"/>
+      <c r="B114" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F114" s="8">
         <v>5</v>
       </c>
-      <c r="G99" s="8">
+      <c r="G114" s="8">
         <v>45</v>
       </c>
-      <c r="H99" s="30"/>
-      <c r="I99" s="30">
+      <c r="H114" s="30"/>
+      <c r="I114" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>0</v>
       </c>
-      <c r="J99" s="38"/>
-    </row>
-    <row r="100" spans="1:11" ht="42.75" customHeight="1">
-      <c r="A100" s="5"/>
-      <c r="B100" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F100" s="8">
+      <c r="J114" s="37"/>
+    </row>
+    <row r="115" spans="1:12" ht="42.75" hidden="1" customHeight="1">
+      <c r="A115" s="5"/>
+      <c r="B115" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F115" s="8">
         <v>2</v>
       </c>
-      <c r="G100" s="8">
+      <c r="G115" s="8">
         <v>27</v>
       </c>
-      <c r="H100" s="30">
+      <c r="H115" s="30">
         <v>0.5</v>
       </c>
-      <c r="I100" s="30">
+      <c r="I115" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>13.5</v>
       </c>
-      <c r="J100" s="38"/>
-    </row>
-    <row r="101" spans="1:11" ht="33.75">
-      <c r="A101" s="5"/>
-      <c r="B101" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F101" s="8">
+      <c r="J115" s="37"/>
+    </row>
+    <row r="116" spans="1:12" ht="33.75" hidden="1">
+      <c r="A116" s="5"/>
+      <c r="B116" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F116" s="8">
         <v>2</v>
       </c>
-      <c r="G101" s="8">
+      <c r="G116" s="8">
         <v>39</v>
       </c>
-      <c r="H101" s="30">
+      <c r="H116" s="30">
         <v>1.5</v>
       </c>
-      <c r="I101" s="30">
+      <c r="I116" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>58.5</v>
       </c>
-      <c r="J101" s="38"/>
-    </row>
-    <row r="102" spans="1:11" ht="33.75">
-      <c r="A102" s="28"/>
-      <c r="B102" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C102" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F102" s="8">
+      <c r="J116" s="37"/>
+    </row>
+    <row r="117" spans="1:12" ht="33.75" hidden="1">
+      <c r="A117" s="28"/>
+      <c r="B117" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F117" s="8">
         <v>2</v>
       </c>
-      <c r="G102" s="8">
+      <c r="G117" s="8">
         <v>21</v>
       </c>
-      <c r="H102" s="30">
+      <c r="H117" s="30">
         <v>2.5</v>
       </c>
-      <c r="I102" s="30">
+      <c r="I117" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
         <v>52.5</v>
       </c>
-      <c r="J102" s="38"/>
-    </row>
-    <row r="103" spans="1:11" ht="15.75">
-      <c r="A103" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" s="41"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="43"/>
-      <c r="F103" s="39">
+      <c r="J117" s="37"/>
+    </row>
+    <row r="118" spans="1:12" ht="15.75">
+      <c r="A118" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B118" s="43"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="45"/>
+      <c r="E118" s="45"/>
+      <c r="F118" s="46">
         <f>SUBTOTAL(103,[Strefa])</f>
-        <v>101</v>
-      </c>
-      <c r="G103" s="39">
+        <v>33</v>
+      </c>
+      <c r="G118" s="46">
         <f>SUBTOTAL(109,[Liczba (sztuki)])</f>
-        <v>793</v>
-      </c>
-      <c r="H103" s="44">
+        <v>238</v>
+      </c>
+      <c r="H118" s="47">
         <f>SUBTOTAL(101,[Średnia cena])</f>
-        <v>26.904838709677417</v>
-      </c>
-      <c r="I103" s="39">
+        <v>30.2</v>
+      </c>
+      <c r="I118" s="46">
         <f>SUBTOTAL(109,[Suma])</f>
-        <v>8499.5</v>
-      </c>
-      <c r="J103" s="39"/>
-      <c r="K103" s="45"/>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="F104" t="s">
-        <v>176</v>
-      </c>
-      <c r="G104" t="s">
-        <v>102</v>
-      </c>
-      <c r="H104" t="s">
-        <v>177</v>
-      </c>
-      <c r="I104" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="J107" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="J108" t="s">
-        <v>206</v>
+        <v>3443</v>
+      </c>
+      <c r="J118" s="46"/>
+      <c r="K118" s="48"/>
+      <c r="L118" s="48"/>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="F119" t="s">
+        <v>163</v>
+      </c>
+      <c r="G119" t="s">
+        <v>95</v>
+      </c>
+      <c r="H119" t="s">
+        <v>164</v>
+      </c>
+      <c r="I119" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="J122" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="J123" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D40 D43:D102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D41 D44:D117">
       <formula1>Typ.Rośliny</formula1>
     </dataValidation>
   </dataValidations>
@@ -7140,8 +8285,8 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
-      <c r="B3" s="33" t="s">
-        <v>94</v>
+      <c r="B3" s="32" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7152,195 +8297,1154 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="34">
+        <v>56</v>
+      </c>
+      <c r="E6" s="34">
+        <v>431</v>
+      </c>
+      <c r="F6" s="34">
+        <v>56</v>
+      </c>
+      <c r="G6" s="34">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="34">
+        <v>137</v>
+      </c>
+      <c r="E7" s="34">
+        <v>172</v>
+      </c>
+      <c r="F7" s="34">
+        <v>137</v>
+      </c>
+      <c r="G7" s="34">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="34">
+        <v>24</v>
+      </c>
+      <c r="E8" s="34">
+        <v>1470</v>
+      </c>
+      <c r="F8" s="34">
+        <v>24</v>
+      </c>
+      <c r="G8" s="34">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="34">
+        <v>24</v>
+      </c>
+      <c r="C9" s="35">
+        <v>255</v>
+      </c>
+      <c r="D9" s="34">
+        <v>76</v>
+      </c>
+      <c r="E9" s="34">
+        <v>2750</v>
+      </c>
+      <c r="F9" s="34">
+        <v>100</v>
+      </c>
+      <c r="G9" s="34">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="34">
+        <v>11</v>
+      </c>
+      <c r="E10" s="34">
+        <v>235</v>
+      </c>
+      <c r="F10" s="34">
+        <v>11</v>
+      </c>
+      <c r="G10" s="34">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="34">
+        <v>8</v>
+      </c>
+      <c r="C11" s="35">
+        <v>120</v>
+      </c>
+      <c r="D11" s="34">
+        <v>70</v>
+      </c>
+      <c r="E11" s="34">
+        <v>1483</v>
+      </c>
+      <c r="F11" s="34">
+        <v>78</v>
+      </c>
+      <c r="G11" s="34">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="34">
+        <v>20</v>
+      </c>
+      <c r="C12" s="35">
+        <v>147</v>
+      </c>
+      <c r="D12" s="34">
+        <v>8</v>
+      </c>
+      <c r="E12" s="34">
+        <v>80</v>
+      </c>
+      <c r="F12" s="34">
+        <v>28</v>
+      </c>
+      <c r="G12" s="34">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="31">
+        <v>52</v>
+      </c>
+      <c r="C13" s="31">
+        <v>522</v>
+      </c>
+      <c r="D13" s="31">
+        <v>382</v>
+      </c>
+      <c r="E13" s="31">
+        <v>6621</v>
+      </c>
+      <c r="F13" s="31">
+        <v>434</v>
+      </c>
+      <c r="G13" s="31">
+        <v>7143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2">
+        <f>55*1.08</f>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="61">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3">
+        <f>55*1.08</f>
+        <v>59.400000000000006</v>
+      </c>
+      <c r="E3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="61">
+        <v>6</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4">
+        <f>15*1.08</f>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="E4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="61">
+        <v>3</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5">
+        <f>15*1.08</f>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="E5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6">
+        <f>15*1.08</f>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="E6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" t="s">
+        <v>295</v>
+      </c>
+      <c r="H9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="33" customHeight="1">
+      <c r="A10" s="65">
+        <v>9</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="61">
+        <v>22</v>
+      </c>
+      <c r="E10" s="67">
+        <v>10</v>
+      </c>
+      <c r="F10" s="67">
+        <v>120</v>
+      </c>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+    </row>
+    <row r="11" spans="1:8" ht="33" customHeight="1">
+      <c r="A11" s="65"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61">
+        <v>22</v>
+      </c>
+      <c r="E11" s="67">
+        <v>40</v>
+      </c>
+      <c r="F11" s="67">
+        <f t="shared" ref="F11:F36" si="0">E11*D11</f>
+        <v>880</v>
+      </c>
+      <c r="G11" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="70" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="33" customHeight="1">
+      <c r="A12" s="65"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61">
+        <v>22</v>
+      </c>
+      <c r="E12" s="67">
+        <v>18</v>
+      </c>
+      <c r="F12" s="67">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+      <c r="G12" t="s">
+        <v>268</v>
+      </c>
+      <c r="H12" s="70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="33" customHeight="1">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D13" s="8">
+        <v>10</v>
+      </c>
+      <c r="E13" s="30">
+        <v>31</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="G13" t="s">
+        <v>291</v>
+      </c>
+      <c r="H13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="33" customHeight="1">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="8">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8">
+        <v>3</v>
+      </c>
+      <c r="E14" s="30">
+        <v>25</v>
+      </c>
+      <c r="F14" s="30">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G14" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="33" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8">
+        <v>3</v>
+      </c>
+      <c r="E15" s="30">
+        <v>10</v>
+      </c>
+      <c r="F15" s="30">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G15" s="69" t="s">
+        <v>279</v>
+      </c>
+      <c r="H15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="33" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8">
+        <v>3</v>
+      </c>
+      <c r="E16" s="30">
+        <v>26</v>
+      </c>
+      <c r="F16" s="30">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="G16" s="69" t="s">
+        <v>281</v>
+      </c>
+      <c r="H16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="33" customHeight="1">
+      <c r="A17" s="65">
+        <v>15</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="61">
+        <v>2.5</v>
+      </c>
+      <c r="D17" s="61">
+        <f>46-17</f>
+        <v>29</v>
+      </c>
+      <c r="E17" s="67">
+        <v>9</v>
+      </c>
+      <c r="F17" s="67">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+      <c r="G17" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="33" customHeight="1">
+      <c r="A18" s="65"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61">
+        <v>29</v>
+      </c>
+      <c r="E18" s="67">
+        <v>10</v>
+      </c>
+      <c r="F18" s="67">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="G18" t="s">
+        <v>285</v>
+      </c>
+      <c r="H18" s="70" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="33" customHeight="1">
+      <c r="A19" s="65"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61">
+        <v>29</v>
+      </c>
+      <c r="E19" s="67">
+        <v>3.75</v>
+      </c>
+      <c r="F19" s="67">
+        <f t="shared" si="0"/>
+        <v>108.75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H19" s="70" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="33" customHeight="1">
+      <c r="A20" s="65"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61">
+        <f>46-17</f>
+        <v>29</v>
+      </c>
+      <c r="E20" s="67">
+        <v>3.5</v>
+      </c>
+      <c r="F20" s="67">
+        <f t="shared" si="0"/>
+        <v>101.5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>259</v>
+      </c>
+      <c r="H20" s="70" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="33" customHeight="1">
+      <c r="A21" s="65"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61">
+        <v>17</v>
+      </c>
+      <c r="E21" s="67">
+        <v>35</v>
+      </c>
+      <c r="F21" s="67">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="G21" t="s">
+        <v>230</v>
+      </c>
+      <c r="H21" s="68" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="33" customHeight="1">
+      <c r="A22" s="65"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61">
+        <v>17</v>
+      </c>
+      <c r="E22" s="67">
+        <v>22</v>
+      </c>
+      <c r="F22" s="67">
+        <f t="shared" si="0"/>
+        <v>374</v>
+      </c>
+      <c r="G22" t="s">
+        <v>272</v>
+      </c>
+      <c r="H22" s="70" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="33" customHeight="1">
+      <c r="A23" s="65"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61">
+        <v>17</v>
+      </c>
+      <c r="E23" s="67">
+        <v>24</v>
+      </c>
+      <c r="F23" s="67">
+        <f t="shared" si="0"/>
+        <v>408</v>
+      </c>
+      <c r="G23" t="s">
+        <v>271</v>
+      </c>
+      <c r="H23" s="70" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="33" customHeight="1">
+      <c r="A24" s="65">
+        <v>16</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="61">
+        <v>2.5</v>
+      </c>
+      <c r="D24" s="61">
+        <v>5</v>
+      </c>
+      <c r="E24" s="67">
+        <v>14</v>
+      </c>
+      <c r="F24" s="67">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="H24" s="70" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A25" s="65">
+        <v>30</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="61">
+        <v>2</v>
+      </c>
+      <c r="D25" s="61">
+        <v>13</v>
+      </c>
+      <c r="E25" s="67">
+        <v>11.5</v>
+      </c>
+      <c r="F25" s="67">
+        <f t="shared" si="0"/>
+        <v>149.5</v>
+      </c>
+      <c r="G25" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A26" s="65"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61">
+        <v>13</v>
+      </c>
+      <c r="E26" s="67">
+        <v>14</v>
+      </c>
+      <c r="F26" s="67">
+        <f t="shared" si="0"/>
         <v>182</v>
       </c>
-      <c r="B5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="35">
-        <v>56</v>
-      </c>
-      <c r="E6" s="35">
-        <v>431</v>
-      </c>
-      <c r="F6" s="35">
-        <v>56</v>
-      </c>
-      <c r="G6" s="35">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="35">
-        <v>137</v>
-      </c>
-      <c r="E7" s="35">
-        <v>172</v>
-      </c>
-      <c r="F7" s="35">
-        <v>137</v>
-      </c>
-      <c r="G7" s="35">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="35">
-        <v>24</v>
-      </c>
-      <c r="E8" s="35">
-        <v>1470</v>
-      </c>
-      <c r="F8" s="35">
-        <v>24</v>
-      </c>
-      <c r="G8" s="35">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="35">
-        <v>24</v>
-      </c>
-      <c r="C9" s="36">
-        <v>255</v>
-      </c>
-      <c r="D9" s="35">
-        <v>76</v>
-      </c>
-      <c r="E9" s="35">
-        <v>2750</v>
-      </c>
-      <c r="F9" s="35">
-        <v>100</v>
-      </c>
-      <c r="G9" s="35">
-        <v>3005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="35">
-        <v>11</v>
-      </c>
-      <c r="E10" s="35">
-        <v>235</v>
-      </c>
-      <c r="F10" s="35">
-        <v>11</v>
-      </c>
-      <c r="G10" s="35">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="35">
-        <v>8</v>
-      </c>
-      <c r="C11" s="36">
-        <v>120</v>
-      </c>
-      <c r="D11" s="35">
-        <v>70</v>
-      </c>
-      <c r="E11" s="35">
-        <v>1483</v>
-      </c>
-      <c r="F11" s="35">
+      <c r="G26" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="H26" s="70" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A27" s="65"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61">
+        <v>13</v>
+      </c>
+      <c r="E27" s="67">
+        <v>29</v>
+      </c>
+      <c r="F27" s="67">
+        <f t="shared" si="0"/>
+        <v>377</v>
+      </c>
+      <c r="G27" t="s">
+        <v>276</v>
+      </c>
+      <c r="H27" s="70" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="33" customHeight="1">
+      <c r="A28" s="65">
+        <v>35</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="61">
+        <v>2</v>
+      </c>
+      <c r="D28" s="61">
+        <v>12</v>
+      </c>
+      <c r="E28" s="67">
+        <v>55</v>
+      </c>
+      <c r="F28" s="67">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="G28" t="s">
+        <v>230</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="33" customHeight="1">
+      <c r="A29" s="65"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61">
+        <v>12</v>
+      </c>
+      <c r="E29" s="67">
+        <v>32</v>
+      </c>
+      <c r="F29" s="67">
+        <f t="shared" si="0"/>
+        <v>384</v>
+      </c>
+      <c r="G29" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="H29" s="70" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="33" customHeight="1">
+      <c r="A30" s="65"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61">
+        <v>12</v>
+      </c>
+      <c r="E30" s="67">
+        <v>14</v>
+      </c>
+      <c r="F30" s="67">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="G30" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="H30" s="70" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="33" customHeight="1">
+      <c r="A31" s="65"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61">
+        <v>12</v>
+      </c>
+      <c r="E31" s="67">
+        <v>11.5</v>
+      </c>
+      <c r="F31" s="67">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="G31" t="s">
+        <v>267</v>
+      </c>
+      <c r="H31" s="70" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="33" customHeight="1">
+      <c r="A32" s="65"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61">
+        <v>12</v>
+      </c>
+      <c r="E32" s="67">
+        <v>1.4</v>
+      </c>
+      <c r="F32" s="67">
+        <f t="shared" si="0"/>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="G32" t="s">
+        <v>260</v>
+      </c>
+      <c r="H32" s="70" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="33" customHeight="1">
+      <c r="A33" s="65">
+        <v>40</v>
+      </c>
+      <c r="B33" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="61">
+        <v>2</v>
+      </c>
+      <c r="D33" s="61">
+        <v>5</v>
+      </c>
+      <c r="E33" s="67">
+        <v>49</v>
+      </c>
+      <c r="F33" s="67">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="G33" s="70" t="s">
+        <v>289</v>
+      </c>
+      <c r="H33" s="70" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="33" customHeight="1">
+      <c r="A34" s="65"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61">
+        <v>5</v>
+      </c>
+      <c r="E34" s="67">
+        <v>15</v>
+      </c>
+      <c r="F34" s="67">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G34" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="H34" s="70" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="33" customHeight="1">
+      <c r="A35" s="65">
+        <v>45</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="61">
+        <v>2</v>
+      </c>
+      <c r="D35" s="61">
+        <v>3</v>
+      </c>
+      <c r="E35" s="67">
+        <v>48.3</v>
+      </c>
+      <c r="F35" s="67">
+        <f t="shared" si="0"/>
+        <v>144.89999999999998</v>
+      </c>
+      <c r="G35" s="70" t="s">
+        <v>283</v>
+      </c>
+      <c r="H35" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="33" customHeight="1">
+      <c r="D36" s="71">
+        <v>3</v>
+      </c>
+      <c r="E36" s="72">
+        <v>26</v>
+      </c>
+      <c r="F36" s="72">
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="G11" s="35">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="35">
-        <v>20</v>
-      </c>
-      <c r="C12" s="36">
-        <v>147</v>
-      </c>
-      <c r="D12" s="35">
-        <v>8</v>
-      </c>
-      <c r="E12" s="35">
-        <v>80</v>
-      </c>
-      <c r="F12" s="35">
-        <v>28</v>
-      </c>
-      <c r="G12" s="35">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" s="32">
-        <v>52</v>
-      </c>
-      <c r="C13" s="32">
-        <v>522</v>
-      </c>
-      <c r="D13" s="32">
-        <v>382</v>
-      </c>
-      <c r="E13" s="32">
-        <v>6621</v>
-      </c>
-      <c r="F13" s="32">
-        <v>434</v>
-      </c>
-      <c r="G13" s="32">
-        <v>7143</v>
+      <c r="G36" s="70" t="s">
+        <v>293</v>
+      </c>
+      <c r="H36" s="70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="33" customHeight="1"/>
+    <row r="38" spans="1:8" ht="33" customHeight="1"/>
+    <row r="39" spans="1:8" ht="33" customHeight="1"/>
+    <row r="40" spans="1:8" ht="33" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="N5:P21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="5" spans="14:16">
+      <c r="N5">
+        <v>5.2</v>
+      </c>
+      <c r="O5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="P5">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="6" spans="14:16">
+      <c r="N6">
+        <v>2.5</v>
+      </c>
+      <c r="O6">
+        <v>1.7</v>
+      </c>
+      <c r="P6">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7" spans="14:16">
+      <c r="N7">
+        <v>0.6</v>
+      </c>
+      <c r="O7">
+        <v>1.5</v>
+      </c>
+      <c r="P7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="14:16">
+      <c r="N8">
+        <v>1.3</v>
+      </c>
+      <c r="O8">
+        <v>1.5</v>
+      </c>
+      <c r="P8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="14:16">
+      <c r="N9">
+        <v>1.6</v>
+      </c>
+      <c r="O9">
+        <v>1.5</v>
+      </c>
+      <c r="P9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="14:16">
+      <c r="N10">
+        <v>1.3</v>
+      </c>
+      <c r="O10">
+        <v>1.5</v>
+      </c>
+      <c r="P10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="14:16">
+      <c r="N11">
+        <v>1.7</v>
+      </c>
+      <c r="O11">
+        <v>1.5</v>
+      </c>
+      <c r="P11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="14:16">
+      <c r="N12">
+        <v>1.5</v>
+      </c>
+      <c r="O12">
+        <v>1.5</v>
+      </c>
+      <c r="P12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="14:16">
+      <c r="N13">
+        <v>1.6</v>
+      </c>
+      <c r="O13">
+        <v>1.5</v>
+      </c>
+      <c r="P13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="14:16">
+      <c r="N14">
+        <v>1.9</v>
+      </c>
+      <c r="O14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P14">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="14:16">
+      <c r="N15">
+        <v>1.5</v>
+      </c>
+      <c r="O15">
+        <v>6.6</v>
+      </c>
+      <c r="P15">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="16" spans="14:16">
+      <c r="N16">
+        <v>1.6</v>
+      </c>
+      <c r="O16">
+        <v>4.5</v>
+      </c>
+      <c r="P16">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="17" spans="14:16">
+      <c r="N17">
+        <v>1.6</v>
+      </c>
+      <c r="O17">
+        <v>1.2</v>
+      </c>
+      <c r="P17">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="14:16">
+      <c r="N18">
+        <v>8.5</v>
+      </c>
+      <c r="O18">
+        <v>5.8</v>
+      </c>
+      <c r="P18">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="19" spans="14:16">
+      <c r="N19">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="20" spans="14:16">
+      <c r="N20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="14:16">
+      <c r="N21">
+        <f>SUM(N5:N20)</f>
+        <v>40.800000000000004</v>
+      </c>
+      <c r="O21">
+        <f>SUM(O5:O20)</f>
+        <v>40.699999999999996</v>
+      </c>
+      <c r="P21">
+        <f>SUM(P5:P20)</f>
+        <v>40.549999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/plan/Rośliny.Zestawienie.xlsx
+++ b/plan/Rośliny.Zestawienie.xlsx
@@ -23,8 +23,420 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="B28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>koło skrzyni elektycznej</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+roślina 
+trochę inna niż proponowana</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+inny różowy niż Cheer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+inny fioletowy, nie Azurro
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+inny różwy, nie Elegant
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kousa, ale biały
+jest też mnieszy za 32zł
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+trochę inna
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+czarny, ale BlackLace a nie Gerda
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+nie CrimsonPirate
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H67" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+rokitnica - też owoce jadalne</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H73" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+chiński</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H77" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+inny, Dwarf</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H97" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+inny</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H98" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+inny</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H107" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+inny</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H108" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+inna</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="324">
   <si>
     <t>Nr</t>
   </si>
@@ -793,9 +1205,6 @@
     <t>Średnia</t>
   </si>
   <si>
-    <t>Funkie są piękne :)</t>
-  </si>
-  <si>
     <t>Suma z Suma</t>
   </si>
   <si>
@@ -814,9 +1223,6 @@
     <t>Suma z Liczba (sztuki)</t>
   </si>
   <si>
-    <t>Opinie</t>
-  </si>
-  <si>
     <t>ok.</t>
   </si>
   <si>
@@ -826,19 +1232,10 @@
     <t>może być ich więcej</t>
   </si>
   <si>
-    <t>więcej funki</t>
-  </si>
-  <si>
     <t>miał być jeszcze rozmaryn</t>
   </si>
   <si>
     <t>inne byliny kwitnące</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +róża, piwonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - że niby czarny bez się rozplenia</t>
   </si>
   <si>
     <t xml:space="preserve">Hydrangea paniculata „Sundae Fraise Rensun” – Hortensja bukietowa, karłowa, różowa
@@ -1232,9 +1629,6 @@
     <t>160-180</t>
   </si>
   <si>
-    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.2629.oczar.posredni.pallida-hamamelis.x.intermedia.pallida.html</t>
-  </si>
-  <si>
     <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.3373.fotergilla.amerykanska.-.fothergilla.major.html</t>
   </si>
   <si>
@@ -1389,13 +1783,112 @@
   </si>
   <si>
     <t>wysokosc rosliny</t>
+  </si>
+  <si>
+    <t>http://www.drzewa.com.pl/429-cyprysik-lawsona-columnaris.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.drzewa.com.pl/2966-zywotnik-zachodni-smaragd.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.drzewa.com.pl/2546-swierk-pospolity-cupressina.html?search_query=swierk+pospolity&amp;results=97</t>
+  </si>
+  <si>
+    <t>http://www.drzewa.com.pl/389-cis-posredni-hicksii.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.drzewa.com.pl/2046-sosna-czarna-pyramidata.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.mojsklepogrodniczy.pl/index.php?/Drzewa/Obni%BFki-cenowe/Cyprysik-Lawsona-na-%BFywop%B3ot-10-krzewow-%BFywop%B3otowych</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.mojsklepogrodniczy.pl/index.php?page=shop.browse&amp;option=com_virtuemart&amp;Itemid=27&amp;searchx=Y&amp;keyword=sosna+czarna&amp;search=Szukaj</t>
+  </si>
+  <si>
+    <t>15cm</t>
+  </si>
+  <si>
+    <t>Etap</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.3768.trzmielina.oskrzydlona-.eunomynus.alatus.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.4524.rozanecznik.jakuszimanski.polaris.%E2%80%93.rhododendron.yakushimanum.%28y%29.polaris.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.4528.rozanecznik.jakuszimanski.%28y%29.caroline.allbrook%E2%80%93.rhododendron.yakushimanum.%28y%29.caroline.allbrook.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.4539.rozanecznik.wielkokwiatowy.germania.-.rhododendron.germania.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.3222.deren.kousa.milky.way-cornus.cousa.milky.way.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.2776.kocimietka.faassena-nepeta.x.faassenii.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.1420.funkia.patriot.-.hosta.patriot.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.3500.bez.czarny.black.lace-.sambucus.nigra.black.lace.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.4314.liliowiec.bestseller.-.hemerocallis.bestseller.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.2462.laurowisnia.otto.luyken.-prunus.laurocerasus.otto.luyken.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.2628.oczar.posredni.orange.beauty-hamamelis.x.intermedia.orange.beauty.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.2982.sadziec.dety.atropurpureum.-.eupatorium.atropurpureum.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.3288.turzyca.oszimska.-.carex.oshimensis.evergold.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.2933.tawula.japonska.goldflame-.spiraea.japonica.goldflame.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.3530.rokitnik.zwyczajny..hergo.-.hippophae.rhamnoides.l..hergo.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.4282.borowka.amerykanska.-.vaccinium.cor..bluegold.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.4547.borowka.amerykanska.pink.lemonade.rozowa.-.vaccinium.pink.lemonade.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.3268.judaszowiec.chinski.avondale-cercis.chinensis.avondale.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.3370.miskant.chinski.yakushima.dwarf.-.miscanthus.sinensis.yakushima.dwarf.html</t>
+  </si>
+  <si>
+    <t>http://www.ogrodkroton.pl/towar.4525.rozanecznik.jakuszimanski.morgenrot.%E2%80%93.rhododendron.yakushimanum.%28y%29.morgenrot.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.4526.rozanecznik.jakuszimanski.kalinka.%E2%80%93.rhododendron.yakushimanum.%28y%29.kalinka.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.1942.funkia.august.moon-.hosta.august.moon-.limonkowa.html</t>
+  </si>
+  <si>
+    <t>http://www.ogrodkroton.pl/towar.4626.rozchodnik.autumn.charm.-.sedum.autumn.charm.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.3680.roza.gelbe.degmar.hastrup%C2%AE.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1528,6 +2021,73 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
   </fonts>
@@ -1675,7 +2235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1876,41 +2436,29 @@
     <xf numFmtId="2" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2028,25 +2576,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
@@ -2060,39 +2589,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2147,9 +2643,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2185,13 +2678,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
       </border>
     </dxf>
     <dxf>
@@ -2423,6 +2909,98 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2501,8 +3079,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>206775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>894938</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3977,7 +4555,7 @@
     <dataField name="Suma z Suma" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="3">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -3998,7 +4576,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -4019,7 +4597,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -4041,7 +4619,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="12">
       <pivotArea field="3" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2" selected="0">
@@ -4069,37 +4647,27 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L118" totalsRowCount="1" headerRowDxfId="22" totalsRowDxfId="20" tableBorderDxfId="21">
   <autoFilter ref="A1:L117">
     <filterColumn colId="3"/>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="TAK"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="1"/>
-        <filter val="2"/>
-        <filter val="5"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="4"/>
+    <filterColumn colId="5"/>
     <filterColumn colId="9"/>
     <filterColumn colId="10"/>
     <filterColumn colId="11"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" name="Nr" totalsRowLabel="Suma" totalsRowDxfId="19"/>
-    <tableColumn id="2" name="Nazwa" totalsRowDxfId="18"/>
-    <tableColumn id="3" name="Opis" totalsRowDxfId="17"/>
-    <tableColumn id="4" name="Typ" totalsRowDxfId="16"/>
-    <tableColumn id="5" name="Zimozielony?" totalsRowDxfId="15"/>
-    <tableColumn id="6" name="Strefa" totalsRowFunction="count" totalsRowDxfId="14"/>
-    <tableColumn id="7" name="Liczba (sztuki)" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="8" name="Średnia cena" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="9" name="Suma" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="1" name="Nr" totalsRowLabel="Suma" totalsRowDxfId="11"/>
+    <tableColumn id="2" name="Nazwa" totalsRowDxfId="10"/>
+    <tableColumn id="3" name="Opis" totalsRowDxfId="9"/>
+    <tableColumn id="4" name="Typ" totalsRowDxfId="8"/>
+    <tableColumn id="5" name="Zimozielony?" totalsRowDxfId="7"/>
+    <tableColumn id="6" name="Strefa" totalsRowFunction="count" totalsRowDxfId="6"/>
+    <tableColumn id="7" name="Liczba (sztuki)" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="5"/>
+    <tableColumn id="8" name="Średnia cena" totalsRowFunction="average" dataDxfId="18" totalsRowDxfId="4"/>
+    <tableColumn id="9" name="Suma" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="3">
       <calculatedColumnFormula>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Opinie" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="10" name="Sklep" totalsRowDxfId="5"/>
-    <tableColumn id="12" name="Wielkosc " totalsRowDxfId="4"/>
+    <tableColumn id="11" name="Etap" dataDxfId="16" totalsRowDxfId="2"/>
+    <tableColumn id="10" name="Sklep" totalsRowDxfId="1"/>
+    <tableColumn id="12" name="Wielkosc " totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4390,11 +4958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P123"/>
+  <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:L74"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4436,19 +5004,19 @@
         <v>95</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>172</v>
+        <v>299</v>
       </c>
       <c r="K1" s="59" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L1" s="59" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="25.5" hidden="1">
+    <row r="2" spans="1:16" ht="22.5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4478,13 +5046,13 @@
         <v>100</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.5" hidden="1">
+    <row r="3" spans="1:16" ht="22.5">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -4514,13 +5082,13 @@
         <v>70</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="25.5" hidden="1">
+    <row r="4" spans="1:16" ht="22.5">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -4550,13 +5118,13 @@
         <v>40</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="26.25" hidden="1" customHeight="1">
+    <row r="5" spans="1:16" ht="26.25" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -4586,13 +5154,13 @@
         <v>200</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="38.25" hidden="1">
+    <row r="6" spans="1:16" ht="38.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -4622,13 +5190,13 @@
         <v>210</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1">
+    <row r="7" spans="1:16">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -4658,18 +5226,18 @@
         <v>432</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="96" hidden="1">
+    <row r="8" spans="1:16" ht="96">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>96</v>
@@ -4700,7 +5268,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="38.25" hidden="1">
+    <row r="9" spans="1:16" ht="38.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -4730,13 +5298,13 @@
         <v>106.5</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="33.75" hidden="1">
+    <row r="10" spans="1:16" ht="33.75">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -4766,13 +5334,13 @@
         <v>120</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="45" hidden="1">
+    <row r="11" spans="1:16" ht="45">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -4800,10 +5368,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="45" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="45">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -4831,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="26.25" customHeight="1">
@@ -4864,7 +5432,7 @@
         <v>120</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="26.25" customHeight="1">
@@ -4872,7 +5440,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>4</v>
@@ -4895,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="26.25" customHeight="1">
@@ -4928,7 +5496,7 @@
         <v>110</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="26.25" customHeight="1">
@@ -4961,7 +5529,7 @@
         <v>35</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="24">
@@ -4992,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="22.5">
@@ -5025,13 +5593,13 @@
         <v>75</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L18" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="33.75">
@@ -5062,10 +5630,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="40.5" hidden="1" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="40.5" customHeight="1">
       <c r="A20" s="5">
         <v>13</v>
       </c>
@@ -5093,15 +5661,15 @@
         <v>0</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="45" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="45">
       <c r="A21" s="5">
         <v>14</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>101</v>
@@ -5126,7 +5694,7 @@
         <v>35</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="36">
@@ -5157,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="24">
@@ -5190,13 +5758,13 @@
         <v>280</v>
       </c>
       <c r="J23" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K23" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="24">
@@ -5219,23 +5787,23 @@
         <v>2</v>
       </c>
       <c r="G24" s="8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H24" s="30">
         <v>9</v>
       </c>
       <c r="I24" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K24" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="33.75">
@@ -5266,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="33.75">
@@ -5299,7 +5867,7 @@
         <v>40</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="25.5">
@@ -5330,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="25.5">
@@ -5356,14 +5924,17 @@
         <v>8</v>
       </c>
       <c r="H28" s="30">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I28" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="K28" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="36">
@@ -5394,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="36">
@@ -5427,10 +5998,10 @@
         <v>120</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="56.25" hidden="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="56.25">
       <c r="A31" s="5">
         <v>19</v>
       </c>
@@ -5458,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="25.5">
@@ -5491,10 +6062,10 @@
         <v>40</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K32" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="45">
@@ -5525,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="33.75">
@@ -5556,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="69" customHeight="1">
@@ -5589,7 +6160,7 @@
         <v>120</v>
       </c>
       <c r="J35" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="67.5">
@@ -5597,10 +6168,10 @@
         <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>80</v>
@@ -5614,24 +6185,29 @@
       <c r="G36" s="8">
         <v>1</v>
       </c>
-      <c r="H36" s="30"/>
+      <c r="H36" s="30">
+        <v>32</v>
+      </c>
       <c r="I36" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J36" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="K36" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="56.25">
       <c r="A37" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>80</v>
@@ -5645,22 +6221,27 @@
       <c r="G37" s="8">
         <v>1</v>
       </c>
-      <c r="H37" s="30"/>
+      <c r="H37" s="30">
+        <v>28</v>
+      </c>
       <c r="I37" s="38">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J37" s="39"/>
+      <c r="K37" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="45">
       <c r="A38" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>80</v>
@@ -5674,22 +6255,27 @@
       <c r="G38" s="8">
         <v>1</v>
       </c>
-      <c r="H38" s="30"/>
+      <c r="H38" s="30">
+        <v>45</v>
+      </c>
       <c r="I38" s="38">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J38" s="39"/>
-    </row>
-    <row r="39" spans="1:12" ht="51" hidden="1">
+      <c r="K38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="51">
       <c r="A39" s="5">
         <v>25</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>82</v>
@@ -5737,15 +6323,15 @@
         <v>90</v>
       </c>
       <c r="J40" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="144" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="144">
       <c r="A41" s="5">
         <v>27</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>10</v>
@@ -5770,16 +6356,16 @@
         <v>39</v>
       </c>
       <c r="J41" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K41" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L41" s="60" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" hidden="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="5">
         <v>28</v>
       </c>
@@ -5787,7 +6373,7 @@
         <v>43</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>80</v>
@@ -5807,10 +6393,10 @@
         <v>0</v>
       </c>
       <c r="J42" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="22.5" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="22.5">
       <c r="A43" s="5">
         <v>28</v>
       </c>
@@ -5838,10 +6424,10 @@
         <v>0</v>
       </c>
       <c r="J43" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="51" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="51">
       <c r="A44" s="5">
         <v>29</v>
       </c>
@@ -5869,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="33.75">
@@ -5902,10 +6488,10 @@
         <v>195</v>
       </c>
       <c r="J45" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="25.5" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="25.5">
       <c r="A46" s="5">
         <v>31</v>
       </c>
@@ -5928,14 +6514,17 @@
         <v>1</v>
       </c>
       <c r="H46" s="30">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="I46" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="J46" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="K46" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="24">
@@ -5968,10 +6557,10 @@
         <v>150</v>
       </c>
       <c r="J47" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="38.25" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="38.25">
       <c r="A48" s="5">
         <v>33</v>
       </c>
@@ -5994,17 +6583,20 @@
         <v>5</v>
       </c>
       <c r="H48" s="30">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="I48" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>20</v>
+        <v>37.5</v>
       </c>
       <c r="J48" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="33.75" hidden="1">
+        <v>171</v>
+      </c>
+      <c r="K48" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="33.75">
       <c r="A49" s="5">
         <v>34</v>
       </c>
@@ -6034,10 +6626,10 @@
         <v>84</v>
       </c>
       <c r="J49" s="37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K49" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="38.25">
@@ -6070,10 +6662,10 @@
         <v>240</v>
       </c>
       <c r="J50" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="25.5" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="25.5">
       <c r="A51" s="5">
         <v>36</v>
       </c>
@@ -6096,17 +6688,17 @@
         <v>9</v>
       </c>
       <c r="H51" s="30">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I51" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>1260</v>
+        <v>1080</v>
       </c>
       <c r="J51" s="37" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="33.75" hidden="1">
+    <row r="52" spans="1:12" ht="33.75">
       <c r="A52" s="5">
         <v>37</v>
       </c>
@@ -6129,17 +6721,20 @@
         <v>1</v>
       </c>
       <c r="H52" s="30">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I52" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J52" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="48" hidden="1">
+        <v>171</v>
+      </c>
+      <c r="K52" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="48">
       <c r="A53" s="5">
         <v>38</v>
       </c>
@@ -6162,14 +6757,17 @@
         <v>4</v>
       </c>
       <c r="H53" s="30">
-        <v>8</v>
+        <v>24.5</v>
       </c>
       <c r="I53" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="J53" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="K53" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="38.25">
@@ -6195,17 +6793,20 @@
         <v>6</v>
       </c>
       <c r="H54" s="30">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I54" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="J54" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="38.25" hidden="1">
+        <v>171</v>
+      </c>
+      <c r="K54" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="38.25">
       <c r="A55" s="5">
         <v>39</v>
       </c>
@@ -6233,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="24.75">
@@ -6256,20 +6857,20 @@
         <v>2</v>
       </c>
       <c r="G56" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H56" s="30">
         <v>150</v>
       </c>
       <c r="I56" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="J56" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="51" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="51">
       <c r="A57" s="5">
         <v>41</v>
       </c>
@@ -6292,20 +6893,20 @@
         <v>1</v>
       </c>
       <c r="H57" s="30">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="I57" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="J57" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K57" t="s">
-        <v>244</v>
+        <v>310</v>
       </c>
       <c r="L57" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -6338,10 +6939,10 @@
         <v>240</v>
       </c>
       <c r="J58" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="56.25" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="56.25">
       <c r="A59" s="5">
         <v>43</v>
       </c>
@@ -6364,17 +6965,20 @@
         <v>3</v>
       </c>
       <c r="H59" s="30">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="I59" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>30</v>
+        <v>40.5</v>
       </c>
       <c r="J59" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="22.5" hidden="1">
+        <v>171</v>
+      </c>
+      <c r="K59" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="22.5">
       <c r="A60" s="5">
         <v>44</v>
       </c>
@@ -6397,14 +7001,17 @@
         <v>5</v>
       </c>
       <c r="H60" s="30">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="I60" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>35</v>
+        <v>47.5</v>
       </c>
       <c r="J60" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="K60" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="22.5">
@@ -6427,25 +7034,25 @@
         <v>2</v>
       </c>
       <c r="G61" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H61" s="30">
         <v>100</v>
       </c>
       <c r="I61" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J61" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="24" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="24">
       <c r="A62" s="5">
         <v>46</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>10</v>
@@ -6470,16 +7077,16 @@
         <v>595</v>
       </c>
       <c r="J62" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K62" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L62" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="45" hidden="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="45">
       <c r="A63" s="5">
         <v>47</v>
       </c>
@@ -6509,10 +7116,10 @@
         <v>145</v>
       </c>
       <c r="J63" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K63" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="22.5">
@@ -6520,7 +7127,7 @@
         <v>48</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>13</v>
@@ -6543,10 +7150,10 @@
         <v>0</v>
       </c>
       <c r="J64" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="36" hidden="1" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="36" customHeight="1">
       <c r="A65" s="5">
         <v>49</v>
       </c>
@@ -6576,13 +7183,13 @@
         <v>91</v>
       </c>
       <c r="J65" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K65" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="51" hidden="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="51">
       <c r="A66" s="5">
         <v>50</v>
       </c>
@@ -6605,17 +7212,20 @@
         <v>9</v>
       </c>
       <c r="H66" s="30">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="I66" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>63</v>
+        <v>103.5</v>
       </c>
       <c r="J66" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="56.25" hidden="1">
+        <v>171</v>
+      </c>
+      <c r="K66" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="56.25">
       <c r="A67" s="12">
         <v>51</v>
       </c>
@@ -6638,15 +7248,18 @@
         <v>1</v>
       </c>
       <c r="H67" s="30">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I67" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J67" s="37"/>
-    </row>
-    <row r="68" spans="1:12" ht="56.25" hidden="1">
+      <c r="K67" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="56.25">
       <c r="A68" s="12">
         <v>52</v>
       </c>
@@ -6677,7 +7290,7 @@
       </c>
       <c r="J68" s="37"/>
     </row>
-    <row r="69" spans="1:12" ht="56.25" hidden="1">
+    <row r="69" spans="1:12" ht="56.25">
       <c r="A69" s="12">
         <v>53</v>
       </c>
@@ -6708,7 +7321,7 @@
       </c>
       <c r="J69" s="37"/>
     </row>
-    <row r="70" spans="1:12" ht="90" hidden="1">
+    <row r="70" spans="1:12" ht="90">
       <c r="A70" s="12">
         <v>54</v>
       </c>
@@ -6731,15 +7344,18 @@
         <v>1</v>
       </c>
       <c r="H70" s="30">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I70" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J70" s="37"/>
-    </row>
-    <row r="71" spans="1:12" ht="90" hidden="1">
+      <c r="K70" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="43.5" customHeight="1">
       <c r="A71" s="12">
         <v>55</v>
       </c>
@@ -6762,20 +7378,23 @@
         <v>2</v>
       </c>
       <c r="H71" s="30">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I71" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="J71" s="37"/>
-    </row>
-    <row r="72" spans="1:12" ht="84" hidden="1">
+      <c r="K71" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="84">
       <c r="A72" s="5">
         <v>56</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>134</v>
@@ -6800,21 +7419,21 @@
         <v>75</v>
       </c>
       <c r="J72" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K72" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L72" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="22.5" hidden="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="22.5">
       <c r="A73" s="5">
         <v>57</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>135</v>
@@ -6831,13 +7450,18 @@
       <c r="G73" s="8">
         <v>1</v>
       </c>
-      <c r="H73" s="30"/>
+      <c r="H73" s="30">
+        <v>85</v>
+      </c>
       <c r="I73" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J73" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="K73" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="38.25">
@@ -6870,10 +7494,10 @@
         <v>75</v>
       </c>
       <c r="J74" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="33.75" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="33.75">
       <c r="A75" s="5">
         <v>59</v>
       </c>
@@ -6903,10 +7527,10 @@
         <v>48</v>
       </c>
       <c r="J75" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="22.5" hidden="1" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="22.5" customHeight="1">
       <c r="A76" s="5">
         <v>60</v>
       </c>
@@ -6936,16 +7560,16 @@
         <v>180</v>
       </c>
       <c r="J76" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K76" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L76" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="36" hidden="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="36">
       <c r="A77" s="5">
         <v>61</v>
       </c>
@@ -6975,10 +7599,13 @@
         <v>45</v>
       </c>
       <c r="J77" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="33.75" hidden="1">
+        <v>171</v>
+      </c>
+      <c r="K77" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="33.75">
       <c r="A78" s="5">
         <v>62</v>
       </c>
@@ -7008,13 +7635,13 @@
         <v>16</v>
       </c>
       <c r="J78" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K78" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="45" hidden="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="45">
       <c r="A79" s="5">
         <v>63</v>
       </c>
@@ -7042,10 +7669,10 @@
         <v>0</v>
       </c>
       <c r="J79" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="33.75" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="33.75">
       <c r="A80" s="5">
         <v>64</v>
       </c>
@@ -7074,10 +7701,10 @@
       </c>
       <c r="J80" s="37"/>
       <c r="K80" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="25.5" hidden="1" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="25.5" customHeight="1">
       <c r="A81" s="5">
         <v>65</v>
       </c>
@@ -7106,7 +7733,7 @@
       </c>
       <c r="J81" s="37"/>
     </row>
-    <row r="82" spans="1:10" ht="33.75" hidden="1">
+    <row r="82" spans="1:10" ht="33.75">
       <c r="A82" s="5">
         <v>66</v>
       </c>
@@ -7135,7 +7762,7 @@
       </c>
       <c r="J82" s="37"/>
     </row>
-    <row r="83" spans="1:10" ht="56.25" hidden="1">
+    <row r="83" spans="1:10" ht="56.25">
       <c r="A83" s="5">
         <v>67</v>
       </c>
@@ -7164,15 +7791,15 @@
       </c>
       <c r="J83" s="37"/>
     </row>
-    <row r="84" spans="1:10" ht="45" hidden="1">
+    <row r="84" spans="1:10" ht="45">
       <c r="A84" s="5">
         <v>68</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>88</v>
@@ -7192,10 +7819,10 @@
         <v>0</v>
       </c>
       <c r="J84" s="37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="45" hidden="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="45">
       <c r="A85" s="5">
         <v>69</v>
       </c>
@@ -7223,10 +7850,10 @@
         <v>0</v>
       </c>
       <c r="J85" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="33.75" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="33.75">
       <c r="A86" s="5">
         <v>70</v>
       </c>
@@ -7256,10 +7883,10 @@
         <v>50</v>
       </c>
       <c r="J86" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="45" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="45">
       <c r="A87" s="5">
         <v>71</v>
       </c>
@@ -7287,10 +7914,10 @@
         <v>0</v>
       </c>
       <c r="J87" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="22.5" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="22.5">
       <c r="A88" s="5">
         <v>72</v>
       </c>
@@ -7318,10 +7945,10 @@
         <v>0</v>
       </c>
       <c r="J88" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="45" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="45">
       <c r="A89" s="5">
         <v>73</v>
       </c>
@@ -7349,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J89" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="25.5" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="25.5">
       <c r="A90" s="5">
         <v>74</v>
       </c>
@@ -7380,10 +8007,10 @@
         <v>0</v>
       </c>
       <c r="J90" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="36" hidden="1" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="36" customHeight="1">
       <c r="A91" s="5">
         <v>75</v>
       </c>
@@ -7411,10 +8038,10 @@
         <v>0</v>
       </c>
       <c r="J91" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="67.5" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="67.5">
       <c r="A92" s="5">
         <v>76</v>
       </c>
@@ -7442,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="J92" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="33.75" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="33.75">
       <c r="A93" s="5">
         <v>77</v>
       </c>
@@ -7473,10 +8100,10 @@
         <v>0</v>
       </c>
       <c r="J93" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="67.5" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="67.5">
       <c r="A94" s="5">
         <v>78</v>
       </c>
@@ -7506,10 +8133,10 @@
         <v>36</v>
       </c>
       <c r="J94" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="45" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="45">
       <c r="A95" s="5">
         <v>79</v>
       </c>
@@ -7539,15 +8166,15 @@
         <v>40</v>
       </c>
       <c r="J95" s="37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" hidden="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15" thickBot="1">
       <c r="A96" s="5">
         <v>80</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C96" s="40" t="s">
         <v>10</v>
@@ -7571,15 +8198,15 @@
       </c>
       <c r="J96" s="37"/>
     </row>
-    <row r="97" spans="1:12" ht="34.5" hidden="1" thickBot="1">
+    <row r="97" spans="1:12" ht="34.5" thickBot="1">
       <c r="A97" s="5">
         <v>81</v>
       </c>
       <c r="B97" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" s="52" t="s">
         <v>202</v>
-      </c>
-      <c r="C97" s="52" t="s">
-        <v>207</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>80</v>
@@ -7593,22 +8220,26 @@
       <c r="G97" s="8">
         <v>1</v>
       </c>
-      <c r="H97" s="30"/>
+      <c r="H97" s="30">
+        <v>28</v>
+      </c>
       <c r="I97" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>0</v>
-      </c>
-      <c r="J97" s="37"/>
-    </row>
-    <row r="98" spans="1:12" ht="34.5" hidden="1" thickBot="1">
+        <v>28</v>
+      </c>
+      <c r="K97" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="34.5" thickBot="1">
       <c r="A98" s="5">
         <v>82</v>
       </c>
       <c r="B98" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="52" t="s">
         <v>203</v>
-      </c>
-      <c r="C98" s="52" t="s">
-        <v>208</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>80</v>
@@ -7622,22 +8253,26 @@
       <c r="G98" s="8">
         <v>1</v>
       </c>
-      <c r="H98" s="30"/>
+      <c r="H98" s="30">
+        <v>26</v>
+      </c>
       <c r="I98" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>0</v>
-      </c>
-      <c r="J98" s="37"/>
-    </row>
-    <row r="99" spans="1:12" ht="57" hidden="1" thickBot="1">
+        <v>26</v>
+      </c>
+      <c r="K98" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="57" thickBot="1">
       <c r="A99" s="5">
         <v>83</v>
       </c>
       <c r="B99" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="53" t="s">
         <v>204</v>
-      </c>
-      <c r="C99" s="53" t="s">
-        <v>209</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>80</v>
@@ -7660,21 +8295,21 @@
       </c>
       <c r="J99" s="37"/>
       <c r="K99" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L99" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="26.25" hidden="1" thickBot="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="26.25" thickBot="1">
       <c r="A100" s="5">
         <v>84</v>
       </c>
       <c r="B100" s="51" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>78</v>
@@ -7697,21 +8332,21 @@
       </c>
       <c r="J100" s="37"/>
       <c r="K100" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L100" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="57" hidden="1" thickBot="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="57" thickBot="1">
       <c r="A101" s="5">
         <v>85</v>
       </c>
       <c r="B101" s="54" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C101" s="52" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>82</v>
@@ -7734,18 +8369,18 @@
       </c>
       <c r="J101" s="37"/>
       <c r="K101" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="16.5" hidden="1" customHeight="1" thickBot="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
       <c r="A102" s="5">
         <v>86</v>
       </c>
       <c r="B102" s="50" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>80</v>
@@ -7759,22 +8394,24 @@
       <c r="G102" s="8">
         <v>6</v>
       </c>
-      <c r="H102" s="30"/>
+      <c r="H102" s="30">
+        <v>18.5</v>
+      </c>
       <c r="I102" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="J102" s="37"/>
     </row>
-    <row r="103" spans="1:12" ht="34.5" hidden="1" thickBot="1">
+    <row r="103" spans="1:12" ht="34.5" thickBot="1">
       <c r="A103" s="5">
         <v>87</v>
       </c>
       <c r="B103" s="51" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C103" s="52" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>82</v>
@@ -7795,15 +8432,15 @@
       </c>
       <c r="J103" s="37"/>
     </row>
-    <row r="104" spans="1:12" ht="45.75" hidden="1" thickBot="1">
+    <row r="104" spans="1:12" ht="45.75" thickBot="1">
       <c r="A104" s="5">
         <v>88</v>
       </c>
       <c r="B104" s="50" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C104" s="52" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>82</v>
@@ -7817,22 +8454,24 @@
       <c r="G104" s="8">
         <v>14</v>
       </c>
-      <c r="H104" s="30"/>
+      <c r="H104" s="30">
+        <v>17.5</v>
+      </c>
       <c r="I104" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="J104" s="37"/>
     </row>
-    <row r="105" spans="1:12" ht="57" hidden="1" thickBot="1">
+    <row r="105" spans="1:12" ht="57" thickBot="1">
       <c r="A105" s="5">
         <v>89</v>
       </c>
       <c r="B105" s="50" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C105" s="52" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>81</v>
@@ -7846,22 +8485,24 @@
       <c r="G105" s="8">
         <v>3</v>
       </c>
-      <c r="H105" s="30"/>
+      <c r="H105" s="30">
+        <v>10</v>
+      </c>
       <c r="I105" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J105" s="37"/>
     </row>
-    <row r="106" spans="1:12" ht="16.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="106" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
       <c r="A106" s="5">
         <v>90</v>
       </c>
       <c r="B106" s="51" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C106" s="52" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>82</v>
@@ -7882,15 +8523,15 @@
       </c>
       <c r="J106" s="37"/>
     </row>
-    <row r="107" spans="1:12" ht="45.75" hidden="1" thickBot="1">
+    <row r="107" spans="1:12" ht="45.75" thickBot="1">
       <c r="A107" s="5">
         <v>91</v>
       </c>
       <c r="B107" s="50" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C107" s="52" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>82</v>
@@ -7904,22 +8545,27 @@
       <c r="G107" s="8">
         <v>3</v>
       </c>
-      <c r="H107" s="30"/>
+      <c r="H107" s="30">
+        <v>15</v>
+      </c>
       <c r="I107" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J107" s="37"/>
-    </row>
-    <row r="108" spans="1:12" ht="76.5" hidden="1">
+      <c r="K107" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="76.5">
       <c r="A108" s="5">
         <v>92</v>
       </c>
       <c r="B108" s="55" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C108" s="52" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>80</v>
@@ -7933,22 +8579,27 @@
       <c r="G108" s="8">
         <v>5</v>
       </c>
-      <c r="H108" s="30"/>
+      <c r="H108" s="30">
+        <v>28</v>
+      </c>
       <c r="I108" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J108" s="37"/>
-    </row>
-    <row r="109" spans="1:12" ht="78.75" hidden="1">
+      <c r="K108" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="79.5" thickBot="1">
       <c r="A109" s="5">
         <v>93</v>
       </c>
       <c r="B109" s="56" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C109" s="52" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>82</v>
@@ -7962,14 +8613,16 @@
       <c r="G109" s="8">
         <v>3</v>
       </c>
-      <c r="H109" s="30"/>
+      <c r="H109" s="30">
+        <v>65</v>
+      </c>
       <c r="I109" s="30">
         <f>Tabela1[[#This Row],[Liczba (sztuki)]]*Tabela1[[#This Row],[Średnia cena]]</f>
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="J109" s="37"/>
     </row>
-    <row r="110" spans="1:12" ht="45.75" hidden="1" thickBot="1">
+    <row r="110" spans="1:12" ht="45.75" thickBot="1">
       <c r="A110" s="5"/>
       <c r="B110" s="57" t="s">
         <v>32</v>
@@ -7996,7 +8649,7 @@
       </c>
       <c r="J110" s="37"/>
     </row>
-    <row r="111" spans="1:12" ht="45.75" hidden="1" thickBot="1">
+    <row r="111" spans="1:12" ht="45.75" thickBot="1">
       <c r="A111" s="5"/>
       <c r="B111" s="58" t="s">
         <v>60</v>
@@ -8025,7 +8678,7 @@
       </c>
       <c r="J111" s="37"/>
     </row>
-    <row r="112" spans="1:12" ht="45" hidden="1">
+    <row r="112" spans="1:12" ht="45">
       <c r="A112" s="5"/>
       <c r="B112" s="24" t="s">
         <v>61</v>
@@ -8052,7 +8705,7 @@
       </c>
       <c r="J112" s="37"/>
     </row>
-    <row r="113" spans="1:12" ht="45" hidden="1">
+    <row r="113" spans="1:12" ht="45">
       <c r="A113" s="5"/>
       <c r="B113" s="24" t="s">
         <v>62</v>
@@ -8081,7 +8734,7 @@
       </c>
       <c r="J113" s="37"/>
     </row>
-    <row r="114" spans="1:12" ht="33.75" hidden="1">
+    <row r="114" spans="1:12" ht="33.75">
       <c r="A114" s="5"/>
       <c r="B114" s="24" t="s">
         <v>63</v>
@@ -8108,7 +8761,7 @@
       </c>
       <c r="J114" s="37"/>
     </row>
-    <row r="115" spans="1:12" ht="42.75" hidden="1" customHeight="1">
+    <row r="115" spans="1:12" ht="42.75" customHeight="1">
       <c r="A115" s="5"/>
       <c r="B115" s="25" t="s">
         <v>64</v>
@@ -8137,7 +8790,7 @@
       </c>
       <c r="J115" s="37"/>
     </row>
-    <row r="116" spans="1:12" ht="33.75" hidden="1">
+    <row r="116" spans="1:12" ht="33.75">
       <c r="A116" s="5"/>
       <c r="B116" s="23" t="s">
         <v>33</v>
@@ -8166,7 +8819,7 @@
       </c>
       <c r="J116" s="37"/>
     </row>
-    <row r="117" spans="1:12" ht="33.75" hidden="1">
+    <row r="117" spans="1:12" ht="33.75">
       <c r="A117" s="28"/>
       <c r="B117" s="24" t="s">
         <v>65</v>
@@ -8195,7 +8848,7 @@
       </c>
       <c r="J117" s="37"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75">
+    <row r="118" spans="1:12" ht="24">
       <c r="A118" s="42" t="s">
         <v>95</v>
       </c>
@@ -8205,19 +8858,19 @@
       <c r="E118" s="45"/>
       <c r="F118" s="46">
         <f>SUBTOTAL(103,[Strefa])</f>
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="G118" s="46">
         <f>SUBTOTAL(109,[Liczba (sztuki)])</f>
-        <v>238</v>
+        <v>822</v>
       </c>
       <c r="H118" s="47">
         <f>SUBTOTAL(101,[Średnia cena])</f>
-        <v>30.2</v>
+        <v>33.540259740259742</v>
       </c>
       <c r="I118" s="46">
         <f>SUBTOTAL(109,[Suma])</f>
-        <v>3443</v>
+        <v>9395.5</v>
       </c>
       <c r="J118" s="46"/>
       <c r="K118" s="48"/>
@@ -8235,16 +8888,6 @@
       </c>
       <c r="I119" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
-      <c r="J122" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
-      <c r="J123" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -8256,8 +8899,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8297,27 +8941,27 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8467,7 +9111,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="31">
         <v>52</v>
@@ -8495,10 +9139,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8508,24 +9152,24 @@
     <col min="7" max="7" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" t="s">
         <v>250</v>
       </c>
-      <c r="C1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D1" t="s">
-        <v>256</v>
-      </c>
       <c r="E1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -8533,17 +9177,17 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D2">
         <f>55*1.08</f>
         <v>59.400000000000006</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="62" t="s">
         <v>43</v>
       </c>
@@ -8551,17 +9195,17 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D3">
         <f>55*1.08</f>
         <v>59.400000000000006</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="62" t="s">
         <v>47</v>
       </c>
@@ -8569,17 +9213,17 @@
         <v>6</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D4">
         <f>15*1.08</f>
         <v>16.200000000000003</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="62" t="s">
         <v>74</v>
       </c>
@@ -8587,55 +9231,55 @@
         <v>3</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D5">
         <f>15*1.08</f>
         <v>16.200000000000003</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B6" s="8">
         <v>5</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D6">
         <f>15*1.08</f>
         <v>16.200000000000003</v>
       </c>
       <c r="E6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="C9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="C9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" t="s">
-        <v>250</v>
-      </c>
-      <c r="E9" t="s">
-        <v>256</v>
-      </c>
-      <c r="F9" t="s">
-        <v>257</v>
-      </c>
       <c r="G9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="33" customHeight="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="33" customHeight="1">
       <c r="A10" s="65">
         <v>9</v>
       </c>
@@ -8643,63 +9287,60 @@
         <v>99</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>258</v>
-      </c>
-      <c r="D10" s="61">
-        <v>22</v>
-      </c>
-      <c r="E10" s="67">
-        <v>10</v>
-      </c>
-      <c r="F10" s="67">
-        <v>120</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="68"/>
       <c r="H10" s="68"/>
     </row>
-    <row r="11" spans="1:8" ht="33" customHeight="1">
+    <row r="11" spans="1:9" ht="33" customHeight="1">
       <c r="A11" s="65"/>
       <c r="B11" s="64"/>
       <c r="C11" s="61"/>
       <c r="D11" s="61">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" s="67">
         <v>40</v>
       </c>
       <c r="F11" s="67">
-        <f t="shared" ref="F11:F36" si="0">E11*D11</f>
-        <v>880</v>
+        <f t="shared" ref="F11:F43" si="0">E11*D11</f>
+        <v>920</v>
       </c>
       <c r="G11" s="70" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H11" s="70" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="33" customHeight="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="33" customHeight="1">
       <c r="A12" s="65"/>
       <c r="B12" s="64"/>
       <c r="C12" s="61"/>
       <c r="D12" s="61">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="67">
         <v>18</v>
       </c>
       <c r="F12" s="67">
         <f t="shared" si="0"/>
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="G12" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H12" s="70">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="33" customHeight="1">
+      <c r="I12">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="33" customHeight="1">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -8720,61 +9361,64 @@
         <v>310</v>
       </c>
       <c r="G13" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="33" customHeight="1">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="8">
-        <v>5</v>
-      </c>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="33" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E14" s="30">
         <v>25</v>
       </c>
       <c r="F14" s="30">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="G14" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="H14" s="69" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="33" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="8"/>
+        <v>250</v>
+      </c>
+      <c r="G14" t="s">
+        <v>293</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="I14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="33" customHeight="1">
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5</v>
+      </c>
       <c r="D15" s="8">
         <v>3</v>
       </c>
-      <c r="E15" s="30">
-        <v>10</v>
-      </c>
-      <c r="F15" s="30">
+      <c r="E15" s="74">
+        <v>25</v>
+      </c>
+      <c r="F15" s="74">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G15" s="69" t="s">
-        <v>279</v>
-      </c>
-      <c r="H15" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="33" customHeight="1">
+        <v>75</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="33" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="8"/>
@@ -8782,69 +9426,72 @@
         <v>3</v>
       </c>
       <c r="E16" s="30">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F16" s="30">
         <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G16" s="69" t="s">
+        <v>273</v>
+      </c>
+      <c r="H16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="33" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8">
+        <v>3</v>
+      </c>
+      <c r="E17" s="30">
+        <v>26</v>
+      </c>
+      <c r="F17" s="30">
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="G16" s="69" t="s">
-        <v>281</v>
-      </c>
-      <c r="H16" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="33" customHeight="1">
-      <c r="A17" s="65">
+      <c r="G17" s="69" t="s">
+        <v>275</v>
+      </c>
+      <c r="H17" t="s">
+        <v>276</v>
+      </c>
+      <c r="I17">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="33" customHeight="1">
+      <c r="A18" s="65">
         <v>15</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B18" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C18" s="61">
         <v>2.5</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D18" s="75">
         <f>46-17</f>
         <v>29</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E18" s="76">
         <v>9</v>
       </c>
-      <c r="F17" s="67">
+      <c r="F18" s="76">
         <f t="shared" si="0"/>
         <v>261</v>
       </c>
-      <c r="G17" t="s">
-        <v>230</v>
-      </c>
-      <c r="H17" s="70" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="33" customHeight="1">
-      <c r="A18" s="65"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61">
-        <v>29</v>
-      </c>
-      <c r="E18" s="67">
-        <v>10</v>
-      </c>
-      <c r="F18" s="67">
-        <f t="shared" si="0"/>
-        <v>290</v>
-      </c>
-      <c r="G18" t="s">
-        <v>285</v>
+      <c r="G18" s="77" t="s">
+        <v>225</v>
       </c>
       <c r="H18" s="70" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="33" customHeight="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="33" customHeight="1">
       <c r="A19" s="65"/>
       <c r="B19" s="63"/>
       <c r="C19" s="61"/>
@@ -8852,408 +9499,576 @@
         <v>29</v>
       </c>
       <c r="E19" s="67">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="F19" s="67">
         <f t="shared" si="0"/>
-        <v>108.75</v>
+        <v>290</v>
       </c>
       <c r="G19" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="H19" s="70" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="33" customHeight="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="33" customHeight="1">
       <c r="A20" s="65"/>
       <c r="B20" s="63"/>
       <c r="C20" s="61"/>
-      <c r="D20" s="61">
-        <f>46-17</f>
+      <c r="D20" s="78">
         <v>29</v>
       </c>
-      <c r="E20" s="67">
-        <v>3.5</v>
-      </c>
-      <c r="F20" s="67">
+      <c r="E20" s="79">
+        <v>3.75</v>
+      </c>
+      <c r="F20" s="79">
         <f t="shared" si="0"/>
-        <v>101.5</v>
-      </c>
-      <c r="G20" t="s">
-        <v>259</v>
+        <v>108.75</v>
+      </c>
+      <c r="G20" s="80" t="s">
+        <v>255</v>
       </c>
       <c r="H20" s="70" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="33" customHeight="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="33" customHeight="1">
       <c r="A21" s="65"/>
       <c r="B21" s="63"/>
       <c r="C21" s="61"/>
       <c r="D21" s="61">
-        <v>17</v>
+        <f>46-17</f>
+        <v>29</v>
       </c>
       <c r="E21" s="67">
-        <v>35</v>
+        <v>3.5</v>
       </c>
       <c r="F21" s="67">
         <f t="shared" si="0"/>
-        <v>595</v>
+        <v>101.5</v>
       </c>
       <c r="G21" t="s">
-        <v>230</v>
-      </c>
-      <c r="H21" s="68" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="33" customHeight="1">
+        <v>253</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="33" customHeight="1">
       <c r="A22" s="65"/>
       <c r="B22" s="63"/>
       <c r="C22" s="61"/>
       <c r="D22" s="61">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E22" s="67">
-        <v>22</v>
+        <v>9.5</v>
       </c>
       <c r="F22" s="67">
-        <f t="shared" si="0"/>
-        <v>374</v>
+        <f>E22*D22</f>
+        <v>275.5</v>
       </c>
       <c r="G22" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H22" s="70" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="33" customHeight="1">
+        <v>259</v>
+      </c>
+      <c r="I22">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="33" customHeight="1">
       <c r="A23" s="65"/>
       <c r="B23" s="63"/>
       <c r="C23" s="61"/>
-      <c r="D23" s="61">
+      <c r="D23" s="75">
         <v>17</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="76">
+        <v>35</v>
+      </c>
+      <c r="F23" s="76">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="H23" s="68" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="33" customHeight="1">
+      <c r="A24" s="65"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="78">
+        <v>17</v>
+      </c>
+      <c r="E24" s="79">
+        <v>22</v>
+      </c>
+      <c r="F24" s="79">
+        <f t="shared" si="0"/>
+        <v>374</v>
+      </c>
+      <c r="G24" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="H24" s="70" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="33" customHeight="1">
+      <c r="A25" s="65"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61">
+        <v>17</v>
+      </c>
+      <c r="E25" s="67">
         <v>24</v>
       </c>
-      <c r="F23" s="67">
+      <c r="F25" s="67">
         <f t="shared" si="0"/>
         <v>408</v>
       </c>
-      <c r="G23" t="s">
-        <v>271</v>
-      </c>
-      <c r="H23" s="70" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="33" customHeight="1">
-      <c r="A24" s="65">
+      <c r="G25" t="s">
+        <v>265</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>258</v>
+      </c>
+      <c r="I25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="33" customHeight="1">
+      <c r="A26" s="65">
         <v>16</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B26" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C26" s="61">
         <v>2.5</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D26" s="61">
         <v>5</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E26" s="67">
         <v>14</v>
       </c>
-      <c r="F24" s="67">
+      <c r="F26" s="67">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="G24" s="70" t="s">
-        <v>284</v>
-      </c>
-      <c r="H24" s="70" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A25" s="65">
+      <c r="G26" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="H26" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="I26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A27" s="65">
         <v>30</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B27" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="61">
+      <c r="C27" s="61">
         <v>2</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D27" s="61">
         <v>13</v>
       </c>
-      <c r="E25" s="67">
+      <c r="E27" s="67">
         <v>11.5</v>
       </c>
-      <c r="F25" s="67">
+      <c r="F27" s="67">
         <f t="shared" si="0"/>
         <v>149.5</v>
       </c>
-      <c r="G25" s="70" t="s">
-        <v>266</v>
-      </c>
-      <c r="H25" s="70" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A26" s="65"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61">
+      <c r="G27" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="H27" s="70" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A28" s="65"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61">
         <v>13</v>
       </c>
-      <c r="E26" s="67">
+      <c r="E28" s="67">
         <v>14</v>
       </c>
-      <c r="F26" s="67">
+      <c r="F28" s="67">
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
-      <c r="G26" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="H26" s="70" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A27" s="65"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61">
+      <c r="G28" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A29" s="65"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61">
         <v>13</v>
       </c>
-      <c r="E27" s="67">
+      <c r="E29" s="67">
         <v>29</v>
       </c>
-      <c r="F27" s="67">
+      <c r="F29" s="67">
         <f t="shared" si="0"/>
         <v>377</v>
       </c>
-      <c r="G27" t="s">
-        <v>276</v>
-      </c>
-      <c r="H27" s="70" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="33" customHeight="1">
-      <c r="A28" s="65">
+      <c r="G29" t="s">
+        <v>270</v>
+      </c>
+      <c r="H29" s="70" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A30" s="65"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61">
+        <v>13</v>
+      </c>
+      <c r="E30" s="67">
+        <v>9</v>
+      </c>
+      <c r="F30" s="67">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="G30" t="s">
+        <v>291</v>
+      </c>
+      <c r="H30" s="70" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A31" s="65"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61">
+        <v>13</v>
+      </c>
+      <c r="E31" s="67">
+        <v>4.7</v>
+      </c>
+      <c r="F31" s="67">
+        <f t="shared" si="0"/>
+        <v>61.1</v>
+      </c>
+      <c r="G31" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="H31" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="I31">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="33" customHeight="1">
+      <c r="A32" s="65">
         <v>35</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B32" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C32" s="61">
         <v>2</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D32" s="61">
         <v>12</v>
       </c>
-      <c r="E28" s="67">
+      <c r="E32" s="67">
         <v>55</v>
       </c>
-      <c r="F28" s="67">
+      <c r="F32" s="67">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="G28" t="s">
-        <v>230</v>
-      </c>
-      <c r="H28" s="70" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="33" customHeight="1">
-      <c r="A29" s="65"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61">
+      <c r="G32" t="s">
+        <v>225</v>
+      </c>
+      <c r="H32" s="70" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="33" customHeight="1">
+      <c r="A33" s="65"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61">
         <v>12</v>
       </c>
-      <c r="E29" s="67">
-        <v>32</v>
-      </c>
-      <c r="F29" s="67">
-        <f t="shared" si="0"/>
-        <v>384</v>
-      </c>
-      <c r="G29" s="70" t="s">
-        <v>278</v>
-      </c>
-      <c r="H29" s="70" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="33" customHeight="1">
-      <c r="A30" s="65"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61">
+      <c r="E33" s="67">
         <v>12</v>
-      </c>
-      <c r="E30" s="67">
-        <v>14</v>
-      </c>
-      <c r="F30" s="67">
-        <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-      <c r="G30" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="H30" s="70" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="33" customHeight="1">
-      <c r="A31" s="65"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61">
-        <v>12</v>
-      </c>
-      <c r="E31" s="67">
-        <v>11.5</v>
-      </c>
-      <c r="F31" s="67">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="G31" t="s">
-        <v>267</v>
-      </c>
-      <c r="H31" s="70" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="33" customHeight="1">
-      <c r="A32" s="65"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61">
-        <v>12</v>
-      </c>
-      <c r="E32" s="67">
-        <v>1.4</v>
-      </c>
-      <c r="F32" s="67">
-        <f t="shared" si="0"/>
-        <v>16.799999999999997</v>
-      </c>
-      <c r="G32" t="s">
-        <v>260</v>
-      </c>
-      <c r="H32" s="70" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="33" customHeight="1">
-      <c r="A33" s="65">
-        <v>40</v>
-      </c>
-      <c r="B33" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="61">
-        <v>2</v>
-      </c>
-      <c r="D33" s="61">
-        <v>5</v>
-      </c>
-      <c r="E33" s="67">
-        <v>49</v>
       </c>
       <c r="F33" s="67">
         <f t="shared" si="0"/>
-        <v>245</v>
-      </c>
-      <c r="G33" s="70" t="s">
-        <v>289</v>
+        <v>144</v>
+      </c>
+      <c r="G33" t="s">
+        <v>294</v>
       </c>
       <c r="H33" s="70" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="33" customHeight="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="33" customHeight="1">
       <c r="A34" s="65"/>
       <c r="B34" s="62"/>
       <c r="C34" s="61"/>
       <c r="D34" s="61">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E34" s="67">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F34" s="67">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>384</v>
       </c>
       <c r="G34" s="70" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H34" s="70" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="33" customHeight="1">
-      <c r="A35" s="65">
-        <v>45</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="61">
-        <v>2</v>
-      </c>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="33" customHeight="1">
+      <c r="A35" s="65"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="61">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E35" s="67">
-        <v>48.3</v>
+        <v>14</v>
       </c>
       <c r="F35" s="67">
         <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="G35" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="H35" s="70" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="33" customHeight="1">
+      <c r="A36" s="65"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61">
+        <v>12</v>
+      </c>
+      <c r="E36" s="67">
+        <v>11.5</v>
+      </c>
+      <c r="F36" s="67">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="G36" t="s">
+        <v>261</v>
+      </c>
+      <c r="H36" s="70" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="33" customHeight="1">
+      <c r="A37" s="65"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78">
+        <v>12</v>
+      </c>
+      <c r="E37" s="79">
+        <v>1.4</v>
+      </c>
+      <c r="F37" s="79">
+        <f t="shared" si="0"/>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="G37" s="80" t="s">
+        <v>254</v>
+      </c>
+      <c r="H37" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="I37">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="33" customHeight="1">
+      <c r="A38" s="65">
+        <v>40</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="61">
+        <v>2</v>
+      </c>
+      <c r="D38" s="61">
+        <v>5</v>
+      </c>
+      <c r="E38" s="67">
+        <v>49</v>
+      </c>
+      <c r="F38" s="67">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="G38" s="70" t="s">
+        <v>283</v>
+      </c>
+      <c r="H38" s="70" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="33" customHeight="1">
+      <c r="A39" s="65"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61">
+        <v>5</v>
+      </c>
+      <c r="E39" s="67">
+        <v>25</v>
+      </c>
+      <c r="F39" s="67">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="G39" s="70" t="s">
+        <v>295</v>
+      </c>
+      <c r="H39" s="70" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="33" customHeight="1">
+      <c r="A40" s="65"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61">
+        <v>5</v>
+      </c>
+      <c r="E40" s="67">
+        <v>15</v>
+      </c>
+      <c r="F40" s="67">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G40" s="70" t="s">
+        <v>268</v>
+      </c>
+      <c r="H40" s="70" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="33" customHeight="1">
+      <c r="A41" s="65"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61">
+        <v>5</v>
+      </c>
+      <c r="E41" s="67">
+        <v>27</v>
+      </c>
+      <c r="F41" s="67">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="G41" s="70" t="s">
+        <v>297</v>
+      </c>
+      <c r="H41" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="I41">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="33" customHeight="1">
+      <c r="A42" s="65">
+        <v>45</v>
+      </c>
+      <c r="B42" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="61">
+        <v>2</v>
+      </c>
+      <c r="D42" s="61">
+        <v>3</v>
+      </c>
+      <c r="E42" s="67">
+        <v>48.3</v>
+      </c>
+      <c r="F42" s="67">
+        <f t="shared" si="0"/>
         <v>144.89999999999998</v>
       </c>
-      <c r="G35" s="70" t="s">
-        <v>283</v>
-      </c>
-      <c r="H35" s="70" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="33" customHeight="1">
-      <c r="D36" s="71">
+      <c r="G42" s="70" t="s">
+        <v>277</v>
+      </c>
+      <c r="H42" s="70" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="33" customHeight="1">
+      <c r="D43" s="71">
         <v>3</v>
       </c>
-      <c r="E36" s="72">
+      <c r="E43" s="72">
         <v>26</v>
       </c>
-      <c r="F36" s="72">
+      <c r="F43" s="72">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="G36" s="70" t="s">
-        <v>293</v>
-      </c>
-      <c r="H36" s="70" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="33" customHeight="1"/>
-    <row r="38" spans="1:8" ht="33" customHeight="1"/>
-    <row r="39" spans="1:8" ht="33" customHeight="1"/>
-    <row r="40" spans="1:8" ht="33" customHeight="1"/>
+      <c r="G43" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="H43" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="I43">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="33" customHeight="1"/>
+    <row r="45" spans="1:9" ht="33" customHeight="1"/>
+    <row r="46" spans="1:9" ht="33" customHeight="1"/>
+    <row r="47" spans="1:9" ht="33" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plan/Rośliny.Zestawienie.xlsx
+++ b/plan/Rośliny.Zestawienie.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20400" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20400" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Zestawienie" sheetId="1" r:id="rId1"/>
     <sheet name="Statystyki" sheetId="2" r:id="rId2"/>
     <sheet name="Iglaki" sheetId="3" r:id="rId3"/>
-    <sheet name="Arkusz2" sheetId="4" r:id="rId4"/>
+    <sheet name="sklepy" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Zestawienie!$A$1:$I$117</definedName>
@@ -436,7 +436,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="432">
   <si>
     <t>Nr</t>
   </si>
@@ -1883,12 +1883,360 @@
   <si>
     <t xml:space="preserve"> http://www.ogrodkroton.pl/towar.3680.roza.gelbe.degmar.hastrup%C2%AE.html</t>
   </si>
+  <si>
+    <t>bartak 14zł</t>
+  </si>
+  <si>
+    <t>bartak 15zł</t>
+  </si>
+  <si>
+    <t>Szukane po Opineo.pl:</t>
+  </si>
+  <si>
+    <t>http://www.opineo.pl/opinie/euroogrod-com-pl</t>
+  </si>
+  <si>
+    <t>http://www.opineo.pl/opinie/iglaki24-pl</t>
+  </si>
+  <si>
+    <t>http://www.opineo.pl/opinie/iglaco-com</t>
+  </si>
+  <si>
+    <t>http://www.opineo.pl/opinie/sadowniczy-pl</t>
+  </si>
+  <si>
+    <t>http://www.opineo.pl/opinie/ogrodkroton-pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szukane po top sprzedaży „Tuja” na allegro: </t>
+  </si>
+  <si>
+    <t>www_e-iglaki_p (e-iglaki.pl)</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/show_user.php?uid=19723221</t>
+  </si>
+  <si>
+    <t>sadzonki.org</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/show_user.php?uid=40421692</t>
+  </si>
+  <si>
+    <t>e-market_24h (http://zielony-zywoplot.pl)</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/show_user.php?uid=9600079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szukane po top  sprzedaży „Miskant” na allegro: </t>
+  </si>
+  <si>
+    <t>Gladi20 (http://www.gardenpark.com.pl)</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/show_user.php?uid=386018</t>
+  </si>
+  <si>
+    <t>akex-Albamar</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/show_user.php?uid=7792153</t>
+  </si>
+  <si>
+    <t>asiagaw</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/show_user.php?uid=2192767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szukane po top10  sprzedaży http://allegro.pl/rosliny-drzewa-i-krzewy-iglaste-99745 na allegro: </t>
+  </si>
+  <si>
+    <t>gladi20</t>
+  </si>
+  <si>
+    <t>flora-top1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akex-Albamar </t>
+  </si>
+  <si>
+    <t>Mayla_PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szukane po top10  sprzedaży http://allegro.pl/rosliny-trawy-99817 na allegro: </t>
+  </si>
+  <si>
+    <t>http://allegro.pl/show_user.php?uid=40021923</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/show_user.php?uid=27500783</t>
+  </si>
+  <si>
+    <t>miododajne</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/show_user.php?uid=16855451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szukane po top20  sprzedaży http://allegro.pl/rosliny-drzewa-i-krzewy-lisciaste-99754 na allegro: </t>
+  </si>
+  <si>
+    <t>e-market_24h</t>
+  </si>
+  <si>
+    <t>podkarpackie sady</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/show_user.php?uid=24173211</t>
+  </si>
+  <si>
+    <t>Szutniczek</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/show_user.php?uid=3673023</t>
+  </si>
+  <si>
+    <t>smilingface</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/show_user.php?uid=5451084</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">farus22 (sadzonki po 2PLN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>http://allegro.pl/show_user.php?uid=29276533</t>
+  </si>
+  <si>
+    <t>Ogrod-marzen</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/show_user.php?uid=17390038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szukane po top15  sprzedaży http://allegro.pl/rosliny-byliny-ozdobne-99806  na allegro: </t>
+  </si>
+  <si>
+    <t>Lista docelowa</t>
+  </si>
+  <si>
+    <t>Euroogrod</t>
+  </si>
+  <si>
+    <t>Lista pośrednia</t>
+  </si>
+  <si>
+    <t>nie tylko rośliny</t>
+  </si>
+  <si>
+    <t>iglaki, drzewa i krzewy  llisc, azalie'</t>
+  </si>
+  <si>
+    <t>100% opineo</t>
+  </si>
+  <si>
+    <t>Iglaki24</t>
+  </si>
+  <si>
+    <t>mało sprzedali, nawet na allegro ma 96,5%</t>
+  </si>
+  <si>
+    <t>duzo roslin</t>
+  </si>
+  <si>
+    <t>Iglaco com</t>
+  </si>
+  <si>
+    <t>troche mało roślin</t>
+  </si>
+  <si>
+    <t>99 opineo,  allegro 99,3%, duzo sprzedali</t>
+  </si>
+  <si>
+    <t>92 opineo(1000 opinii), chyba ich nie ma na allegro</t>
+  </si>
+  <si>
+    <t>niewiele, głownie owocowe</t>
+  </si>
+  <si>
+    <t>Sadowniczy</t>
+  </si>
+  <si>
+    <t>Kroton</t>
+  </si>
+  <si>
+    <t>słabe opinie</t>
+  </si>
+  <si>
+    <t>bardzo duzy wybór</t>
+  </si>
+  <si>
+    <t>zielony - ok.</t>
+  </si>
+  <si>
+    <t>granatowy - do zastaniwenia</t>
+  </si>
+  <si>
+    <t>czerwony - odrzucony</t>
+  </si>
+  <si>
+    <t>tylko jeśli wybór i odbiór osobisty</t>
+  </si>
+  <si>
+    <t>e-iglaki.pl</t>
+  </si>
+  <si>
+    <t>allegro mała sprzedaz 4000, 96,4%</t>
+  </si>
+  <si>
+    <t>drzewa, krzewy , głownie iglaki</t>
+  </si>
+  <si>
+    <t>sadzonki,org</t>
+  </si>
+  <si>
+    <t>allegro mały spzrdaz 900, 97%</t>
+  </si>
+  <si>
+    <t>glad20</t>
+  </si>
+  <si>
+    <t>sallegro 85000, 99,4%</t>
+  </si>
+  <si>
+    <t>mały wybór</t>
+  </si>
+  <si>
+    <t>market24h</t>
+  </si>
+  <si>
+    <t>3000 allegro, 98,5%</t>
+  </si>
+  <si>
+    <t>ma rosliny zywoplowtowe</t>
+  </si>
+  <si>
+    <t>akekx albamar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130tys allegro, </t>
+  </si>
+  <si>
+    <t>nie ma iglaków, duzo bylin, trawy</t>
+  </si>
+  <si>
+    <t>32000, 98,5% allegro</t>
+  </si>
+  <si>
+    <t>nie ma igaków, głownie byliny, trawy</t>
+  </si>
+  <si>
+    <t>floratop1</t>
+  </si>
+  <si>
+    <t>1600 allegro, 99,8%</t>
+  </si>
+  <si>
+    <t>za mały wybór</t>
+  </si>
+  <si>
+    <t>mayla_pl</t>
+  </si>
+  <si>
+    <t>4600 allegro, 98,3%</t>
+  </si>
+  <si>
+    <t>głownie byliny trawy, nie kupują tui</t>
+  </si>
+  <si>
+    <t>47000, 100% allegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duzo drzew lisciastych, </t>
+  </si>
+  <si>
+    <t>podkarpackiesady</t>
+  </si>
+  <si>
+    <t>allegro 47000 dobrze99,7</t>
+  </si>
+  <si>
+    <t>szutniczek</t>
+  </si>
+  <si>
+    <t>głównie lisciaste</t>
+  </si>
+  <si>
+    <t>24000, 98,8%</t>
+  </si>
+  <si>
+    <t>50000, 99,6%</t>
+  </si>
+  <si>
+    <t>nie ma iglakow, lisciaste i byliny, troche funkii</t>
+  </si>
+  <si>
+    <t>farus22</t>
+  </si>
+  <si>
+    <t>dlownie lisciaste, tanie pierdki</t>
+  </si>
+  <si>
+    <t>ogrod-marzen</t>
+  </si>
+  <si>
+    <t>65000, 99%</t>
+  </si>
+  <si>
+    <t>ma iglaste, lisciaste</t>
+  </si>
+  <si>
+    <t>iglak1</t>
+  </si>
+  <si>
+    <t>iglak2</t>
+  </si>
+  <si>
+    <t>sklep1</t>
+  </si>
+  <si>
+    <t>sklep2</t>
+  </si>
+  <si>
+    <t>cena, wysokosc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="28">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;zł&quot;;[Red]\-#,##0\ &quot;zł&quot;"/>
+  </numFmts>
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2090,8 +2438,64 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2120,6 +2524,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2232,10 +2642,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2454,8 +2868,38 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
@@ -3079,8 +3523,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>206775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>894938</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>430697</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4646,9 +5090,21 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L118" totalsRowCount="1" headerRowDxfId="22" totalsRowDxfId="20" tableBorderDxfId="21">
   <autoFilter ref="A1:L117">
-    <filterColumn colId="3"/>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Drzewo"/>
+        <filter val="Drzewo małe"/>
+        <filter val="Krzew"/>
+        <filter val="Krzew mały"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4"/>
-    <filterColumn colId="5"/>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="9"/>
     <filterColumn colId="10"/>
     <filterColumn colId="11"/>
@@ -4961,8 +5417,8 @@
   <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5016,7 +5472,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="22.5">
+    <row r="2" spans="1:16" ht="25.5" hidden="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5052,7 +5508,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="22.5">
+    <row r="3" spans="1:16" ht="25.5" hidden="1">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -5088,7 +5544,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="22.5">
+    <row r="4" spans="1:16" ht="25.5" hidden="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -5124,7 +5580,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="26.25" customHeight="1">
+    <row r="5" spans="1:16" ht="26.25" hidden="1" customHeight="1">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -5160,7 +5616,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="38.25">
+    <row r="6" spans="1:16" ht="38.25" hidden="1">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -5196,7 +5652,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" hidden="1">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -5232,7 +5688,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="96">
+    <row r="8" spans="1:16" ht="96" hidden="1">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -5268,7 +5724,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="38.25">
+    <row r="9" spans="1:16" ht="38.25" hidden="1">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -5304,7 +5760,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="33.75">
+    <row r="10" spans="1:16" ht="33.75" hidden="1">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -5340,7 +5796,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="45">
+    <row r="11" spans="1:16" ht="45" hidden="1">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -5371,7 +5827,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="45">
+    <row r="12" spans="1:16" ht="45" hidden="1">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -5435,7 +5891,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="26.25" customHeight="1">
+    <row r="14" spans="1:16" ht="26.25" hidden="1" customHeight="1">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -5532,7 +5988,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="24">
+    <row r="17" spans="1:12" ht="24" hidden="1">
       <c r="A17" s="5">
         <v>10</v>
       </c>
@@ -5563,7 +6019,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="22.5">
+    <row r="18" spans="1:12" ht="22.5" hidden="1">
       <c r="A18" s="5">
         <v>11</v>
       </c>
@@ -5602,7 +6058,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="33.75">
+    <row r="19" spans="1:12" ht="33.75" hidden="1">
       <c r="A19" s="5">
         <v>12</v>
       </c>
@@ -5633,7 +6089,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="40.5" customHeight="1">
+    <row r="20" spans="1:12" ht="40.5" hidden="1" customHeight="1">
       <c r="A20" s="5">
         <v>13</v>
       </c>
@@ -5664,7 +6120,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="45">
+    <row r="21" spans="1:12" ht="45" hidden="1">
       <c r="A21" s="5">
         <v>14</v>
       </c>
@@ -5697,7 +6153,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="36">
+    <row r="22" spans="1:12" ht="36" hidden="1">
       <c r="A22" s="5" t="s">
         <v>109</v>
       </c>
@@ -5728,7 +6184,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="24">
+    <row r="23" spans="1:12" ht="24" hidden="1">
       <c r="A23" s="5">
         <v>15</v>
       </c>
@@ -5806,7 +6262,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="33.75">
+    <row r="25" spans="1:12" ht="33.75" hidden="1">
       <c r="A25" s="5">
         <v>16</v>
       </c>
@@ -5870,7 +6326,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="25.5">
+    <row r="27" spans="1:12" ht="25.5" hidden="1">
       <c r="A27" s="5">
         <v>17</v>
       </c>
@@ -5937,7 +6393,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="36">
+    <row r="29" spans="1:12" ht="36" hidden="1">
       <c r="A29" s="5">
         <v>18</v>
       </c>
@@ -6001,7 +6457,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="56.25">
+    <row r="31" spans="1:12" ht="56.25" hidden="1">
       <c r="A31" s="5">
         <v>19</v>
       </c>
@@ -6032,7 +6488,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="25.5">
+    <row r="32" spans="1:12" ht="25.5" hidden="1">
       <c r="A32" s="5">
         <v>20</v>
       </c>
@@ -6068,7 +6524,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="45">
+    <row r="33" spans="1:12" ht="45" hidden="1">
       <c r="A33" s="5">
         <v>21</v>
       </c>
@@ -6099,7 +6555,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="33.75">
+    <row r="34" spans="1:12" ht="33.75" hidden="1">
       <c r="A34" s="5">
         <v>22</v>
       </c>
@@ -6267,7 +6723,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="51">
+    <row r="39" spans="1:12" ht="51" hidden="1">
       <c r="A39" s="5">
         <v>25</v>
       </c>
@@ -6365,7 +6821,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" hidden="1">
       <c r="A42" s="5">
         <v>28</v>
       </c>
@@ -6396,7 +6852,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="22.5">
+    <row r="43" spans="1:12" ht="22.5" hidden="1">
       <c r="A43" s="5">
         <v>28</v>
       </c>
@@ -6427,7 +6883,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="51">
+    <row r="44" spans="1:12" ht="51" hidden="1">
       <c r="A44" s="5">
         <v>29</v>
       </c>
@@ -6560,7 +7016,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="38.25">
+    <row r="48" spans="1:12" ht="38.25" hidden="1">
       <c r="A48" s="5">
         <v>33</v>
       </c>
@@ -6596,7 +7052,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="33.75">
+    <row r="49" spans="1:12" ht="33.75" hidden="1">
       <c r="A49" s="5">
         <v>34</v>
       </c>
@@ -6734,7 +7190,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="48">
+    <row r="53" spans="1:12" ht="48" hidden="1">
       <c r="A53" s="5">
         <v>38</v>
       </c>
@@ -6806,7 +7262,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="38.25">
+    <row r="55" spans="1:12" ht="38.25" hidden="1">
       <c r="A55" s="5">
         <v>39</v>
       </c>
@@ -6942,7 +7398,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="56.25">
+    <row r="59" spans="1:12" ht="56.25" hidden="1">
       <c r="A59" s="5">
         <v>43</v>
       </c>
@@ -6978,7 +7434,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="22.5">
+    <row r="60" spans="1:12" ht="22.5" hidden="1">
       <c r="A60" s="5">
         <v>44</v>
       </c>
@@ -7153,7 +7609,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="36" customHeight="1">
+    <row r="65" spans="1:12" ht="36" hidden="1" customHeight="1">
       <c r="A65" s="5">
         <v>49</v>
       </c>
@@ -7497,7 +7953,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="33.75">
+    <row r="75" spans="1:12" ht="33.75" hidden="1">
       <c r="A75" s="5">
         <v>59</v>
       </c>
@@ -7530,7 +7986,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="22.5" customHeight="1">
+    <row r="76" spans="1:12" ht="22.5" customHeight="1" thickBot="1">
       <c r="A76" s="5">
         <v>60</v>
       </c>
@@ -7569,7 +8025,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="36">
+    <row r="77" spans="1:12" ht="36.75" hidden="1" thickBot="1">
       <c r="A77" s="5">
         <v>61</v>
       </c>
@@ -7605,7 +8061,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="33.75">
+    <row r="78" spans="1:12" ht="34.5" hidden="1" thickBot="1">
       <c r="A78" s="5">
         <v>62</v>
       </c>
@@ -7641,7 +8097,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="45">
+    <row r="79" spans="1:12" ht="45.75" hidden="1" thickBot="1">
       <c r="A79" s="5">
         <v>63</v>
       </c>
@@ -7672,7 +8128,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="33.75">
+    <row r="80" spans="1:12" ht="34.5" hidden="1" thickBot="1">
       <c r="A80" s="5">
         <v>64</v>
       </c>
@@ -7704,7 +8160,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="25.5" customHeight="1">
+    <row r="81" spans="1:10" ht="25.5" hidden="1" customHeight="1">
       <c r="A81" s="5">
         <v>65</v>
       </c>
@@ -7733,7 +8189,7 @@
       </c>
       <c r="J81" s="37"/>
     </row>
-    <row r="82" spans="1:10" ht="33.75">
+    <row r="82" spans="1:10" ht="34.5" hidden="1" thickBot="1">
       <c r="A82" s="5">
         <v>66</v>
       </c>
@@ -7762,7 +8218,7 @@
       </c>
       <c r="J82" s="37"/>
     </row>
-    <row r="83" spans="1:10" ht="56.25">
+    <row r="83" spans="1:10" ht="57" hidden="1" thickBot="1">
       <c r="A83" s="5">
         <v>67</v>
       </c>
@@ -7791,7 +8247,7 @@
       </c>
       <c r="J83" s="37"/>
     </row>
-    <row r="84" spans="1:10" ht="45">
+    <row r="84" spans="1:10" ht="45.75" hidden="1" thickBot="1">
       <c r="A84" s="5">
         <v>68</v>
       </c>
@@ -7822,7 +8278,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="45">
+    <row r="85" spans="1:10" ht="45.75" hidden="1" thickBot="1">
       <c r="A85" s="5">
         <v>69</v>
       </c>
@@ -7853,7 +8309,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="33.75">
+    <row r="86" spans="1:10" ht="34.5" hidden="1" thickBot="1">
       <c r="A86" s="5">
         <v>70</v>
       </c>
@@ -7886,7 +8342,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="45">
+    <row r="87" spans="1:10" ht="45.75" hidden="1" thickBot="1">
       <c r="A87" s="5">
         <v>71</v>
       </c>
@@ -7917,7 +8373,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="22.5">
+    <row r="88" spans="1:10" ht="23.25" hidden="1" thickBot="1">
       <c r="A88" s="5">
         <v>72</v>
       </c>
@@ -7948,7 +8404,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="45">
+    <row r="89" spans="1:10" ht="45.75" hidden="1" thickBot="1">
       <c r="A89" s="5">
         <v>73</v>
       </c>
@@ -7979,7 +8435,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="25.5">
+    <row r="90" spans="1:10" ht="26.25" hidden="1" thickBot="1">
       <c r="A90" s="5">
         <v>74</v>
       </c>
@@ -8010,7 +8466,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="36" customHeight="1">
+    <row r="91" spans="1:10" ht="36" hidden="1" customHeight="1">
       <c r="A91" s="5">
         <v>75</v>
       </c>
@@ -8041,7 +8497,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="67.5">
+    <row r="92" spans="1:10" ht="68.25" hidden="1" thickBot="1">
       <c r="A92" s="5">
         <v>76</v>
       </c>
@@ -8072,7 +8528,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="33.75">
+    <row r="93" spans="1:10" ht="34.5" hidden="1" thickBot="1">
       <c r="A93" s="5">
         <v>77</v>
       </c>
@@ -8103,7 +8559,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="67.5">
+    <row r="94" spans="1:10" ht="68.25" hidden="1" thickBot="1">
       <c r="A94" s="5">
         <v>78</v>
       </c>
@@ -8136,7 +8592,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="45">
+    <row r="95" spans="1:10" ht="45.75" hidden="1" thickBot="1">
       <c r="A95" s="5">
         <v>79</v>
       </c>
@@ -8169,7 +8625,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1">
+    <row r="96" spans="1:10" ht="15" hidden="1" thickBot="1">
       <c r="A96" s="5">
         <v>80</v>
       </c>
@@ -8338,7 +8794,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="57" thickBot="1">
+    <row r="101" spans="1:12" ht="57" hidden="1" thickBot="1">
       <c r="A101" s="5">
         <v>85</v>
       </c>
@@ -8403,7 +8859,7 @@
       </c>
       <c r="J102" s="37"/>
     </row>
-    <row r="103" spans="1:12" ht="34.5" thickBot="1">
+    <row r="103" spans="1:12" ht="34.5" hidden="1" thickBot="1">
       <c r="A103" s="5">
         <v>87</v>
       </c>
@@ -8432,7 +8888,7 @@
       </c>
       <c r="J103" s="37"/>
     </row>
-    <row r="104" spans="1:12" ht="45.75" thickBot="1">
+    <row r="104" spans="1:12" ht="45.75" hidden="1" thickBot="1">
       <c r="A104" s="5">
         <v>88</v>
       </c>
@@ -8463,7 +8919,7 @@
       </c>
       <c r="J104" s="37"/>
     </row>
-    <row r="105" spans="1:12" ht="57" thickBot="1">
+    <row r="105" spans="1:12" ht="57" hidden="1" thickBot="1">
       <c r="A105" s="5">
         <v>89</v>
       </c>
@@ -8494,7 +8950,7 @@
       </c>
       <c r="J105" s="37"/>
     </row>
-    <row r="106" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
+    <row r="106" spans="1:12" ht="16.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A106" s="5">
         <v>90</v>
       </c>
@@ -8523,7 +8979,7 @@
       </c>
       <c r="J106" s="37"/>
     </row>
-    <row r="107" spans="1:12" ht="45.75" thickBot="1">
+    <row r="107" spans="1:12" ht="45.75" hidden="1" thickBot="1">
       <c r="A107" s="5">
         <v>91</v>
       </c>
@@ -8591,7 +9047,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="79.5" thickBot="1">
+    <row r="109" spans="1:12" ht="78.75" hidden="1">
       <c r="A109" s="5">
         <v>93</v>
       </c>
@@ -8622,7 +9078,7 @@
       </c>
       <c r="J109" s="37"/>
     </row>
-    <row r="110" spans="1:12" ht="45.75" thickBot="1">
+    <row r="110" spans="1:12" ht="45.75" hidden="1" thickBot="1">
       <c r="A110" s="5"/>
       <c r="B110" s="57" t="s">
         <v>32</v>
@@ -8649,7 +9105,7 @@
       </c>
       <c r="J110" s="37"/>
     </row>
-    <row r="111" spans="1:12" ht="45.75" thickBot="1">
+    <row r="111" spans="1:12" ht="45.75" hidden="1" thickBot="1">
       <c r="A111" s="5"/>
       <c r="B111" s="58" t="s">
         <v>60</v>
@@ -8678,7 +9134,7 @@
       </c>
       <c r="J111" s="37"/>
     </row>
-    <row r="112" spans="1:12" ht="45">
+    <row r="112" spans="1:12" ht="45" hidden="1">
       <c r="A112" s="5"/>
       <c r="B112" s="24" t="s">
         <v>61</v>
@@ -8705,7 +9161,7 @@
       </c>
       <c r="J112" s="37"/>
     </row>
-    <row r="113" spans="1:12" ht="45">
+    <row r="113" spans="1:12" ht="45" hidden="1">
       <c r="A113" s="5"/>
       <c r="B113" s="24" t="s">
         <v>62</v>
@@ -8734,7 +9190,7 @@
       </c>
       <c r="J113" s="37"/>
     </row>
-    <row r="114" spans="1:12" ht="33.75">
+    <row r="114" spans="1:12" ht="33.75" hidden="1">
       <c r="A114" s="5"/>
       <c r="B114" s="24" t="s">
         <v>63</v>
@@ -8761,7 +9217,7 @@
       </c>
       <c r="J114" s="37"/>
     </row>
-    <row r="115" spans="1:12" ht="42.75" customHeight="1">
+    <row r="115" spans="1:12" ht="42.75" hidden="1" customHeight="1">
       <c r="A115" s="5"/>
       <c r="B115" s="25" t="s">
         <v>64</v>
@@ -8790,7 +9246,7 @@
       </c>
       <c r="J115" s="37"/>
     </row>
-    <row r="116" spans="1:12" ht="33.75">
+    <row r="116" spans="1:12" ht="33.75" hidden="1">
       <c r="A116" s="5"/>
       <c r="B116" s="23" t="s">
         <v>33</v>
@@ -8819,7 +9275,7 @@
       </c>
       <c r="J116" s="37"/>
     </row>
-    <row r="117" spans="1:12" ht="33.75">
+    <row r="117" spans="1:12" ht="33.75" hidden="1">
       <c r="A117" s="28"/>
       <c r="B117" s="24" t="s">
         <v>65</v>
@@ -8858,19 +9314,19 @@
       <c r="E118" s="45"/>
       <c r="F118" s="46">
         <f>SUBTOTAL(103,[Strefa])</f>
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="G118" s="46">
         <f>SUBTOTAL(109,[Liczba (sztuki)])</f>
-        <v>822</v>
+        <v>216</v>
       </c>
       <c r="H118" s="47">
         <f>SUBTOTAL(101,[Średnia cena])</f>
-        <v>33.540259740259742</v>
+        <v>42.547619047619051</v>
       </c>
       <c r="I118" s="46">
         <f>SUBTOTAL(109,[Suma])</f>
-        <v>9395.5</v>
+        <v>6102.5</v>
       </c>
       <c r="J118" s="46"/>
       <c r="K118" s="48"/>
@@ -9139,10 +9595,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9294,6 +9750,9 @@
       <c r="F10" s="67"/>
       <c r="G10" s="68"/>
       <c r="H10" s="68"/>
+      <c r="I10" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="33" customHeight="1">
       <c r="A11" s="65"/>
@@ -9439,7 +9898,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="33" customHeight="1">
+    <row r="17" spans="1:10" ht="33" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="8"/>
@@ -9463,7 +9922,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="33" customHeight="1">
+    <row r="18" spans="1:10" ht="33" customHeight="1">
       <c r="A18" s="65">
         <v>15</v>
       </c>
@@ -9490,8 +9949,11 @@
       <c r="H18" s="70" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="33" customHeight="1">
+      <c r="I18" s="81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="33" customHeight="1">
       <c r="A19" s="65"/>
       <c r="B19" s="63"/>
       <c r="C19" s="61"/>
@@ -9512,7 +9974,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="33" customHeight="1">
+    <row r="20" spans="1:10" ht="33" customHeight="1">
       <c r="A20" s="65"/>
       <c r="B20" s="63"/>
       <c r="C20" s="61"/>
@@ -9533,7 +9995,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="33" customHeight="1">
+    <row r="21" spans="1:10" ht="33" customHeight="1">
       <c r="A21" s="65"/>
       <c r="B21" s="63"/>
       <c r="C21" s="61"/>
@@ -9555,7 +10017,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="33" customHeight="1">
+    <row r="22" spans="1:10" ht="33" customHeight="1">
       <c r="A22" s="65"/>
       <c r="B22" s="63"/>
       <c r="C22" s="61"/>
@@ -9579,7 +10041,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="33" customHeight="1">
+    <row r="23" spans="1:10" ht="33" customHeight="1">
       <c r="A23" s="65"/>
       <c r="B23" s="63"/>
       <c r="C23" s="61"/>
@@ -9600,7 +10062,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="33" customHeight="1">
+    <row r="24" spans="1:10" ht="33" customHeight="1">
       <c r="A24" s="65"/>
       <c r="B24" s="63"/>
       <c r="C24" s="61"/>
@@ -9621,7 +10083,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="33" customHeight="1">
+    <row r="25" spans="1:10" ht="33" customHeight="1">
       <c r="A25" s="65"/>
       <c r="B25" s="63"/>
       <c r="C25" s="61"/>
@@ -9645,7 +10107,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="33" customHeight="1">
+    <row r="26" spans="1:10" ht="33" customHeight="1">
       <c r="A26" s="65">
         <v>16</v>
       </c>
@@ -9675,7 +10137,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="40.5" customHeight="1">
+    <row r="27" spans="1:10" ht="40.5" customHeight="1">
       <c r="A27" s="65">
         <v>30</v>
       </c>
@@ -9701,8 +10163,11 @@
       <c r="H27" s="70" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="40.5" customHeight="1">
+      <c r="J27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="40.5" customHeight="1">
       <c r="A28" s="65"/>
       <c r="B28" s="63"/>
       <c r="C28" s="61"/>
@@ -9723,7 +10188,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="40.5" customHeight="1">
+    <row r="29" spans="1:10" ht="40.5" customHeight="1">
       <c r="A29" s="65"/>
       <c r="B29" s="63"/>
       <c r="C29" s="61"/>
@@ -9744,7 +10209,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="40.5" customHeight="1">
+    <row r="30" spans="1:10" ht="40.5" customHeight="1">
       <c r="A30" s="65"/>
       <c r="B30" s="63"/>
       <c r="C30" s="61"/>
@@ -9765,7 +10230,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="40.5" customHeight="1">
+    <row r="31" spans="1:10" ht="40.5" customHeight="1">
       <c r="A31" s="65"/>
       <c r="B31" s="63"/>
       <c r="C31" s="61"/>
@@ -9789,7 +10254,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="33" customHeight="1">
+    <row r="32" spans="1:10" ht="33" customHeight="1">
       <c r="A32" s="65">
         <v>35</v>
       </c>
@@ -10066,9 +10531,36 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="33" customHeight="1"/>
-    <row r="45" spans="1:9" ht="33" customHeight="1"/>
-    <row r="46" spans="1:9" ht="33" customHeight="1"/>
-    <row r="47" spans="1:9" ht="33" customHeight="1"/>
+    <row r="45" spans="1:9" ht="33" customHeight="1">
+      <c r="C45" t="s">
+        <v>429</v>
+      </c>
+      <c r="D45" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="33" customHeight="1">
+      <c r="B46" t="s">
+        <v>427</v>
+      </c>
+      <c r="C46" t="s">
+        <v>431</v>
+      </c>
+      <c r="D46" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="33" customHeight="1">
+      <c r="B47" t="s">
+        <v>428</v>
+      </c>
+      <c r="C47" t="s">
+        <v>431</v>
+      </c>
+      <c r="D47" t="s">
+        <v>431</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10076,193 +10568,543 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="N5:P21"/>
+  <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="7" max="7" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.125" customWidth="1"/>
+    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="14:16">
-      <c r="N5">
-        <v>5.2</v>
-      </c>
-      <c r="O5">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="P5">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="6" spans="14:16">
-      <c r="N6">
-        <v>2.5</v>
-      </c>
-      <c r="O6">
-        <v>1.7</v>
-      </c>
-      <c r="P6">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="7" spans="14:16">
-      <c r="N7">
-        <v>0.6</v>
-      </c>
-      <c r="O7">
-        <v>1.5</v>
-      </c>
-      <c r="P7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="14:16">
-      <c r="N8">
-        <v>1.3</v>
-      </c>
-      <c r="O8">
-        <v>1.5</v>
-      </c>
-      <c r="P8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="14:16">
-      <c r="N9">
-        <v>1.6</v>
-      </c>
-      <c r="O9">
-        <v>1.5</v>
-      </c>
-      <c r="P9">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="14:16">
-      <c r="N10">
-        <v>1.3</v>
-      </c>
-      <c r="O10">
-        <v>1.5</v>
-      </c>
-      <c r="P10">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="14:16">
-      <c r="N11">
-        <v>1.7</v>
-      </c>
-      <c r="O11">
-        <v>1.5</v>
-      </c>
-      <c r="P11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="14:16">
-      <c r="N12">
-        <v>1.5</v>
-      </c>
-      <c r="O12">
-        <v>1.5</v>
-      </c>
-      <c r="P12">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="14:16">
-      <c r="N13">
-        <v>1.6</v>
-      </c>
-      <c r="O13">
-        <v>1.5</v>
-      </c>
-      <c r="P13">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="14:16">
-      <c r="N14">
-        <v>1.9</v>
-      </c>
-      <c r="O14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P14">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="14:16">
-      <c r="N15">
-        <v>1.5</v>
-      </c>
-      <c r="O15">
-        <v>6.6</v>
-      </c>
-      <c r="P15">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="16" spans="14:16">
-      <c r="N16">
-        <v>1.6</v>
-      </c>
-      <c r="O16">
-        <v>4.5</v>
-      </c>
-      <c r="P16">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="17" spans="14:16">
-      <c r="N17">
-        <v>1.6</v>
-      </c>
-      <c r="O17">
-        <v>1.2</v>
-      </c>
-      <c r="P17">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="18" spans="14:16">
-      <c r="N18">
-        <v>8.5</v>
-      </c>
-      <c r="O18">
-        <v>5.8</v>
-      </c>
-      <c r="P18">
-        <v>6.05</v>
-      </c>
-    </row>
-    <row r="19" spans="14:16">
-      <c r="N19">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="20" spans="14:16">
-      <c r="N20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="14:16">
-      <c r="N21">
-        <f>SUM(N5:N20)</f>
-        <v>40.800000000000004</v>
-      </c>
-      <c r="O21">
-        <f>SUM(O5:O20)</f>
-        <v>40.699999999999996</v>
-      </c>
-      <c r="P21">
-        <f>SUM(P5:P20)</f>
-        <v>40.549999999999997</v>
+    <row r="1" spans="1:12" ht="15">
+      <c r="A1" s="82" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>371</v>
+      </c>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="L1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30">
+      <c r="E2" s="88" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>372</v>
+      </c>
+      <c r="G2" s="89" t="s">
+        <v>373</v>
+      </c>
+      <c r="H2" s="89" t="s">
+        <v>374</v>
+      </c>
+      <c r="K2" s="66" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="57">
+      <c r="A3" s="83" t="s">
+        <v>327</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85" t="s">
+        <v>377</v>
+      </c>
+      <c r="H3" s="85" t="s">
+        <v>376</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="60">
+      <c r="E4" s="92" t="s">
+        <v>378</v>
+      </c>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93" t="s">
+        <v>379</v>
+      </c>
+      <c r="H4" s="93" t="s">
+        <v>380</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="71.25">
+      <c r="E5" s="73" t="s">
+        <v>383</v>
+      </c>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85" t="s">
+        <v>382</v>
+      </c>
+      <c r="H5" s="85" t="s">
+        <v>381</v>
+      </c>
+      <c r="I5" s="66"/>
+    </row>
+    <row r="6" spans="1:12" ht="42.75">
+      <c r="E6" s="86" t="s">
+        <v>384</v>
+      </c>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87" t="s">
+        <v>386</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>385</v>
+      </c>
+      <c r="I6" s="87" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="42.75">
+      <c r="A7" s="83" t="s">
+        <v>328</v>
+      </c>
+      <c r="E7" s="96" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97" t="s">
+        <v>393</v>
+      </c>
+      <c r="H7" s="97" t="s">
+        <v>392</v>
+      </c>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="1:12" ht="28.5">
+      <c r="E8" s="73" t="s">
+        <v>394</v>
+      </c>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85" t="s">
+        <v>395</v>
+      </c>
+      <c r="I8" s="66"/>
+    </row>
+    <row r="9" spans="1:12" ht="15">
+      <c r="E9" s="90" t="s">
+        <v>396</v>
+      </c>
+      <c r="F9" s="90"/>
+      <c r="G9" s="91" t="s">
+        <v>398</v>
+      </c>
+      <c r="H9" s="90" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
+      <c r="E10" s="94" t="s">
+        <v>399</v>
+      </c>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94" t="s">
+        <v>401</v>
+      </c>
+      <c r="H10" s="94" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
+      <c r="A11" s="83" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88" t="s">
+        <v>404</v>
+      </c>
+      <c r="H11" s="88" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15">
+      <c r="E12" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88" t="s">
+        <v>406</v>
+      </c>
+      <c r="H12" s="88" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15">
+      <c r="E13" s="90" t="s">
+        <v>407</v>
+      </c>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90" t="s">
+        <v>409</v>
+      </c>
+      <c r="H13" s="90" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="E14" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73" t="s">
+        <v>412</v>
+      </c>
+      <c r="H14" s="73" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="83" t="s">
+        <v>330</v>
+      </c>
+      <c r="E15" s="73" t="s">
+        <v>354</v>
+      </c>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73" t="s">
+        <v>414</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15">
+      <c r="E16" s="90" t="s">
+        <v>415</v>
+      </c>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="E17" s="73" t="s">
+        <v>417</v>
+      </c>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73" t="s">
+        <v>418</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15">
+      <c r="E18" s="90" t="s">
+        <v>362</v>
+      </c>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90" t="s">
+        <v>421</v>
+      </c>
+      <c r="H18" s="90" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="83" t="s">
+        <v>331</v>
+      </c>
+      <c r="E19" s="73" t="s">
+        <v>422</v>
+      </c>
+      <c r="G19" s="73" t="s">
+        <v>423</v>
+      </c>
+      <c r="H19">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15">
+      <c r="E20" s="92" t="s">
+        <v>424</v>
+      </c>
+      <c r="F20" s="95"/>
+      <c r="G20" s="92" t="s">
+        <v>426</v>
+      </c>
+      <c r="H20" s="95" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15">
+      <c r="A23" s="82" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="83" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="83" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="83" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="83" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15">
+      <c r="A43" s="82" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="83" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="83" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="83" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="83" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="83" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="83" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="83" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="83" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="83" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="83" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="83" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="83" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="83" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="83" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="83" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A11" r:id="rId3"/>
+    <hyperlink ref="A15" r:id="rId4"/>
+    <hyperlink ref="A19" r:id="rId5"/>
+    <hyperlink ref="A27" r:id="rId6"/>
+    <hyperlink ref="A33" r:id="rId7"/>
+    <hyperlink ref="A37" r:id="rId8" display="http://zielony-zywoplot.pl/"/>
+    <hyperlink ref="A39" r:id="rId9"/>
+    <hyperlink ref="A47" r:id="rId10"/>
+    <hyperlink ref="A53" r:id="rId11"/>
+    <hyperlink ref="A59" r:id="rId12"/>
+    <hyperlink ref="A63" r:id="rId13" display="http://allegro.pl/rosliny-drzewa-i-krzewy-iglaste-99745"/>
+    <hyperlink ref="A75" r:id="rId14" display="http://allegro.pl/rosliny-trawy-99817"/>
+    <hyperlink ref="A79" r:id="rId15"/>
+    <hyperlink ref="A85" r:id="rId16"/>
+    <hyperlink ref="A91" r:id="rId17"/>
+    <hyperlink ref="A95" r:id="rId18" display="http://allegro.pl/rosliny-drzewa-i-krzewy-lisciaste-99754"/>
+    <hyperlink ref="A107" r:id="rId19"/>
+    <hyperlink ref="A113" r:id="rId20"/>
+    <hyperlink ref="A119" r:id="rId21"/>
+    <hyperlink ref="A125" r:id="rId22"/>
+    <hyperlink ref="A131" r:id="rId23"/>
+    <hyperlink ref="A135" r:id="rId24" display="http://allegro.pl/rosliny-byliny-ozdobne-99806"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId25"/>
 </worksheet>
 </file>